--- a/lib/samples/assets/csv/institutions.xlsx
+++ b/lib/samples/assets/csv/institutions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="132">
   <si>
     <t>code</t>
   </si>
@@ -39,85 +39,85 @@
     <t>kh</t>
   </si>
   <si>
-    <t>CAMBODIA</t>
+    <t>Cambodia</t>
   </si>
   <si>
     <t>th</t>
   </si>
   <si>
-    <t>THAILAND</t>
+    <t>Thailand</t>
   </si>
   <si>
     <t>vn</t>
   </si>
   <si>
-    <t>VIETNAM</t>
+    <t>Vietnam</t>
   </si>
   <si>
     <t>cn</t>
   </si>
   <si>
-    <t>CHINA</t>
+    <t>China</t>
   </si>
   <si>
     <t>hk</t>
   </si>
   <si>
-    <t>HONG KONG</t>
+    <t>Hong Kong</t>
   </si>
   <si>
     <t>jp</t>
   </si>
   <si>
-    <t>JAPAN</t>
+    <t>Japan</t>
   </si>
   <si>
     <t>kw</t>
   </si>
   <si>
-    <t>KUWAIT</t>
+    <t>Kuwait</t>
   </si>
   <si>
     <t>my</t>
   </si>
   <si>
-    <t>MALAYSIA</t>
+    <t>Malaysia</t>
   </si>
   <si>
     <t>ph</t>
   </si>
   <si>
-    <t>PHILIPPINES</t>
+    <t>Philippines</t>
   </si>
   <si>
     <t>kr</t>
   </si>
   <si>
-    <t>SOUTH KOREA</t>
+    <t>South Korea</t>
   </si>
   <si>
     <t>qa</t>
   </si>
   <si>
-    <t>QATAR</t>
+    <t>Qatar</t>
   </si>
   <si>
     <t>sa</t>
   </si>
   <si>
-    <t>SAUDI ARABIA</t>
+    <t>Saudi Arabia</t>
   </si>
   <si>
     <t>sg</t>
   </si>
   <si>
-    <t>SINGAPORE</t>
+    <t>Singapore</t>
   </si>
   <si>
     <t>all</t>
   </si>
   <si>
-    <t>ALL COUNTRIES</t>
+    <t>All Countries</t>
   </si>
   <si>
     <t>country_name</t>
@@ -310,6 +310,9 @@
   </si>
   <si>
     <t>0919 777 7377</t>
+  </si>
+  <si>
+    <t>South Lorea</t>
   </si>
   <si>
     <t>kr_cam_embassy</t>
@@ -461,7 +464,6 @@
     <font>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1396,30 +1398,30 @@
     </row>
     <row r="26">
       <c r="A26" s="11" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
     </row>
     <row r="27">
       <c r="A27" s="11" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>82</v>
@@ -1434,13 +1436,13 @@
     </row>
     <row r="28">
       <c r="A28" s="11" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>68</v>
@@ -1455,10 +1457,10 @@
         <v>23</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>56</v>
@@ -1473,7 +1475,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>82</v>
@@ -1491,10 +1493,10 @@
         <v>23</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>68</v>
@@ -1509,10 +1511,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>56</v>
@@ -1527,7 +1529,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>82</v>
@@ -1545,10 +1547,10 @@
         <v>25</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>68</v>
@@ -1563,17 +1565,17 @@
         <v>27</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -1583,7 +1585,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>82</v>
@@ -1601,10 +1603,10 @@
         <v>27</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>68</v>
@@ -1619,17 +1621,17 @@
         <v>5</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
@@ -1639,7 +1641,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>82</v>
@@ -1649,7 +1651,7 @@
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
@@ -1659,17 +1661,17 @@
         <v>5</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
@@ -1679,17 +1681,17 @@
         <v>5</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -1699,17 +1701,17 @@
         <v>7</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>56</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -1719,7 +1721,7 @@
         <v>7</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>82</v>
@@ -1729,7 +1731,7 @@
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
@@ -1739,17 +1741,17 @@
         <v>7</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>68</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="15" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>

--- a/lib/samples/assets/csv/institutions.xlsx
+++ b/lib/samples/assets/csv/institutions.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="147">
   <si>
     <t>code</t>
   </si>
@@ -36,88 +36,133 @@
     <t>name</t>
   </si>
   <si>
+    <t>name_km</t>
+  </si>
+  <si>
     <t>kh</t>
   </si>
   <si>
     <t>Cambodia</t>
   </si>
   <si>
+    <t>កម្ពុជា</t>
+  </si>
+  <si>
     <t>th</t>
   </si>
   <si>
     <t>Thailand</t>
   </si>
   <si>
+    <t>ថៃ</t>
+  </si>
+  <si>
     <t>vn</t>
   </si>
   <si>
     <t>Vietnam</t>
   </si>
   <si>
+    <t>វៀតណាម</t>
+  </si>
+  <si>
     <t>cn</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
+    <t>ចិន</t>
+  </si>
+  <si>
     <t>hk</t>
   </si>
   <si>
     <t>Hong Kong</t>
   </si>
   <si>
+    <t>ហុងកុង</t>
+  </si>
+  <si>
     <t>jp</t>
   </si>
   <si>
     <t>Japan</t>
   </si>
   <si>
+    <t>ជប៉ុន</t>
+  </si>
+  <si>
     <t>kw</t>
   </si>
   <si>
     <t>Kuwait</t>
   </si>
   <si>
+    <t>គុយវ៉ែត</t>
+  </si>
+  <si>
     <t>my</t>
   </si>
   <si>
     <t>Malaysia</t>
   </si>
   <si>
+    <t>ម៉ាឡេស៊ី</t>
+  </si>
+  <si>
     <t>ph</t>
   </si>
   <si>
     <t>Philippines</t>
   </si>
   <si>
+    <t>ហ្វីលីពីន</t>
+  </si>
+  <si>
     <t>kr</t>
   </si>
   <si>
     <t>South Korea</t>
   </si>
   <si>
+    <t>កូរ៉េខាងត្បូង</t>
+  </si>
+  <si>
     <t>qa</t>
   </si>
   <si>
     <t>Qatar</t>
   </si>
   <si>
+    <t>កាតា</t>
+  </si>
+  <si>
     <t>sa</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
+    <t>អារ៉ាប់ប៊ីសាអូឌីត</t>
+  </si>
+  <si>
     <t>sg</t>
   </si>
   <si>
     <t>Singapore</t>
   </si>
   <si>
+    <t>សិង្ហបុរី</t>
+  </si>
+  <si>
     <t>all</t>
   </si>
   <si>
     <t>All Countries</t>
+  </si>
+  <si>
+    <t>ប្រទេសទាំងអស់</t>
   </si>
   <si>
     <t>country_name</t>
@@ -438,6 +483,20 @@
     </font>
     <font>
       <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -446,21 +505,7 @@
       <sz val="10.0"/>
       <color rgb="FF000000"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
     <font/>
-    <font>
-      <b/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
     <font>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
@@ -493,10 +538,7 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -508,38 +550,41 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -775,117 +820,162 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
+      <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>19</v>
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
+      <c r="A11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
+      <c r="A12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
+      <c r="A13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>27</v>
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>29</v>
+      <c r="A15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -913,856 +1003,856 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="7" t="s">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="11"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="11"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="11"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B29" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="11"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="11"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="11"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="B32" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="11"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="17" t="s">
+      <c r="B35" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="15" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="10" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="9"/>
+      <c r="D39" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="11"/>
       <c r="F39" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+        <v>132</v>
+      </c>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E40" s="9"/>
+      <c r="A40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" s="11"/>
       <c r="F40" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="9"/>
+      <c r="A41" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E41" s="11"/>
       <c r="F41" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+        <v>138</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="A42" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43">
-      <c r="A43" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E43" s="9"/>
+      <c r="A43" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E43" s="11"/>
       <c r="F43" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="9"/>
+      <c r="A44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="11"/>
       <c r="F44" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45">
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46">
       <c r="F46" s="19"/>

--- a/lib/samples/assets/csv/institutions.xlsx
+++ b/lib/samples/assets/csv/institutions.xlsx
@@ -17,7 +17,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D1">
+    <comment authorId="0" ref="E1">
       <text>
         <t xml:space="preserve">there are 3 types: ngo, gov, other
 	-Sokly Heng</t>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="311">
   <si>
     <t>code</t>
   </si>
@@ -171,82 +171,178 @@
     <t>kind</t>
   </si>
   <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>website</t>
+  </si>
+  <si>
     <t>audio</t>
   </si>
   <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
-    <t>all_national_human_trafficking_hotline</t>
+    <t>cam_national_human_trafficking_hotline</t>
   </si>
   <si>
     <t>The National Human Trafficking Hotline</t>
   </si>
   <si>
-    <t>ngo</t>
-  </si>
-  <si>
-    <t>+1 88 373 7888</t>
+    <t>មជ្ឈមណ្ឌលធនធានជាតិប្រឆំាងអំពើជួញដូរមនុស្ស</t>
+  </si>
+  <si>
+    <t>+1 888 373 7888</t>
   </si>
   <si>
     <t>cam_chc</t>
   </si>
   <si>
-    <t>Child Help Hotline</t>
+    <t>Child Helpline Cambodia</t>
+  </si>
+  <si>
+    <t>បណ្តាញទូរស័ព្ទជំនួយកុមារកម្ពុជា</t>
   </si>
   <si>
     <t>1280</t>
   </si>
   <si>
+    <t>https://web.facebook.com/chc1280/</t>
+  </si>
+  <si>
     <t>cam_anti_human_trafficking</t>
   </si>
   <si>
     <t>Department of Anti-Human Trafficking and Juvenile Protection</t>
   </si>
   <si>
+    <t>នាយកដ្ឋានប្រឆាំងការជួញដូរមនុស្ស និងការពារ អនីតិជន</t>
+  </si>
+  <si>
     <t>1288</t>
   </si>
   <si>
     <t>cam_inter_org_migration</t>
   </si>
   <si>
-    <t>International Organization for Migration</t>
-  </si>
-  <si>
-    <t>071 858 9728</t>
+    <t>International Organization for Migration (IOM)</t>
+  </si>
+  <si>
+    <t>អង្គការអន្តរជាតិទេសន្តរប្រវេសន៍ប្រចាំកម្ពុជា(IOM)</t>
+  </si>
+  <si>
+    <t>023 216 532</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/IOMCambodia/</t>
   </si>
   <si>
     <t>cam_cha_dai</t>
   </si>
   <si>
-    <t>Chab Dai</t>
+    <t>Chab Dai Coalition</t>
+  </si>
+  <si>
+    <t>អង្គការ​សម្ព័ន្ធ​ចាប់ដៃ</t>
   </si>
   <si>
     <t>012 532 554</t>
   </si>
   <si>
+    <t>https://web.facebook.com/ChabDaiCambodia/</t>
+  </si>
+  <si>
     <t>cam_licadho</t>
   </si>
   <si>
     <t>Licadho</t>
   </si>
   <si>
+    <t>សម្ព័ន្ធខ្មែរ​ជំរឿន និង​ការពារ​សិទិ្ធមនុស្ស លីកាដូ​</t>
+  </si>
+  <si>
+    <t>023 727 102/012 803 482</t>
+  </si>
+  <si>
+    <t>https://km-kh.facebook.com/licadho/</t>
+  </si>
+  <si>
+    <t>cam_adhoc</t>
+  </si>
+  <si>
+    <t>ADHOC</t>
+  </si>
+  <si>
+    <t>សមាគមអាដហុក ADHOC</t>
+  </si>
+  <si>
+    <t>023 218 653</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/adhoccam/</t>
+  </si>
+  <si>
+    <t>cam_central</t>
+  </si>
+  <si>
+    <t>Center for Alliance of Labor and Human Rights (CENTRAL)</t>
+  </si>
+  <si>
+    <t>មជ្ឈមណ្ឌលសម័្ពន្ធភាពការងារ និងសិទ្ធមនុស្ស(CENTRAL)</t>
+  </si>
+  <si>
+    <t>093 556 631/070 556 695</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/CentralCambodiaOrg/</t>
+  </si>
+  <si>
+    <t>https://www.central-cambodia.org/</t>
+  </si>
+  <si>
+    <t>cn_national_human_trafficking_hotline</t>
+  </si>
+  <si>
     <t>cn_cam_embassy_beijing</t>
   </si>
   <si>
     <t>Cambodian Embassy in Beijing</t>
   </si>
   <si>
-    <t>gov</t>
-  </si>
-  <si>
-    <t>+86 10 653 21889</t>
+    <t>ស្ថានទូតកម្ពុជានៅប៉េកំាង</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+86 10 653 21889 </t>
+  </si>
+  <si>
+    <t>cn_cam_consul_kvang_jov</t>
+  </si>
+  <si>
+    <t>ស្ថានកុងស៊ុលកម្ពុជា នៅខេត្តក្វាងចូវ</t>
+  </si>
+  <si>
+    <t>+86 20 838 79005</t>
+  </si>
+  <si>
+    <t>cn_cam_consul_siang_hai</t>
+  </si>
+  <si>
+    <t>ស្ថានកុងស៊ុលកម្ពុជានៅក្រុងស៊ាងហៃ</t>
+  </si>
+  <si>
+    <t>+86 21 510 15850</t>
+  </si>
+  <si>
+    <t>cn_cam_consul_nanning</t>
+  </si>
+  <si>
+    <t>General of the Kingdom of Cambodia in Nanning</t>
+  </si>
+  <si>
+    <t>86 15 77 81 08 569</t>
   </si>
   <si>
     <t>cn_police</t>
@@ -255,31 +351,100 @@
     <t>Police(with icon)</t>
   </si>
   <si>
+    <t>រាយការណ៍ករណីជួញដូរ និងទទួលសេវាបញ្ជូនបន្ត</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>cn_women_psycho_beijing</t>
+  </si>
+  <si>
+    <t>The Maple Women’s Psychological Counselling Center, Beijing</t>
+  </si>
+  <si>
+    <t>មជ្ឍមណ្ឌលម៉ាផលប្រឹក្សាផ្នែកចិត្តសាស្រ្តស្ត្រីនៅទីក្រុងប៉េកាំង</t>
+  </si>
+  <si>
+    <t>010-68333388</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://www.maple.org.cn/</t>
+  </si>
+  <si>
     <t>cn_women_federation_hotine</t>
   </si>
   <si>
     <t>China Women's Federation Activist Public Service Hotline</t>
   </si>
   <si>
+    <t>បណ្តាញជំនួយដល់ស្រ្តី</t>
+  </si>
+  <si>
     <t>12338</t>
   </si>
   <si>
+    <t>http://www.womenofchina.cn</t>
+  </si>
+  <si>
+    <t>hk_national_human_trafficking_hotline</t>
+  </si>
+  <si>
     <t>hk_cam_embassy_hong_kong</t>
   </si>
   <si>
     <t>Cambodian Embassy in Hong Kong</t>
   </si>
   <si>
+    <t>ស្ថានកុងស៊ុលកម្ពុជាប្រចាំហុងកុង</t>
+  </si>
+  <si>
+    <t>+852 2546 0718</t>
+  </si>
+  <si>
     <t>hk_police</t>
   </si>
   <si>
+    <t>មន្រ្តីប៉ូលីស</t>
+  </si>
+  <si>
+    <t>2527 7177</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/HongKongPoliceForce/</t>
+  </si>
+  <si>
+    <t>https://www.police.gov.hk/ppp_en/</t>
+  </si>
+  <si>
     <t>hk_social_service</t>
   </si>
   <si>
-    <t>Social Services…. Health?</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t>Social Welfare Department</t>
+  </si>
+  <si>
+    <t>នាយកដ្ឋានសុខមាលភាពសង្គម</t>
+  </si>
+  <si>
+    <t>2343 2255</t>
+  </si>
+  <si>
+    <t>hk_against_child_abuse</t>
+  </si>
+  <si>
+    <t>Against Child Abuse (ACA)</t>
+  </si>
+  <si>
+    <t>អង្គការប្រឆាំងនឹងការរំលោភបំពានលើកុមារ</t>
+  </si>
+  <si>
+    <t>2755 1122</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/acahk/</t>
+  </si>
+  <si>
+    <t>jp_national_human_trafficking_hotline</t>
   </si>
   <si>
     <t>jp_cam_embassy_japan</t>
@@ -288,25 +453,100 @@
     <t>Cambodian Embassy in Japan</t>
   </si>
   <si>
+    <t>ស្ថានកុងស៊ុលកម្ពុជាប្រចាំប្រទេសជប៉ុន</t>
+  </si>
+  <si>
     <t>+81 35412 8521/+81 80 4689 9374</t>
   </si>
   <si>
     <t>jp_police</t>
   </si>
   <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t xml:space="preserve">មន្រ្តីប៉ូលីស </t>
+  </si>
+  <si>
+    <t>+81-(0)3-3581-0141</t>
+  </si>
+  <si>
+    <t>https://www.npa.go.jp/english/index.html</t>
+  </si>
+  <si>
     <t>jp_social_service</t>
   </si>
   <si>
+    <t>Social Services and Health HELP Asian Women’s Shelter</t>
+  </si>
+  <si>
+    <t>អង្គការសេវាសង្គម និងសុខភាព ផ្តល់ជម្រកដល់ស្ត្រីអាស៊ី</t>
+  </si>
+  <si>
+    <t>03-33688855</t>
+  </si>
+  <si>
+    <t>https://kyofukai.jp/</t>
+  </si>
+  <si>
+    <t>jp_karasan</t>
+  </si>
+  <si>
+    <t>Karasan</t>
+  </si>
+  <si>
+    <t>អង្គការការ៉ាសាន</t>
+  </si>
+  <si>
+    <t>044-5111562</t>
+  </si>
+  <si>
+    <t>jp_childline</t>
+  </si>
+  <si>
+    <t>Childline</t>
+  </si>
+  <si>
+    <t>បណ្តាញកុមារ</t>
+  </si>
+  <si>
+    <t>0120-99-7777</t>
+  </si>
+  <si>
+    <t>http://www.childline.or.jp</t>
+  </si>
+  <si>
+    <t>kw_national_human_trafficking_hotline</t>
+  </si>
+  <si>
     <t>kw_cambodia_embassy_kuwait</t>
   </si>
   <si>
     <t>Cambodian Embassy in Kuwait</t>
   </si>
   <si>
+    <t>ស្ថានកុងស៊ុលកម្ពុជាប្រចាំប្រទេសគុយវ៉េត</t>
+  </si>
+  <si>
+    <t>+965-2531-0029/+965-2531-0026</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/Royal-Embassy-of-Cambodia-to-the-State-of-Kuwait-1590807354522817/</t>
+  </si>
+  <si>
     <t>kw_police</t>
   </si>
   <si>
-    <t>kw_social_service</t>
+    <t>112</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/MOIKuwait/</t>
+  </si>
+  <si>
+    <t>https://www.moi.gov.kw/main/</t>
+  </si>
+  <si>
+    <t>my_national_human_trafficking_hotline</t>
   </si>
   <si>
     <t>my_cam_embassy_malaysia</t>
@@ -315,15 +555,25 @@
     <t>Cambodian Embassy in Malaysia</t>
   </si>
   <si>
-    <t>+60 34 257 1150</t>
+    <t xml:space="preserve">ស្ថានទូតកម្ពុជាប្រចំាប្រទេសម៉ាឡេស៊ី </t>
+  </si>
+  <si>
+    <t>+60 34 257 1150/+60 34257 3711</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <sz val="10.0"/>
+        <u/>
+      </rPr>
+      <t>https://web.facebook.com/Royal-Embassy-of-Cambodia-to-Malaysia-1577860455843158/</t>
+    </r>
   </si>
   <si>
     <t>my_police</t>
   </si>
   <si>
-    <t>Police</t>
-  </si>
-  <si>
     <t>999</t>
   </si>
   <si>
@@ -333,7 +583,16 @@
     <t>Women’s Aid Organisation</t>
   </si>
   <si>
-    <t>03 7956 3488</t>
+    <t>អង្គការជំនួយស្ត្រី</t>
+  </si>
+  <si>
+    <t>+603 7956 3488</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/womens.aid.org/</t>
+  </si>
+  <si>
+    <t>ph_national_human_trafficking_hotline</t>
   </si>
   <si>
     <t>ph_cam_embassy_philippine</t>
@@ -342,6 +601,15 @@
     <t>Cambodian Embassy in Philippines</t>
   </si>
   <si>
+    <t>ស្ថានទូតកម្ពុជាប្រចំាប្រទេសហ្វីលីពីន</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (+63) 2 8818 9981/(+63) 2 8810 1896</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/Royal-Embassy-of-Cambodia-to-the-Republic-of-the-Philippines-1777323232495594/</t>
+  </si>
+  <si>
     <t>ph_police</t>
   </si>
   <si>
@@ -354,10 +622,16 @@
     <t>Women and Child Protection Center</t>
   </si>
   <si>
+    <t>មជ្ឈមណ្ឌលការពារស្ត្រី និងកុមារហ្វីលីពីន</t>
+  </si>
+  <si>
     <t>0919 777 7377</t>
   </si>
   <si>
-    <t>South Lorea</t>
+    <t>https://www.facebook.com/1wcpcpnp/</t>
+  </si>
+  <si>
+    <t>kr_national_human_trafficking_hotline</t>
   </si>
   <si>
     <t>kr_cam_embassy</t>
@@ -366,37 +640,106 @@
     <t>Cambodian Embassy</t>
   </si>
   <si>
+    <t>ស្ថានទូតកម្ពុជាប្រចំាប្រទេសកូរ៉េ</t>
+  </si>
+  <si>
     <t>+82 23785 1041</t>
   </si>
   <si>
     <t>kr_police</t>
   </si>
   <si>
-    <t>kr_social_service</t>
-  </si>
-  <si>
-    <t>Social services</t>
-  </si>
-  <si>
-    <t>qa_cam_embassy</t>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/polinlove1/</t>
+  </si>
+  <si>
+    <t>https://www.police.go.kr/eng/main.do</t>
+  </si>
+  <si>
+    <t>kr_kwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Korean Women’s Association (KWA) </t>
+  </si>
+  <si>
+    <t>សមាគមនារីកូរ៉េ (KWA)</t>
+  </si>
+  <si>
+    <t>253-359-0470</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/KWACares/</t>
+  </si>
+  <si>
+    <t>qa_national_human_trafficking_hotline</t>
   </si>
   <si>
     <t>qa_police</t>
   </si>
   <si>
-    <t>qa_social_service</t>
-  </si>
-  <si>
-    <t>Social Services</t>
-  </si>
-  <si>
-    <t>sa_cam_embassy</t>
+    <t>+974 4466000</t>
+  </si>
+  <si>
+    <t>qa_traffic_patrol_police</t>
+  </si>
+  <si>
+    <t>Traffic and Patrol Police Department</t>
+  </si>
+  <si>
+    <t>នាយកដ្ឋានប៉ូលីសចរាចរណ៍និងល្បាត</t>
+  </si>
+  <si>
+    <t>4489 0666</t>
+  </si>
+  <si>
+    <t>sa_national_human_trafficking_hotline</t>
   </si>
   <si>
     <t>sa_police</t>
   </si>
   <si>
-    <t>sa_social_service</t>
+    <t>999/911</t>
+  </si>
+  <si>
+    <t>sa_kingdom_emergency</t>
+  </si>
+  <si>
+    <t>Kingdom Emergency (without the SIM card)</t>
+  </si>
+  <si>
+    <t>លេខទាន់ហេតុការ នៅប្រទេសអារ៉ាប់ប៊ីសាអូឌីត (មិនត្រូវការស៊ីមកាត)</t>
+  </si>
+  <si>
+    <t>sa_reporting_violation</t>
+  </si>
+  <si>
+    <t>Reporting Violations of Work and Residence Regulations</t>
+  </si>
+  <si>
+    <t>រាយការណ៍អំពីការរំលោភ ទាក់ទងនឹងការងារនិងការស្នាក់នៅ</t>
+  </si>
+  <si>
+    <t>989</t>
+  </si>
+  <si>
+    <t>sa_help_center</t>
+  </si>
+  <si>
+    <t>Help Center</t>
+  </si>
+  <si>
+    <t>មជ្ឈមណ្ទលជំនួយ</t>
+  </si>
+  <si>
+    <t>(+996-2) 6631113</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/Helpcenterjeddah/</t>
+  </si>
+  <si>
+    <t>sg_national_human_trafficking_hotline</t>
   </si>
   <si>
     <t>sg_cam_embassy_singapore</t>
@@ -405,13 +748,37 @@
     <t>Cambodian Embassy in Singapore</t>
   </si>
   <si>
+    <t>ស្ថានទូតកម្ពុជាប្រចំាប្រទេសសិង្ហបុរី</t>
+  </si>
+  <si>
     <t>+65 6732 4764/+65 6341 9785</t>
   </si>
   <si>
+    <t>https://web.facebook.com/royalembassycambodiasingapore/</t>
+  </si>
+  <si>
     <t>sg_police</t>
   </si>
   <si>
-    <t>sg_social_service</t>
+    <t>sg_women_association</t>
+  </si>
+  <si>
+    <t>Association of Women for Action and Research(AWARE)</t>
+  </si>
+  <si>
+    <t>សមាគមស្ត្រីសម្រាប់សកម្មភាពនិង​ ការស្រាវជ្រាវ</t>
+  </si>
+  <si>
+    <t>1800 777 5555/6779 0282/6779 7137</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/awaresg/</t>
+  </si>
+  <si>
+    <t>https://www.aware.org.sg/womens-care-centre/helpline/</t>
+  </si>
+  <si>
+    <t>th_national_human_trafficking_hotline</t>
   </si>
   <si>
     <t>th_cam_embassy_thailand</t>
@@ -420,7 +787,28 @@
     <t>Cambodian Embassy in Thailand</t>
   </si>
   <si>
-    <t>+66 29 575 851</t>
+    <t>ស្ថានទូតកម្ពុជាប្រចំាប្រទេសថៃ</t>
+  </si>
+  <si>
+    <t>+66 29 575 851/+66 29 575 852/092-805-0561/094-092-5905</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/Royal-Embassy-of-Cambodia-in-Bangkok-515427841947524</t>
+  </si>
+  <si>
+    <t>www.cambodiaembassyinthailand.wordpress.com</t>
+  </si>
+  <si>
+    <t>th_consul_sakeo</t>
+  </si>
+  <si>
+    <t>ស្ថានកុងស៊ុលកម្ពុជា នៅសាកែវ ប្រទេសថៃ</t>
+  </si>
+  <si>
+    <t>+66 37 230 204</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/consulatesakaeo/</t>
   </si>
   <si>
     <t>th_police</t>
@@ -429,30 +817,108 @@
     <t>191</t>
   </si>
   <si>
+    <t>th_anti_human_trafficking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">នាយកដ្ឋានប្រឆាំងអំពើជួញដូរមនុស្ស </t>
+  </si>
+  <si>
+    <t>1191</t>
+  </si>
+  <si>
     <t>th_department_employment</t>
   </si>
   <si>
     <t>Department of Employment</t>
   </si>
   <si>
+    <t>បណ្តាញជំនួយពលករចំណាកស្រុក</t>
+  </si>
+  <si>
     <t>1694</t>
   </si>
   <si>
+    <t>th_childline</t>
+  </si>
+  <si>
+    <t>Childline Thailand</t>
+  </si>
+  <si>
+    <t>បណ្តាញកុមារនៅប្រទេសថៃ</t>
+  </si>
+  <si>
+    <t>1387</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/childlinethailand/</t>
+  </si>
+  <si>
+    <t>http://www.childlinethailand.org</t>
+  </si>
+  <si>
     <t>th_social_dev_human_security_ministry</t>
   </si>
   <si>
     <t>The Social Development and Human Security Ministry</t>
   </si>
   <si>
+    <t>មជ្ឈមណ្ឌលច្រកតែមួយដើម្បីដោះស្រាយវិបត្តិ</t>
+  </si>
+  <si>
     <t>1300</t>
   </si>
   <si>
+    <t>https://web.facebook.com/Msociety.go.th/</t>
+  </si>
+  <si>
+    <t>th_foundation_for_women</t>
+  </si>
+  <si>
+    <t>The Foundation for Women (FFW)</t>
+  </si>
+  <si>
+    <t>មូលនិធិដើម្បីស្រ្តី</t>
+  </si>
+  <si>
+    <t>+66 2 433 5149</t>
+  </si>
+  <si>
+    <t>http://www.womenthai.org</t>
+  </si>
+  <si>
+    <t>th_central</t>
+  </si>
+  <si>
+    <t>+66 94 4412 215</t>
+  </si>
+  <si>
+    <t>vn_national_human_trafficking_hotline</t>
+  </si>
+  <si>
+    <t>vn_cam_embassy</t>
+  </si>
+  <si>
+    <t>Royal Embassy of Cambodia</t>
+  </si>
+  <si>
+    <t>ស្ថានទូតកម្ពុជាប្រចំាប្រទេសវៀតណាម</t>
+  </si>
+  <si>
+    <t>+84 24 3942 4789</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/TheRoyalEmbassyOfCambodiaToVietnam/</t>
+  </si>
+  <si>
     <t>vn_cam_consulate_ho_chi_minh</t>
   </si>
   <si>
     <t>Cambodian Consulate in Ho Chi Minh City</t>
   </si>
   <si>
+    <t>ស្ថានកុងស៊ុលកម្ពុជានៅហូជីមិញ</t>
+  </si>
+  <si>
     <t>+84 882 927 51</t>
   </si>
   <si>
@@ -462,20 +928,53 @@
     <t>113</t>
   </si>
   <si>
+    <t>vn_alliance_anti_trafic</t>
+  </si>
+  <si>
+    <t>ALLIANCE ANTI TRAFIC VIETNAM</t>
+  </si>
+  <si>
+    <t>សម្ព័ន្ធប្រយុទ្ធប្រឆំាងអំពើជួញដូរមនុស្ស</t>
+  </si>
+  <si>
+    <t>+84  902 944 334</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/aatvietnam/</t>
+  </si>
+  <si>
     <t>vn_women_union</t>
   </si>
   <si>
     <t>Vietnamese Women's Union</t>
   </si>
   <si>
+    <t>សហជីពស្ត្រីវៀតណាម</t>
+  </si>
+  <si>
     <t>1900 96 96 80</t>
+  </si>
+  <si>
+    <t>vn_vango</t>
+  </si>
+  <si>
+    <t>VANGO Network (HIPE Team)</t>
+  </si>
+  <si>
+    <t>បណ្តាញអង្គការក្រៅរដ្ឋាភិបាលវៀតណាមអាមេរិកាំង(វ៉ាងហ្គោ)</t>
+  </si>
+  <si>
+    <t>+84 234 3936 526</t>
+  </si>
+  <si>
+    <t>https://web.facebook.com/HIPE-Team-257939004325785/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="17">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -487,9 +986,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-    </font>
-    <font>
       <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -498,20 +994,63 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <sz val="10.0"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF1155CC"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
     </font>
-    <font/>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Battambang"/>
+    </font>
     <font>
       <sz val="9.0"/>
       <color rgb="FF000000"/>
+      <name val="Battambang"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -524,6 +1063,12 @@
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -531,63 +1076,105 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -820,161 +1407,161 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -998,7 +1585,9 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="16.29"/>
     <col customWidth="1" min="2" max="2" width="34.86"/>
-    <col customWidth="1" min="3" max="3" width="53.29"/>
+    <col customWidth="1" min="3" max="3" width="33.57"/>
+    <col customWidth="1" min="4" max="4" width="35.14"/>
+    <col customWidth="1" min="5" max="5" width="7.43"/>
     <col customWidth="1" min="6" max="6" width="30.86"/>
   </cols>
   <sheetData>
@@ -1013,3717 +1602,4583 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12" t="s">
+      <c r="D2" s="8" t="s">
         <v>54</v>
+      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10" t="s">
+        <v>55</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="11"/>
+      <c r="D3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="11"/>
+      <c r="B4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="9"/>
       <c r="F4" s="15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="15" t="s">
-        <v>77</v>
+      <c r="D10" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="16"/>
+      <c r="A11" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="16"/>
+      <c r="A12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E12" s="9"/>
+      <c r="F12" s="22" t="s">
+        <v>98</v>
+      </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="16"/>
+      <c r="A13" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="22" t="s">
+        <v>101</v>
+      </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="17" t="s">
-        <v>86</v>
+      <c r="A14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="16"/>
+      <c r="A15" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="25" t="s">
+        <v>108</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="16"/>
+      <c r="A16" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="26" t="s">
+        <v>112</v>
+      </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="16"/>
+      <c r="A17" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="15" t="s">
+        <v>117</v>
+      </c>
       <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="16"/>
+      <c r="A18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="G19" s="11"/>
       <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="9"/>
+      <c r="F20" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="9"/>
+      <c r="F23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" s="9"/>
+      <c r="F24" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="s">
+      <c r="B32" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="28"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="B33" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="G33" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="11"/>
-      <c r="F24" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="11"/>
-      <c r="F25" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" s="11"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="11"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E32" s="11"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="15" t="s">
+        <v>179</v>
+      </c>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
     </row>
     <row r="35">
-      <c r="A35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="12" t="s">
+      <c r="A35" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="9"/>
+      <c r="F36" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="27"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E37" s="9"/>
+      <c r="F37" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="11"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="17" t="s">
-        <v>130</v>
+      <c r="E38" s="9"/>
+      <c r="F38" s="15" t="s">
+        <v>192</v>
       </c>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
     </row>
     <row r="39">
-      <c r="A39" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E39" s="11"/>
+      <c r="A39" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E39" s="9"/>
       <c r="F39" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="G39" s="11"/>
+        <v>196</v>
+      </c>
+      <c r="G39" s="16" t="s">
+        <v>197</v>
+      </c>
       <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
     </row>
     <row r="40">
-      <c r="A40" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="15" t="s">
-        <v>135</v>
+      <c r="A40" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
     </row>
     <row r="41">
-      <c r="A41" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E41" s="11"/>
-      <c r="F41" s="15" t="s">
-        <v>138</v>
+      <c r="A41" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="10" t="s">
+        <v>202</v>
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
     </row>
     <row r="42">
-      <c r="A42" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
+      <c r="A42" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
     </row>
     <row r="43">
-      <c r="A43" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E43" s="11"/>
-      <c r="F43" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G43" s="11"/>
+      <c r="A43" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>211</v>
+      </c>
       <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
     </row>
     <row r="44">
-      <c r="A44" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="11"/>
-      <c r="F44" s="15" t="s">
-        <v>146</v>
+      <c r="A44" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="21" t="s">
+        <v>55</v>
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
     </row>
     <row r="45">
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="18"/>
+      <c r="A45" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="10" t="s">
+        <v>214</v>
+      </c>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
     </row>
     <row r="46">
-      <c r="F46" s="19"/>
+      <c r="A46" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
     </row>
     <row r="47">
-      <c r="F47" s="19"/>
+      <c r="A47" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
     </row>
     <row r="48">
-      <c r="F48" s="19"/>
+      <c r="A48" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
     </row>
     <row r="49">
-      <c r="F49" s="19"/>
+      <c r="A49" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49" s="9"/>
+      <c r="F49" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
     </row>
     <row r="50">
-      <c r="F50" s="19"/>
+      <c r="A50" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
     </row>
     <row r="51">
-      <c r="F51" s="19"/>
+      <c r="A51" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="G51" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
     </row>
     <row r="52">
-      <c r="F52" s="19"/>
+      <c r="A52" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
     </row>
     <row r="53">
-      <c r="F53" s="19"/>
+      <c r="A53" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="9"/>
+      <c r="F53" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G53" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
     </row>
     <row r="54">
-      <c r="F54" s="19"/>
+      <c r="A54" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="9"/>
+      <c r="F54" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
     </row>
     <row r="55">
-      <c r="F55" s="19"/>
+      <c r="A55" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="G55" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="H55" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
     </row>
     <row r="56">
-      <c r="F56" s="19"/>
+      <c r="A56" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="9"/>
+      <c r="F56" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="27"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
     </row>
     <row r="57">
-      <c r="F57" s="19"/>
+      <c r="A57" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="G57" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
     </row>
     <row r="58">
-      <c r="F58" s="19"/>
+      <c r="A58" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="G58" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="H58" s="2"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
     </row>
     <row r="59">
-      <c r="F59" s="19"/>
+      <c r="A59" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59" s="9"/>
+      <c r="F59" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
     </row>
     <row r="60">
-      <c r="F60" s="19"/>
+      <c r="A60" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
     </row>
     <row r="61">
-      <c r="F61" s="19"/>
+      <c r="A61" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E61" s="9"/>
+      <c r="F61" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
     </row>
     <row r="62">
-      <c r="F62" s="19"/>
+      <c r="A62" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="G62" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
     </row>
     <row r="63">
-      <c r="F63" s="19"/>
+      <c r="A63" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
     </row>
     <row r="64">
-      <c r="F64" s="19"/>
+      <c r="A64" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="G64" s="27"/>
+      <c r="H64" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
     </row>
     <row r="65">
-      <c r="F65" s="19"/>
+      <c r="A65" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E65" s="9"/>
+      <c r="F65" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H65" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I65" s="19"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="14"/>
+      <c r="Q65" s="19"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="20"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="18"/>
+      <c r="X65" s="14"/>
     </row>
     <row r="66">
-      <c r="F66" s="19"/>
+      <c r="A66" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" s="9"/>
+      <c r="F66" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="27"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
     </row>
     <row r="67">
-      <c r="F67" s="19"/>
+      <c r="A67" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C67" s="23" t="s">
+        <v>287</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="21" t="s">
+        <v>289</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
     </row>
     <row r="68">
-      <c r="F68" s="19"/>
+      <c r="A68" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>293</v>
+      </c>
+      <c r="E68" s="9"/>
+      <c r="F68" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
     </row>
     <row r="69">
-      <c r="F69" s="19"/>
+      <c r="A69" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="9"/>
+      <c r="F69" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
     </row>
     <row r="70">
-      <c r="F70" s="19"/>
+      <c r="A70" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="30" t="s">
+        <v>300</v>
+      </c>
+      <c r="G70" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
     </row>
     <row r="71">
-      <c r="F71" s="19"/>
+      <c r="A71" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="E71" s="9"/>
+      <c r="F71" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
     </row>
     <row r="72">
-      <c r="F72" s="19"/>
+      <c r="A72" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C72" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" s="24" t="s">
+        <v>308</v>
+      </c>
+      <c r="E72" s="11"/>
+      <c r="F72" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
     </row>
     <row r="73">
-      <c r="F73" s="19"/>
+      <c r="F73" s="33"/>
     </row>
     <row r="74">
-      <c r="F74" s="19"/>
+      <c r="F74" s="33"/>
     </row>
     <row r="75">
-      <c r="F75" s="19"/>
+      <c r="F75" s="33"/>
     </row>
     <row r="76">
-      <c r="F76" s="19"/>
+      <c r="F76" s="33"/>
     </row>
     <row r="77">
-      <c r="F77" s="19"/>
+      <c r="F77" s="33"/>
     </row>
     <row r="78">
-      <c r="F78" s="19"/>
+      <c r="F78" s="33"/>
     </row>
     <row r="79">
-      <c r="F79" s="19"/>
+      <c r="F79" s="33"/>
     </row>
     <row r="80">
-      <c r="F80" s="19"/>
+      <c r="F80" s="33"/>
     </row>
     <row r="81">
-      <c r="F81" s="19"/>
+      <c r="F81" s="33"/>
     </row>
     <row r="82">
-      <c r="F82" s="19"/>
+      <c r="F82" s="33"/>
     </row>
     <row r="83">
-      <c r="F83" s="19"/>
+      <c r="F83" s="33"/>
     </row>
     <row r="84">
-      <c r="F84" s="19"/>
+      <c r="F84" s="33"/>
     </row>
     <row r="85">
-      <c r="F85" s="19"/>
+      <c r="F85" s="33"/>
     </row>
     <row r="86">
-      <c r="F86" s="19"/>
+      <c r="F86" s="33"/>
     </row>
     <row r="87">
-      <c r="F87" s="19"/>
+      <c r="F87" s="33"/>
     </row>
     <row r="88">
-      <c r="F88" s="19"/>
+      <c r="F88" s="33"/>
     </row>
     <row r="89">
-      <c r="F89" s="19"/>
+      <c r="F89" s="33"/>
     </row>
     <row r="90">
-      <c r="F90" s="19"/>
+      <c r="F90" s="33"/>
     </row>
     <row r="91">
-      <c r="F91" s="19"/>
+      <c r="F91" s="33"/>
     </row>
     <row r="92">
-      <c r="F92" s="19"/>
+      <c r="F92" s="33"/>
     </row>
     <row r="93">
-      <c r="F93" s="19"/>
+      <c r="F93" s="33"/>
     </row>
     <row r="94">
-      <c r="F94" s="19"/>
+      <c r="F94" s="33"/>
     </row>
     <row r="95">
-      <c r="F95" s="19"/>
+      <c r="F95" s="33"/>
     </row>
     <row r="96">
-      <c r="F96" s="19"/>
+      <c r="F96" s="33"/>
     </row>
     <row r="97">
-      <c r="F97" s="19"/>
+      <c r="F97" s="33"/>
     </row>
     <row r="98">
-      <c r="F98" s="19"/>
+      <c r="F98" s="33"/>
     </row>
     <row r="99">
-      <c r="F99" s="19"/>
+      <c r="F99" s="33"/>
     </row>
     <row r="100">
-      <c r="F100" s="19"/>
+      <c r="F100" s="33"/>
     </row>
     <row r="101">
-      <c r="F101" s="19"/>
+      <c r="F101" s="33"/>
     </row>
     <row r="102">
-      <c r="F102" s="19"/>
+      <c r="F102" s="33"/>
     </row>
     <row r="103">
-      <c r="F103" s="19"/>
+      <c r="F103" s="33"/>
     </row>
     <row r="104">
-      <c r="F104" s="19"/>
+      <c r="F104" s="33"/>
     </row>
     <row r="105">
-      <c r="F105" s="19"/>
+      <c r="F105" s="33"/>
     </row>
     <row r="106">
-      <c r="F106" s="19"/>
+      <c r="F106" s="33"/>
     </row>
     <row r="107">
-      <c r="F107" s="19"/>
+      <c r="F107" s="33"/>
     </row>
     <row r="108">
-      <c r="F108" s="19"/>
+      <c r="F108" s="33"/>
     </row>
     <row r="109">
-      <c r="F109" s="19"/>
+      <c r="F109" s="33"/>
     </row>
     <row r="110">
-      <c r="F110" s="19"/>
+      <c r="F110" s="33"/>
     </row>
     <row r="111">
-      <c r="F111" s="19"/>
+      <c r="F111" s="33"/>
     </row>
     <row r="112">
-      <c r="F112" s="19"/>
+      <c r="F112" s="33"/>
     </row>
     <row r="113">
-      <c r="F113" s="19"/>
+      <c r="F113" s="33"/>
     </row>
     <row r="114">
-      <c r="F114" s="19"/>
+      <c r="F114" s="33"/>
     </row>
     <row r="115">
-      <c r="F115" s="19"/>
+      <c r="F115" s="33"/>
     </row>
     <row r="116">
-      <c r="F116" s="19"/>
+      <c r="F116" s="33"/>
     </row>
     <row r="117">
-      <c r="F117" s="19"/>
+      <c r="F117" s="33"/>
     </row>
     <row r="118">
-      <c r="F118" s="19"/>
+      <c r="F118" s="33"/>
     </row>
     <row r="119">
-      <c r="F119" s="19"/>
+      <c r="F119" s="33"/>
     </row>
     <row r="120">
-      <c r="F120" s="19"/>
+      <c r="F120" s="33"/>
     </row>
     <row r="121">
-      <c r="F121" s="19"/>
+      <c r="F121" s="33"/>
     </row>
     <row r="122">
-      <c r="F122" s="19"/>
+      <c r="F122" s="33"/>
     </row>
     <row r="123">
-      <c r="F123" s="19"/>
+      <c r="F123" s="33"/>
     </row>
     <row r="124">
-      <c r="F124" s="19"/>
+      <c r="F124" s="33"/>
     </row>
     <row r="125">
-      <c r="F125" s="19"/>
+      <c r="F125" s="33"/>
     </row>
     <row r="126">
-      <c r="F126" s="19"/>
+      <c r="F126" s="33"/>
     </row>
     <row r="127">
-      <c r="F127" s="19"/>
+      <c r="F127" s="33"/>
     </row>
     <row r="128">
-      <c r="F128" s="19"/>
+      <c r="F128" s="33"/>
     </row>
     <row r="129">
-      <c r="F129" s="19"/>
+      <c r="F129" s="33"/>
     </row>
     <row r="130">
-      <c r="F130" s="19"/>
+      <c r="F130" s="33"/>
     </row>
     <row r="131">
-      <c r="F131" s="19"/>
+      <c r="F131" s="33"/>
     </row>
     <row r="132">
-      <c r="F132" s="19"/>
+      <c r="F132" s="33"/>
     </row>
     <row r="133">
-      <c r="F133" s="19"/>
+      <c r="F133" s="33"/>
     </row>
     <row r="134">
-      <c r="F134" s="19"/>
+      <c r="F134" s="33"/>
     </row>
     <row r="135">
-      <c r="F135" s="19"/>
+      <c r="F135" s="33"/>
     </row>
     <row r="136">
-      <c r="F136" s="19"/>
+      <c r="F136" s="33"/>
     </row>
     <row r="137">
-      <c r="F137" s="19"/>
+      <c r="F137" s="33"/>
     </row>
     <row r="138">
-      <c r="F138" s="19"/>
+      <c r="F138" s="33"/>
     </row>
     <row r="139">
-      <c r="F139" s="19"/>
+      <c r="F139" s="33"/>
     </row>
     <row r="140">
-      <c r="F140" s="19"/>
+      <c r="F140" s="33"/>
     </row>
     <row r="141">
-      <c r="F141" s="19"/>
+      <c r="F141" s="33"/>
     </row>
     <row r="142">
-      <c r="F142" s="19"/>
+      <c r="F142" s="33"/>
     </row>
     <row r="143">
-      <c r="F143" s="19"/>
+      <c r="F143" s="33"/>
     </row>
     <row r="144">
-      <c r="F144" s="19"/>
+      <c r="F144" s="33"/>
     </row>
     <row r="145">
-      <c r="F145" s="19"/>
+      <c r="F145" s="33"/>
     </row>
     <row r="146">
-      <c r="F146" s="19"/>
+      <c r="F146" s="33"/>
     </row>
     <row r="147">
-      <c r="F147" s="19"/>
+      <c r="F147" s="33"/>
     </row>
     <row r="148">
-      <c r="F148" s="19"/>
+      <c r="F148" s="33"/>
     </row>
     <row r="149">
-      <c r="F149" s="19"/>
+      <c r="F149" s="33"/>
     </row>
     <row r="150">
-      <c r="F150" s="19"/>
+      <c r="F150" s="33"/>
     </row>
     <row r="151">
-      <c r="F151" s="19"/>
+      <c r="F151" s="33"/>
     </row>
     <row r="152">
-      <c r="F152" s="19"/>
+      <c r="F152" s="33"/>
     </row>
     <row r="153">
-      <c r="F153" s="19"/>
+      <c r="F153" s="33"/>
     </row>
     <row r="154">
-      <c r="F154" s="19"/>
+      <c r="F154" s="33"/>
     </row>
     <row r="155">
-      <c r="F155" s="19"/>
+      <c r="F155" s="33"/>
     </row>
     <row r="156">
-      <c r="F156" s="19"/>
+      <c r="F156" s="33"/>
     </row>
     <row r="157">
-      <c r="F157" s="19"/>
+      <c r="F157" s="33"/>
     </row>
     <row r="158">
-      <c r="F158" s="19"/>
+      <c r="F158" s="33"/>
     </row>
     <row r="159">
-      <c r="F159" s="19"/>
+      <c r="F159" s="33"/>
     </row>
     <row r="160">
-      <c r="F160" s="19"/>
+      <c r="F160" s="33"/>
     </row>
     <row r="161">
-      <c r="F161" s="19"/>
+      <c r="F161" s="33"/>
     </row>
     <row r="162">
-      <c r="F162" s="19"/>
+      <c r="F162" s="33"/>
     </row>
     <row r="163">
-      <c r="F163" s="19"/>
+      <c r="F163" s="33"/>
     </row>
     <row r="164">
-      <c r="F164" s="19"/>
+      <c r="F164" s="33"/>
     </row>
     <row r="165">
-      <c r="F165" s="19"/>
+      <c r="F165" s="33"/>
     </row>
     <row r="166">
-      <c r="F166" s="19"/>
+      <c r="F166" s="33"/>
     </row>
     <row r="167">
-      <c r="F167" s="19"/>
+      <c r="F167" s="33"/>
     </row>
     <row r="168">
-      <c r="F168" s="19"/>
+      <c r="F168" s="33"/>
     </row>
     <row r="169">
-      <c r="F169" s="19"/>
+      <c r="F169" s="33"/>
     </row>
     <row r="170">
-      <c r="F170" s="19"/>
+      <c r="F170" s="33"/>
     </row>
     <row r="171">
-      <c r="F171" s="19"/>
+      <c r="F171" s="33"/>
     </row>
     <row r="172">
-      <c r="F172" s="19"/>
+      <c r="F172" s="33"/>
     </row>
     <row r="173">
-      <c r="F173" s="19"/>
+      <c r="F173" s="33"/>
     </row>
     <row r="174">
-      <c r="F174" s="19"/>
+      <c r="F174" s="33"/>
     </row>
     <row r="175">
-      <c r="F175" s="19"/>
+      <c r="F175" s="33"/>
     </row>
     <row r="176">
-      <c r="F176" s="19"/>
+      <c r="F176" s="33"/>
     </row>
     <row r="177">
-      <c r="F177" s="19"/>
+      <c r="F177" s="33"/>
     </row>
     <row r="178">
-      <c r="F178" s="19"/>
+      <c r="F178" s="33"/>
     </row>
     <row r="179">
-      <c r="F179" s="19"/>
+      <c r="F179" s="33"/>
     </row>
     <row r="180">
-      <c r="F180" s="19"/>
+      <c r="F180" s="33"/>
     </row>
     <row r="181">
-      <c r="F181" s="19"/>
+      <c r="F181" s="33"/>
     </row>
     <row r="182">
-      <c r="F182" s="19"/>
+      <c r="F182" s="33"/>
     </row>
     <row r="183">
-      <c r="F183" s="19"/>
+      <c r="F183" s="33"/>
     </row>
     <row r="184">
-      <c r="F184" s="19"/>
+      <c r="F184" s="33"/>
     </row>
     <row r="185">
-      <c r="F185" s="19"/>
+      <c r="F185" s="33"/>
     </row>
     <row r="186">
-      <c r="F186" s="19"/>
+      <c r="F186" s="33"/>
     </row>
     <row r="187">
-      <c r="F187" s="19"/>
+      <c r="F187" s="33"/>
     </row>
     <row r="188">
-      <c r="F188" s="19"/>
+      <c r="F188" s="33"/>
     </row>
     <row r="189">
-      <c r="F189" s="19"/>
+      <c r="F189" s="33"/>
     </row>
     <row r="190">
-      <c r="F190" s="19"/>
+      <c r="F190" s="33"/>
     </row>
     <row r="191">
-      <c r="F191" s="19"/>
+      <c r="F191" s="33"/>
     </row>
     <row r="192">
-      <c r="F192" s="19"/>
+      <c r="F192" s="33"/>
     </row>
     <row r="193">
-      <c r="F193" s="19"/>
+      <c r="F193" s="33"/>
     </row>
     <row r="194">
-      <c r="F194" s="19"/>
+      <c r="F194" s="33"/>
     </row>
     <row r="195">
-      <c r="F195" s="19"/>
+      <c r="F195" s="33"/>
     </row>
     <row r="196">
-      <c r="F196" s="19"/>
+      <c r="F196" s="33"/>
     </row>
     <row r="197">
-      <c r="F197" s="19"/>
+      <c r="F197" s="33"/>
     </row>
     <row r="198">
-      <c r="F198" s="19"/>
+      <c r="F198" s="33"/>
     </row>
     <row r="199">
-      <c r="F199" s="19"/>
+      <c r="F199" s="33"/>
     </row>
     <row r="200">
-      <c r="F200" s="19"/>
+      <c r="F200" s="33"/>
     </row>
     <row r="201">
-      <c r="F201" s="19"/>
+      <c r="F201" s="33"/>
     </row>
     <row r="202">
-      <c r="F202" s="19"/>
+      <c r="F202" s="33"/>
     </row>
     <row r="203">
-      <c r="F203" s="19"/>
+      <c r="F203" s="33"/>
     </row>
     <row r="204">
-      <c r="F204" s="19"/>
+      <c r="F204" s="33"/>
     </row>
     <row r="205">
-      <c r="F205" s="19"/>
+      <c r="F205" s="33"/>
     </row>
     <row r="206">
-      <c r="F206" s="19"/>
+      <c r="F206" s="33"/>
     </row>
     <row r="207">
-      <c r="F207" s="19"/>
+      <c r="F207" s="33"/>
     </row>
     <row r="208">
-      <c r="F208" s="19"/>
+      <c r="F208" s="33"/>
     </row>
     <row r="209">
-      <c r="F209" s="19"/>
+      <c r="F209" s="33"/>
     </row>
     <row r="210">
-      <c r="F210" s="19"/>
+      <c r="F210" s="33"/>
     </row>
     <row r="211">
-      <c r="F211" s="19"/>
+      <c r="F211" s="33"/>
     </row>
     <row r="212">
-      <c r="F212" s="19"/>
+      <c r="F212" s="33"/>
     </row>
     <row r="213">
-      <c r="F213" s="19"/>
+      <c r="F213" s="33"/>
     </row>
     <row r="214">
-      <c r="F214" s="19"/>
+      <c r="F214" s="33"/>
     </row>
     <row r="215">
-      <c r="F215" s="19"/>
+      <c r="F215" s="33"/>
     </row>
     <row r="216">
-      <c r="F216" s="19"/>
+      <c r="F216" s="33"/>
     </row>
     <row r="217">
-      <c r="F217" s="19"/>
+      <c r="F217" s="33"/>
     </row>
     <row r="218">
-      <c r="F218" s="19"/>
+      <c r="F218" s="33"/>
     </row>
     <row r="219">
-      <c r="F219" s="19"/>
+      <c r="F219" s="33"/>
     </row>
     <row r="220">
-      <c r="F220" s="19"/>
+      <c r="F220" s="33"/>
     </row>
     <row r="221">
-      <c r="F221" s="19"/>
+      <c r="F221" s="33"/>
     </row>
     <row r="222">
-      <c r="F222" s="19"/>
+      <c r="F222" s="33"/>
     </row>
     <row r="223">
-      <c r="F223" s="19"/>
+      <c r="F223" s="33"/>
     </row>
     <row r="224">
-      <c r="F224" s="19"/>
+      <c r="F224" s="33"/>
     </row>
     <row r="225">
-      <c r="F225" s="19"/>
+      <c r="F225" s="33"/>
     </row>
     <row r="226">
-      <c r="F226" s="19"/>
+      <c r="F226" s="33"/>
     </row>
     <row r="227">
-      <c r="F227" s="19"/>
+      <c r="F227" s="33"/>
     </row>
     <row r="228">
-      <c r="F228" s="19"/>
+      <c r="F228" s="33"/>
     </row>
     <row r="229">
-      <c r="F229" s="19"/>
+      <c r="F229" s="33"/>
     </row>
     <row r="230">
-      <c r="F230" s="19"/>
+      <c r="F230" s="33"/>
     </row>
     <row r="231">
-      <c r="F231" s="19"/>
+      <c r="F231" s="33"/>
     </row>
     <row r="232">
-      <c r="F232" s="19"/>
+      <c r="F232" s="33"/>
     </row>
     <row r="233">
-      <c r="F233" s="19"/>
+      <c r="F233" s="33"/>
     </row>
     <row r="234">
-      <c r="F234" s="19"/>
+      <c r="F234" s="33"/>
     </row>
     <row r="235">
-      <c r="F235" s="19"/>
+      <c r="F235" s="33"/>
     </row>
     <row r="236">
-      <c r="F236" s="19"/>
+      <c r="F236" s="33"/>
     </row>
     <row r="237">
-      <c r="F237" s="19"/>
+      <c r="F237" s="33"/>
     </row>
     <row r="238">
-      <c r="F238" s="19"/>
+      <c r="F238" s="33"/>
     </row>
     <row r="239">
-      <c r="F239" s="19"/>
+      <c r="F239" s="33"/>
     </row>
     <row r="240">
-      <c r="F240" s="19"/>
+      <c r="F240" s="33"/>
     </row>
     <row r="241">
-      <c r="F241" s="19"/>
+      <c r="F241" s="33"/>
     </row>
     <row r="242">
-      <c r="F242" s="19"/>
+      <c r="F242" s="33"/>
     </row>
     <row r="243">
-      <c r="F243" s="19"/>
+      <c r="F243" s="33"/>
     </row>
     <row r="244">
-      <c r="F244" s="19"/>
+      <c r="F244" s="33"/>
     </row>
     <row r="245">
-      <c r="F245" s="19"/>
+      <c r="F245" s="33"/>
     </row>
     <row r="246">
-      <c r="F246" s="19"/>
+      <c r="F246" s="33"/>
     </row>
     <row r="247">
-      <c r="F247" s="19"/>
+      <c r="F247" s="33"/>
     </row>
     <row r="248">
-      <c r="F248" s="19"/>
+      <c r="F248" s="33"/>
     </row>
     <row r="249">
-      <c r="F249" s="19"/>
+      <c r="F249" s="33"/>
     </row>
     <row r="250">
-      <c r="F250" s="19"/>
+      <c r="F250" s="33"/>
     </row>
     <row r="251">
-      <c r="F251" s="19"/>
+      <c r="F251" s="33"/>
     </row>
     <row r="252">
-      <c r="F252" s="19"/>
+      <c r="F252" s="33"/>
     </row>
     <row r="253">
-      <c r="F253" s="19"/>
+      <c r="F253" s="33"/>
     </row>
     <row r="254">
-      <c r="F254" s="19"/>
+      <c r="F254" s="33"/>
     </row>
     <row r="255">
-      <c r="F255" s="19"/>
+      <c r="F255" s="33"/>
     </row>
     <row r="256">
-      <c r="F256" s="19"/>
+      <c r="F256" s="33"/>
     </row>
     <row r="257">
-      <c r="F257" s="19"/>
+      <c r="F257" s="33"/>
     </row>
     <row r="258">
-      <c r="F258" s="19"/>
+      <c r="F258" s="33"/>
     </row>
     <row r="259">
-      <c r="F259" s="19"/>
+      <c r="F259" s="33"/>
     </row>
     <row r="260">
-      <c r="F260" s="19"/>
+      <c r="F260" s="33"/>
     </row>
     <row r="261">
-      <c r="F261" s="19"/>
+      <c r="F261" s="33"/>
     </row>
     <row r="262">
-      <c r="F262" s="19"/>
+      <c r="F262" s="33"/>
     </row>
     <row r="263">
-      <c r="F263" s="19"/>
+      <c r="F263" s="33"/>
     </row>
     <row r="264">
-      <c r="F264" s="19"/>
+      <c r="F264" s="33"/>
     </row>
     <row r="265">
-      <c r="F265" s="19"/>
+      <c r="F265" s="33"/>
     </row>
     <row r="266">
-      <c r="F266" s="19"/>
+      <c r="F266" s="33"/>
     </row>
     <row r="267">
-      <c r="F267" s="19"/>
+      <c r="F267" s="33"/>
     </row>
     <row r="268">
-      <c r="F268" s="19"/>
+      <c r="F268" s="33"/>
     </row>
     <row r="269">
-      <c r="F269" s="19"/>
+      <c r="F269" s="33"/>
     </row>
     <row r="270">
-      <c r="F270" s="19"/>
+      <c r="F270" s="33"/>
     </row>
     <row r="271">
-      <c r="F271" s="19"/>
+      <c r="F271" s="33"/>
     </row>
     <row r="272">
-      <c r="F272" s="19"/>
+      <c r="F272" s="33"/>
     </row>
     <row r="273">
-      <c r="F273" s="19"/>
+      <c r="F273" s="33"/>
     </row>
     <row r="274">
-      <c r="F274" s="19"/>
+      <c r="F274" s="33"/>
     </row>
     <row r="275">
-      <c r="F275" s="19"/>
+      <c r="F275" s="33"/>
     </row>
     <row r="276">
-      <c r="F276" s="19"/>
+      <c r="F276" s="33"/>
     </row>
     <row r="277">
-      <c r="F277" s="19"/>
+      <c r="F277" s="33"/>
     </row>
     <row r="278">
-      <c r="F278" s="19"/>
+      <c r="F278" s="33"/>
     </row>
     <row r="279">
-      <c r="F279" s="19"/>
+      <c r="F279" s="33"/>
     </row>
     <row r="280">
-      <c r="F280" s="19"/>
+      <c r="F280" s="33"/>
     </row>
     <row r="281">
-      <c r="F281" s="19"/>
+      <c r="F281" s="33"/>
     </row>
     <row r="282">
-      <c r="F282" s="19"/>
+      <c r="F282" s="33"/>
     </row>
     <row r="283">
-      <c r="F283" s="19"/>
+      <c r="F283" s="33"/>
     </row>
     <row r="284">
-      <c r="F284" s="19"/>
+      <c r="F284" s="33"/>
     </row>
     <row r="285">
-      <c r="F285" s="19"/>
+      <c r="F285" s="33"/>
     </row>
     <row r="286">
-      <c r="F286" s="19"/>
+      <c r="F286" s="33"/>
     </row>
     <row r="287">
-      <c r="F287" s="19"/>
+      <c r="F287" s="33"/>
     </row>
     <row r="288">
-      <c r="F288" s="19"/>
+      <c r="F288" s="33"/>
     </row>
     <row r="289">
-      <c r="F289" s="19"/>
+      <c r="F289" s="33"/>
     </row>
     <row r="290">
-      <c r="F290" s="19"/>
+      <c r="F290" s="33"/>
     </row>
     <row r="291">
-      <c r="F291" s="19"/>
+      <c r="F291" s="33"/>
     </row>
     <row r="292">
-      <c r="F292" s="19"/>
+      <c r="F292" s="33"/>
     </row>
     <row r="293">
-      <c r="F293" s="19"/>
+      <c r="F293" s="33"/>
     </row>
     <row r="294">
-      <c r="F294" s="19"/>
+      <c r="F294" s="33"/>
     </row>
     <row r="295">
-      <c r="F295" s="19"/>
+      <c r="F295" s="33"/>
     </row>
     <row r="296">
-      <c r="F296" s="19"/>
+      <c r="F296" s="33"/>
     </row>
     <row r="297">
-      <c r="F297" s="19"/>
+      <c r="F297" s="33"/>
     </row>
     <row r="298">
-      <c r="F298" s="19"/>
+      <c r="F298" s="33"/>
     </row>
     <row r="299">
-      <c r="F299" s="19"/>
+      <c r="F299" s="33"/>
     </row>
     <row r="300">
-      <c r="F300" s="19"/>
+      <c r="F300" s="33"/>
     </row>
     <row r="301">
-      <c r="F301" s="19"/>
+      <c r="F301" s="33"/>
     </row>
     <row r="302">
-      <c r="F302" s="19"/>
+      <c r="F302" s="33"/>
     </row>
     <row r="303">
-      <c r="F303" s="19"/>
+      <c r="F303" s="33"/>
     </row>
     <row r="304">
-      <c r="F304" s="19"/>
+      <c r="F304" s="33"/>
     </row>
     <row r="305">
-      <c r="F305" s="19"/>
+      <c r="F305" s="33"/>
     </row>
     <row r="306">
-      <c r="F306" s="19"/>
+      <c r="F306" s="33"/>
     </row>
     <row r="307">
-      <c r="F307" s="19"/>
+      <c r="F307" s="33"/>
     </row>
     <row r="308">
-      <c r="F308" s="19"/>
+      <c r="F308" s="33"/>
     </row>
     <row r="309">
-      <c r="F309" s="19"/>
+      <c r="F309" s="33"/>
     </row>
     <row r="310">
-      <c r="F310" s="19"/>
+      <c r="F310" s="33"/>
     </row>
     <row r="311">
-      <c r="F311" s="19"/>
+      <c r="F311" s="33"/>
     </row>
     <row r="312">
-      <c r="F312" s="19"/>
+      <c r="F312" s="33"/>
     </row>
     <row r="313">
-      <c r="F313" s="19"/>
+      <c r="F313" s="33"/>
     </row>
     <row r="314">
-      <c r="F314" s="19"/>
+      <c r="F314" s="33"/>
     </row>
     <row r="315">
-      <c r="F315" s="19"/>
+      <c r="F315" s="33"/>
     </row>
     <row r="316">
-      <c r="F316" s="19"/>
+      <c r="F316" s="33"/>
     </row>
     <row r="317">
-      <c r="F317" s="19"/>
+      <c r="F317" s="33"/>
     </row>
     <row r="318">
-      <c r="F318" s="19"/>
+      <c r="F318" s="33"/>
     </row>
     <row r="319">
-      <c r="F319" s="19"/>
+      <c r="F319" s="33"/>
     </row>
     <row r="320">
-      <c r="F320" s="19"/>
+      <c r="F320" s="33"/>
     </row>
     <row r="321">
-      <c r="F321" s="19"/>
+      <c r="F321" s="33"/>
     </row>
     <row r="322">
-      <c r="F322" s="19"/>
+      <c r="F322" s="33"/>
     </row>
     <row r="323">
-      <c r="F323" s="19"/>
+      <c r="F323" s="33"/>
     </row>
     <row r="324">
-      <c r="F324" s="19"/>
+      <c r="F324" s="33"/>
     </row>
     <row r="325">
-      <c r="F325" s="19"/>
+      <c r="F325" s="33"/>
     </row>
     <row r="326">
-      <c r="F326" s="19"/>
+      <c r="F326" s="33"/>
     </row>
     <row r="327">
-      <c r="F327" s="19"/>
+      <c r="F327" s="33"/>
     </row>
     <row r="328">
-      <c r="F328" s="19"/>
+      <c r="F328" s="33"/>
     </row>
     <row r="329">
-      <c r="F329" s="19"/>
+      <c r="F329" s="33"/>
     </row>
     <row r="330">
-      <c r="F330" s="19"/>
+      <c r="F330" s="33"/>
     </row>
     <row r="331">
-      <c r="F331" s="19"/>
+      <c r="F331" s="33"/>
     </row>
     <row r="332">
-      <c r="F332" s="19"/>
+      <c r="F332" s="33"/>
     </row>
     <row r="333">
-      <c r="F333" s="19"/>
+      <c r="F333" s="33"/>
     </row>
     <row r="334">
-      <c r="F334" s="19"/>
+      <c r="F334" s="33"/>
     </row>
     <row r="335">
-      <c r="F335" s="19"/>
+      <c r="F335" s="33"/>
     </row>
     <row r="336">
-      <c r="F336" s="19"/>
+      <c r="F336" s="33"/>
     </row>
     <row r="337">
-      <c r="F337" s="19"/>
+      <c r="F337" s="33"/>
     </row>
     <row r="338">
-      <c r="F338" s="19"/>
+      <c r="F338" s="33"/>
     </row>
     <row r="339">
-      <c r="F339" s="19"/>
+      <c r="F339" s="33"/>
     </row>
     <row r="340">
-      <c r="F340" s="19"/>
+      <c r="F340" s="33"/>
     </row>
     <row r="341">
-      <c r="F341" s="19"/>
+      <c r="F341" s="33"/>
     </row>
     <row r="342">
-      <c r="F342" s="19"/>
+      <c r="F342" s="33"/>
     </row>
     <row r="343">
-      <c r="F343" s="19"/>
+      <c r="F343" s="33"/>
     </row>
     <row r="344">
-      <c r="F344" s="19"/>
+      <c r="F344" s="33"/>
     </row>
     <row r="345">
-      <c r="F345" s="19"/>
+      <c r="F345" s="33"/>
     </row>
     <row r="346">
-      <c r="F346" s="19"/>
+      <c r="F346" s="33"/>
     </row>
     <row r="347">
-      <c r="F347" s="19"/>
+      <c r="F347" s="33"/>
     </row>
     <row r="348">
-      <c r="F348" s="19"/>
+      <c r="F348" s="33"/>
     </row>
     <row r="349">
-      <c r="F349" s="19"/>
+      <c r="F349" s="33"/>
     </row>
     <row r="350">
-      <c r="F350" s="19"/>
+      <c r="F350" s="33"/>
     </row>
     <row r="351">
-      <c r="F351" s="19"/>
+      <c r="F351" s="33"/>
     </row>
     <row r="352">
-      <c r="F352" s="19"/>
+      <c r="F352" s="33"/>
     </row>
     <row r="353">
-      <c r="F353" s="19"/>
+      <c r="F353" s="33"/>
     </row>
     <row r="354">
-      <c r="F354" s="19"/>
+      <c r="F354" s="33"/>
     </row>
     <row r="355">
-      <c r="F355" s="19"/>
+      <c r="F355" s="33"/>
     </row>
     <row r="356">
-      <c r="F356" s="19"/>
+      <c r="F356" s="33"/>
     </row>
     <row r="357">
-      <c r="F357" s="19"/>
+      <c r="F357" s="33"/>
     </row>
     <row r="358">
-      <c r="F358" s="19"/>
+      <c r="F358" s="33"/>
     </row>
     <row r="359">
-      <c r="F359" s="19"/>
+      <c r="F359" s="33"/>
     </row>
     <row r="360">
-      <c r="F360" s="19"/>
+      <c r="F360" s="33"/>
     </row>
     <row r="361">
-      <c r="F361" s="19"/>
+      <c r="F361" s="33"/>
     </row>
     <row r="362">
-      <c r="F362" s="19"/>
+      <c r="F362" s="33"/>
     </row>
     <row r="363">
-      <c r="F363" s="19"/>
+      <c r="F363" s="33"/>
     </row>
     <row r="364">
-      <c r="F364" s="19"/>
+      <c r="F364" s="33"/>
     </row>
     <row r="365">
-      <c r="F365" s="19"/>
+      <c r="F365" s="33"/>
     </row>
     <row r="366">
-      <c r="F366" s="19"/>
+      <c r="F366" s="33"/>
     </row>
     <row r="367">
-      <c r="F367" s="19"/>
+      <c r="F367" s="33"/>
     </row>
     <row r="368">
-      <c r="F368" s="19"/>
+      <c r="F368" s="33"/>
     </row>
     <row r="369">
-      <c r="F369" s="19"/>
+      <c r="F369" s="33"/>
     </row>
     <row r="370">
-      <c r="F370" s="19"/>
+      <c r="F370" s="33"/>
     </row>
     <row r="371">
-      <c r="F371" s="19"/>
+      <c r="F371" s="33"/>
     </row>
     <row r="372">
-      <c r="F372" s="19"/>
+      <c r="F372" s="33"/>
     </row>
     <row r="373">
-      <c r="F373" s="19"/>
+      <c r="F373" s="33"/>
     </row>
     <row r="374">
-      <c r="F374" s="19"/>
+      <c r="F374" s="33"/>
     </row>
     <row r="375">
-      <c r="F375" s="19"/>
+      <c r="F375" s="33"/>
     </row>
     <row r="376">
-      <c r="F376" s="19"/>
+      <c r="F376" s="33"/>
     </row>
     <row r="377">
-      <c r="F377" s="19"/>
+      <c r="F377" s="33"/>
     </row>
     <row r="378">
-      <c r="F378" s="19"/>
+      <c r="F378" s="33"/>
     </row>
     <row r="379">
-      <c r="F379" s="19"/>
+      <c r="F379" s="33"/>
     </row>
     <row r="380">
-      <c r="F380" s="19"/>
+      <c r="F380" s="33"/>
     </row>
     <row r="381">
-      <c r="F381" s="19"/>
+      <c r="F381" s="33"/>
     </row>
     <row r="382">
-      <c r="F382" s="19"/>
+      <c r="F382" s="33"/>
     </row>
     <row r="383">
-      <c r="F383" s="19"/>
+      <c r="F383" s="33"/>
     </row>
     <row r="384">
-      <c r="F384" s="19"/>
+      <c r="F384" s="33"/>
     </row>
     <row r="385">
-      <c r="F385" s="19"/>
+      <c r="F385" s="33"/>
     </row>
     <row r="386">
-      <c r="F386" s="19"/>
+      <c r="F386" s="33"/>
     </row>
     <row r="387">
-      <c r="F387" s="19"/>
+      <c r="F387" s="33"/>
     </row>
     <row r="388">
-      <c r="F388" s="19"/>
+      <c r="F388" s="33"/>
     </row>
     <row r="389">
-      <c r="F389" s="19"/>
+      <c r="F389" s="33"/>
     </row>
     <row r="390">
-      <c r="F390" s="19"/>
+      <c r="F390" s="33"/>
     </row>
     <row r="391">
-      <c r="F391" s="19"/>
+      <c r="F391" s="33"/>
     </row>
     <row r="392">
-      <c r="F392" s="19"/>
+      <c r="F392" s="33"/>
     </row>
     <row r="393">
-      <c r="F393" s="19"/>
+      <c r="F393" s="33"/>
     </row>
     <row r="394">
-      <c r="F394" s="19"/>
+      <c r="F394" s="33"/>
     </row>
     <row r="395">
-      <c r="F395" s="19"/>
+      <c r="F395" s="33"/>
     </row>
     <row r="396">
-      <c r="F396" s="19"/>
+      <c r="F396" s="33"/>
     </row>
     <row r="397">
-      <c r="F397" s="19"/>
+      <c r="F397" s="33"/>
     </row>
     <row r="398">
-      <c r="F398" s="19"/>
+      <c r="F398" s="33"/>
     </row>
     <row r="399">
-      <c r="F399" s="19"/>
+      <c r="F399" s="33"/>
     </row>
     <row r="400">
-      <c r="F400" s="19"/>
+      <c r="F400" s="33"/>
     </row>
     <row r="401">
-      <c r="F401" s="19"/>
+      <c r="F401" s="33"/>
     </row>
     <row r="402">
-      <c r="F402" s="19"/>
+      <c r="F402" s="33"/>
     </row>
     <row r="403">
-      <c r="F403" s="19"/>
+      <c r="F403" s="33"/>
     </row>
     <row r="404">
-      <c r="F404" s="19"/>
+      <c r="F404" s="33"/>
     </row>
     <row r="405">
-      <c r="F405" s="19"/>
+      <c r="F405" s="33"/>
     </row>
     <row r="406">
-      <c r="F406" s="19"/>
+      <c r="F406" s="33"/>
     </row>
     <row r="407">
-      <c r="F407" s="19"/>
+      <c r="F407" s="33"/>
     </row>
     <row r="408">
-      <c r="F408" s="19"/>
+      <c r="F408" s="33"/>
     </row>
     <row r="409">
-      <c r="F409" s="19"/>
+      <c r="F409" s="33"/>
     </row>
     <row r="410">
-      <c r="F410" s="19"/>
+      <c r="F410" s="33"/>
     </row>
     <row r="411">
-      <c r="F411" s="19"/>
+      <c r="F411" s="33"/>
     </row>
     <row r="412">
-      <c r="F412" s="19"/>
+      <c r="F412" s="33"/>
     </row>
     <row r="413">
-      <c r="F413" s="19"/>
+      <c r="F413" s="33"/>
     </row>
     <row r="414">
-      <c r="F414" s="19"/>
+      <c r="F414" s="33"/>
     </row>
     <row r="415">
-      <c r="F415" s="19"/>
+      <c r="F415" s="33"/>
     </row>
     <row r="416">
-      <c r="F416" s="19"/>
+      <c r="F416" s="33"/>
     </row>
     <row r="417">
-      <c r="F417" s="19"/>
+      <c r="F417" s="33"/>
     </row>
     <row r="418">
-      <c r="F418" s="19"/>
+      <c r="F418" s="33"/>
     </row>
     <row r="419">
-      <c r="F419" s="19"/>
+      <c r="F419" s="33"/>
     </row>
     <row r="420">
-      <c r="F420" s="19"/>
+      <c r="F420" s="33"/>
     </row>
     <row r="421">
-      <c r="F421" s="19"/>
+      <c r="F421" s="33"/>
     </row>
     <row r="422">
-      <c r="F422" s="19"/>
+      <c r="F422" s="33"/>
     </row>
     <row r="423">
-      <c r="F423" s="19"/>
+      <c r="F423" s="33"/>
     </row>
     <row r="424">
-      <c r="F424" s="19"/>
+      <c r="F424" s="33"/>
     </row>
     <row r="425">
-      <c r="F425" s="19"/>
+      <c r="F425" s="33"/>
     </row>
     <row r="426">
-      <c r="F426" s="19"/>
+      <c r="F426" s="33"/>
     </row>
     <row r="427">
-      <c r="F427" s="19"/>
+      <c r="F427" s="33"/>
     </row>
     <row r="428">
-      <c r="F428" s="19"/>
+      <c r="F428" s="33"/>
     </row>
     <row r="429">
-      <c r="F429" s="19"/>
+      <c r="F429" s="33"/>
     </row>
     <row r="430">
-      <c r="F430" s="19"/>
+      <c r="F430" s="33"/>
     </row>
     <row r="431">
-      <c r="F431" s="19"/>
+      <c r="F431" s="33"/>
     </row>
     <row r="432">
-      <c r="F432" s="19"/>
+      <c r="F432" s="33"/>
     </row>
     <row r="433">
-      <c r="F433" s="19"/>
+      <c r="F433" s="33"/>
     </row>
     <row r="434">
-      <c r="F434" s="19"/>
+      <c r="F434" s="33"/>
     </row>
     <row r="435">
-      <c r="F435" s="19"/>
+      <c r="F435" s="33"/>
     </row>
     <row r="436">
-      <c r="F436" s="19"/>
+      <c r="F436" s="33"/>
     </row>
     <row r="437">
-      <c r="F437" s="19"/>
+      <c r="F437" s="33"/>
     </row>
     <row r="438">
-      <c r="F438" s="19"/>
+      <c r="F438" s="33"/>
     </row>
     <row r="439">
-      <c r="F439" s="19"/>
+      <c r="F439" s="33"/>
     </row>
     <row r="440">
-      <c r="F440" s="19"/>
+      <c r="F440" s="33"/>
     </row>
     <row r="441">
-      <c r="F441" s="19"/>
+      <c r="F441" s="33"/>
     </row>
     <row r="442">
-      <c r="F442" s="19"/>
+      <c r="F442" s="33"/>
     </row>
     <row r="443">
-      <c r="F443" s="19"/>
+      <c r="F443" s="33"/>
     </row>
     <row r="444">
-      <c r="F444" s="19"/>
+      <c r="F444" s="33"/>
     </row>
     <row r="445">
-      <c r="F445" s="19"/>
+      <c r="F445" s="33"/>
     </row>
     <row r="446">
-      <c r="F446" s="19"/>
+      <c r="F446" s="33"/>
     </row>
     <row r="447">
-      <c r="F447" s="19"/>
+      <c r="F447" s="33"/>
     </row>
     <row r="448">
-      <c r="F448" s="19"/>
+      <c r="F448" s="33"/>
     </row>
     <row r="449">
-      <c r="F449" s="19"/>
+      <c r="F449" s="33"/>
     </row>
     <row r="450">
-      <c r="F450" s="19"/>
+      <c r="F450" s="33"/>
     </row>
     <row r="451">
-      <c r="F451" s="19"/>
+      <c r="F451" s="33"/>
     </row>
     <row r="452">
-      <c r="F452" s="19"/>
+      <c r="F452" s="33"/>
     </row>
     <row r="453">
-      <c r="F453" s="19"/>
+      <c r="F453" s="33"/>
     </row>
     <row r="454">
-      <c r="F454" s="19"/>
+      <c r="F454" s="33"/>
     </row>
     <row r="455">
-      <c r="F455" s="19"/>
+      <c r="F455" s="33"/>
     </row>
     <row r="456">
-      <c r="F456" s="19"/>
+      <c r="F456" s="33"/>
     </row>
     <row r="457">
-      <c r="F457" s="19"/>
+      <c r="F457" s="33"/>
     </row>
     <row r="458">
-      <c r="F458" s="19"/>
+      <c r="F458" s="33"/>
     </row>
     <row r="459">
-      <c r="F459" s="19"/>
+      <c r="F459" s="33"/>
     </row>
     <row r="460">
-      <c r="F460" s="19"/>
+      <c r="F460" s="33"/>
     </row>
     <row r="461">
-      <c r="F461" s="19"/>
+      <c r="F461" s="33"/>
     </row>
     <row r="462">
-      <c r="F462" s="19"/>
+      <c r="F462" s="33"/>
     </row>
     <row r="463">
-      <c r="F463" s="19"/>
+      <c r="F463" s="33"/>
     </row>
     <row r="464">
-      <c r="F464" s="19"/>
+      <c r="F464" s="33"/>
     </row>
     <row r="465">
-      <c r="F465" s="19"/>
+      <c r="F465" s="33"/>
     </row>
     <row r="466">
-      <c r="F466" s="19"/>
+      <c r="F466" s="33"/>
     </row>
     <row r="467">
-      <c r="F467" s="19"/>
+      <c r="F467" s="33"/>
     </row>
     <row r="468">
-      <c r="F468" s="19"/>
+      <c r="F468" s="33"/>
     </row>
     <row r="469">
-      <c r="F469" s="19"/>
+      <c r="F469" s="33"/>
     </row>
     <row r="470">
-      <c r="F470" s="19"/>
+      <c r="F470" s="33"/>
     </row>
     <row r="471">
-      <c r="F471" s="19"/>
+      <c r="F471" s="33"/>
     </row>
     <row r="472">
-      <c r="F472" s="19"/>
+      <c r="F472" s="33"/>
     </row>
     <row r="473">
-      <c r="F473" s="19"/>
+      <c r="F473" s="33"/>
     </row>
     <row r="474">
-      <c r="F474" s="19"/>
+      <c r="F474" s="33"/>
     </row>
     <row r="475">
-      <c r="F475" s="19"/>
+      <c r="F475" s="33"/>
     </row>
     <row r="476">
-      <c r="F476" s="19"/>
+      <c r="F476" s="33"/>
     </row>
     <row r="477">
-      <c r="F477" s="19"/>
+      <c r="F477" s="33"/>
     </row>
     <row r="478">
-      <c r="F478" s="19"/>
+      <c r="F478" s="33"/>
     </row>
     <row r="479">
-      <c r="F479" s="19"/>
+      <c r="F479" s="33"/>
     </row>
     <row r="480">
-      <c r="F480" s="19"/>
+      <c r="F480" s="33"/>
     </row>
     <row r="481">
-      <c r="F481" s="19"/>
+      <c r="F481" s="33"/>
     </row>
     <row r="482">
-      <c r="F482" s="19"/>
+      <c r="F482" s="33"/>
     </row>
     <row r="483">
-      <c r="F483" s="19"/>
+      <c r="F483" s="33"/>
     </row>
     <row r="484">
-      <c r="F484" s="19"/>
+      <c r="F484" s="33"/>
     </row>
     <row r="485">
-      <c r="F485" s="19"/>
+      <c r="F485" s="33"/>
     </row>
     <row r="486">
-      <c r="F486" s="19"/>
+      <c r="F486" s="33"/>
     </row>
     <row r="487">
-      <c r="F487" s="19"/>
+      <c r="F487" s="33"/>
     </row>
     <row r="488">
-      <c r="F488" s="19"/>
+      <c r="F488" s="33"/>
     </row>
     <row r="489">
-      <c r="F489" s="19"/>
+      <c r="F489" s="33"/>
     </row>
     <row r="490">
-      <c r="F490" s="19"/>
+      <c r="F490" s="33"/>
     </row>
     <row r="491">
-      <c r="F491" s="19"/>
+      <c r="F491" s="33"/>
     </row>
     <row r="492">
-      <c r="F492" s="19"/>
+      <c r="F492" s="33"/>
     </row>
     <row r="493">
-      <c r="F493" s="19"/>
+      <c r="F493" s="33"/>
     </row>
     <row r="494">
-      <c r="F494" s="19"/>
+      <c r="F494" s="33"/>
     </row>
     <row r="495">
-      <c r="F495" s="19"/>
+      <c r="F495" s="33"/>
     </row>
     <row r="496">
-      <c r="F496" s="19"/>
+      <c r="F496" s="33"/>
     </row>
     <row r="497">
-      <c r="F497" s="19"/>
+      <c r="F497" s="33"/>
     </row>
     <row r="498">
-      <c r="F498" s="19"/>
+      <c r="F498" s="33"/>
     </row>
     <row r="499">
-      <c r="F499" s="19"/>
+      <c r="F499" s="33"/>
     </row>
     <row r="500">
-      <c r="F500" s="19"/>
+      <c r="F500" s="33"/>
     </row>
     <row r="501">
-      <c r="F501" s="19"/>
+      <c r="F501" s="33"/>
     </row>
     <row r="502">
-      <c r="F502" s="19"/>
+      <c r="F502" s="33"/>
     </row>
     <row r="503">
-      <c r="F503" s="19"/>
+      <c r="F503" s="33"/>
     </row>
     <row r="504">
-      <c r="F504" s="19"/>
+      <c r="F504" s="33"/>
     </row>
     <row r="505">
-      <c r="F505" s="19"/>
+      <c r="F505" s="33"/>
     </row>
     <row r="506">
-      <c r="F506" s="19"/>
+      <c r="F506" s="33"/>
     </row>
     <row r="507">
-      <c r="F507" s="19"/>
+      <c r="F507" s="33"/>
     </row>
     <row r="508">
-      <c r="F508" s="19"/>
+      <c r="F508" s="33"/>
     </row>
     <row r="509">
-      <c r="F509" s="19"/>
+      <c r="F509" s="33"/>
     </row>
     <row r="510">
-      <c r="F510" s="19"/>
+      <c r="F510" s="33"/>
     </row>
     <row r="511">
-      <c r="F511" s="19"/>
+      <c r="F511" s="33"/>
     </row>
     <row r="512">
-      <c r="F512" s="19"/>
+      <c r="F512" s="33"/>
     </row>
     <row r="513">
-      <c r="F513" s="19"/>
+      <c r="F513" s="33"/>
     </row>
     <row r="514">
-      <c r="F514" s="19"/>
+      <c r="F514" s="33"/>
     </row>
     <row r="515">
-      <c r="F515" s="19"/>
+      <c r="F515" s="33"/>
     </row>
     <row r="516">
-      <c r="F516" s="19"/>
+      <c r="F516" s="33"/>
     </row>
     <row r="517">
-      <c r="F517" s="19"/>
+      <c r="F517" s="33"/>
     </row>
     <row r="518">
-      <c r="F518" s="19"/>
+      <c r="F518" s="33"/>
     </row>
     <row r="519">
-      <c r="F519" s="19"/>
+      <c r="F519" s="33"/>
     </row>
     <row r="520">
-      <c r="F520" s="19"/>
+      <c r="F520" s="33"/>
     </row>
     <row r="521">
-      <c r="F521" s="19"/>
+      <c r="F521" s="33"/>
     </row>
     <row r="522">
-      <c r="F522" s="19"/>
+      <c r="F522" s="33"/>
     </row>
     <row r="523">
-      <c r="F523" s="19"/>
+      <c r="F523" s="33"/>
     </row>
     <row r="524">
-      <c r="F524" s="19"/>
+      <c r="F524" s="33"/>
     </row>
     <row r="525">
-      <c r="F525" s="19"/>
+      <c r="F525" s="33"/>
     </row>
     <row r="526">
-      <c r="F526" s="19"/>
+      <c r="F526" s="33"/>
     </row>
     <row r="527">
-      <c r="F527" s="19"/>
+      <c r="F527" s="33"/>
     </row>
     <row r="528">
-      <c r="F528" s="19"/>
+      <c r="F528" s="33"/>
     </row>
     <row r="529">
-      <c r="F529" s="19"/>
+      <c r="F529" s="33"/>
     </row>
     <row r="530">
-      <c r="F530" s="19"/>
+      <c r="F530" s="33"/>
     </row>
     <row r="531">
-      <c r="F531" s="19"/>
+      <c r="F531" s="33"/>
     </row>
     <row r="532">
-      <c r="F532" s="19"/>
+      <c r="F532" s="33"/>
     </row>
     <row r="533">
-      <c r="F533" s="19"/>
+      <c r="F533" s="33"/>
     </row>
     <row r="534">
-      <c r="F534" s="19"/>
+      <c r="F534" s="33"/>
     </row>
     <row r="535">
-      <c r="F535" s="19"/>
+      <c r="F535" s="33"/>
     </row>
     <row r="536">
-      <c r="F536" s="19"/>
+      <c r="F536" s="33"/>
     </row>
     <row r="537">
-      <c r="F537" s="19"/>
+      <c r="F537" s="33"/>
     </row>
     <row r="538">
-      <c r="F538" s="19"/>
+      <c r="F538" s="33"/>
     </row>
     <row r="539">
-      <c r="F539" s="19"/>
+      <c r="F539" s="33"/>
     </row>
     <row r="540">
-      <c r="F540" s="19"/>
+      <c r="F540" s="33"/>
     </row>
     <row r="541">
-      <c r="F541" s="19"/>
+      <c r="F541" s="33"/>
     </row>
     <row r="542">
-      <c r="F542" s="19"/>
+      <c r="F542" s="33"/>
     </row>
     <row r="543">
-      <c r="F543" s="19"/>
+      <c r="F543" s="33"/>
     </row>
     <row r="544">
-      <c r="F544" s="19"/>
+      <c r="F544" s="33"/>
     </row>
     <row r="545">
-      <c r="F545" s="19"/>
+      <c r="F545" s="33"/>
     </row>
     <row r="546">
-      <c r="F546" s="19"/>
+      <c r="F546" s="33"/>
     </row>
     <row r="547">
-      <c r="F547" s="19"/>
+      <c r="F547" s="33"/>
     </row>
     <row r="548">
-      <c r="F548" s="19"/>
+      <c r="F548" s="33"/>
     </row>
     <row r="549">
-      <c r="F549" s="19"/>
+      <c r="F549" s="33"/>
     </row>
     <row r="550">
-      <c r="F550" s="19"/>
+      <c r="F550" s="33"/>
     </row>
     <row r="551">
-      <c r="F551" s="19"/>
+      <c r="F551" s="33"/>
     </row>
     <row r="552">
-      <c r="F552" s="19"/>
+      <c r="F552" s="33"/>
     </row>
     <row r="553">
-      <c r="F553" s="19"/>
+      <c r="F553" s="33"/>
     </row>
     <row r="554">
-      <c r="F554" s="19"/>
+      <c r="F554" s="33"/>
     </row>
     <row r="555">
-      <c r="F555" s="19"/>
+      <c r="F555" s="33"/>
     </row>
     <row r="556">
-      <c r="F556" s="19"/>
+      <c r="F556" s="33"/>
     </row>
     <row r="557">
-      <c r="F557" s="19"/>
+      <c r="F557" s="33"/>
     </row>
     <row r="558">
-      <c r="F558" s="19"/>
+      <c r="F558" s="33"/>
     </row>
     <row r="559">
-      <c r="F559" s="19"/>
+      <c r="F559" s="33"/>
     </row>
     <row r="560">
-      <c r="F560" s="19"/>
+      <c r="F560" s="33"/>
     </row>
     <row r="561">
-      <c r="F561" s="19"/>
+      <c r="F561" s="33"/>
     </row>
     <row r="562">
-      <c r="F562" s="19"/>
+      <c r="F562" s="33"/>
     </row>
     <row r="563">
-      <c r="F563" s="19"/>
+      <c r="F563" s="33"/>
     </row>
     <row r="564">
-      <c r="F564" s="19"/>
+      <c r="F564" s="33"/>
     </row>
     <row r="565">
-      <c r="F565" s="19"/>
+      <c r="F565" s="33"/>
     </row>
     <row r="566">
-      <c r="F566" s="19"/>
+      <c r="F566" s="33"/>
     </row>
     <row r="567">
-      <c r="F567" s="19"/>
+      <c r="F567" s="33"/>
     </row>
     <row r="568">
-      <c r="F568" s="19"/>
+      <c r="F568" s="33"/>
     </row>
     <row r="569">
-      <c r="F569" s="19"/>
+      <c r="F569" s="33"/>
     </row>
     <row r="570">
-      <c r="F570" s="19"/>
+      <c r="F570" s="33"/>
     </row>
     <row r="571">
-      <c r="F571" s="19"/>
+      <c r="F571" s="33"/>
     </row>
     <row r="572">
-      <c r="F572" s="19"/>
+      <c r="F572" s="33"/>
     </row>
     <row r="573">
-      <c r="F573" s="19"/>
+      <c r="F573" s="33"/>
     </row>
     <row r="574">
-      <c r="F574" s="19"/>
+      <c r="F574" s="33"/>
     </row>
     <row r="575">
-      <c r="F575" s="19"/>
+      <c r="F575" s="33"/>
     </row>
     <row r="576">
-      <c r="F576" s="19"/>
+      <c r="F576" s="33"/>
     </row>
     <row r="577">
-      <c r="F577" s="19"/>
+      <c r="F577" s="33"/>
     </row>
     <row r="578">
-      <c r="F578" s="19"/>
+      <c r="F578" s="33"/>
     </row>
     <row r="579">
-      <c r="F579" s="19"/>
+      <c r="F579" s="33"/>
     </row>
     <row r="580">
-      <c r="F580" s="19"/>
+      <c r="F580" s="33"/>
     </row>
     <row r="581">
-      <c r="F581" s="19"/>
+      <c r="F581" s="33"/>
     </row>
     <row r="582">
-      <c r="F582" s="19"/>
+      <c r="F582" s="33"/>
     </row>
     <row r="583">
-      <c r="F583" s="19"/>
+      <c r="F583" s="33"/>
     </row>
     <row r="584">
-      <c r="F584" s="19"/>
+      <c r="F584" s="33"/>
     </row>
     <row r="585">
-      <c r="F585" s="19"/>
+      <c r="F585" s="33"/>
     </row>
     <row r="586">
-      <c r="F586" s="19"/>
+      <c r="F586" s="33"/>
     </row>
     <row r="587">
-      <c r="F587" s="19"/>
+      <c r="F587" s="33"/>
     </row>
     <row r="588">
-      <c r="F588" s="19"/>
+      <c r="F588" s="33"/>
     </row>
     <row r="589">
-      <c r="F589" s="19"/>
+      <c r="F589" s="33"/>
     </row>
     <row r="590">
-      <c r="F590" s="19"/>
+      <c r="F590" s="33"/>
     </row>
     <row r="591">
-      <c r="F591" s="19"/>
+      <c r="F591" s="33"/>
     </row>
     <row r="592">
-      <c r="F592" s="19"/>
+      <c r="F592" s="33"/>
     </row>
     <row r="593">
-      <c r="F593" s="19"/>
+      <c r="F593" s="33"/>
     </row>
     <row r="594">
-      <c r="F594" s="19"/>
+      <c r="F594" s="33"/>
     </row>
     <row r="595">
-      <c r="F595" s="19"/>
+      <c r="F595" s="33"/>
     </row>
     <row r="596">
-      <c r="F596" s="19"/>
+      <c r="F596" s="33"/>
     </row>
     <row r="597">
-      <c r="F597" s="19"/>
+      <c r="F597" s="33"/>
     </row>
     <row r="598">
-      <c r="F598" s="19"/>
+      <c r="F598" s="33"/>
     </row>
     <row r="599">
-      <c r="F599" s="19"/>
+      <c r="F599" s="33"/>
     </row>
     <row r="600">
-      <c r="F600" s="19"/>
+      <c r="F600" s="33"/>
     </row>
     <row r="601">
-      <c r="F601" s="19"/>
+      <c r="F601" s="33"/>
     </row>
     <row r="602">
-      <c r="F602" s="19"/>
+      <c r="F602" s="33"/>
     </row>
     <row r="603">
-      <c r="F603" s="19"/>
+      <c r="F603" s="33"/>
     </row>
     <row r="604">
-      <c r="F604" s="19"/>
+      <c r="F604" s="33"/>
     </row>
     <row r="605">
-      <c r="F605" s="19"/>
+      <c r="F605" s="33"/>
     </row>
     <row r="606">
-      <c r="F606" s="19"/>
+      <c r="F606" s="33"/>
     </row>
     <row r="607">
-      <c r="F607" s="19"/>
+      <c r="F607" s="33"/>
     </row>
     <row r="608">
-      <c r="F608" s="19"/>
+      <c r="F608" s="33"/>
     </row>
     <row r="609">
-      <c r="F609" s="19"/>
+      <c r="F609" s="33"/>
     </row>
     <row r="610">
-      <c r="F610" s="19"/>
+      <c r="F610" s="33"/>
     </row>
     <row r="611">
-      <c r="F611" s="19"/>
+      <c r="F611" s="33"/>
     </row>
     <row r="612">
-      <c r="F612" s="19"/>
+      <c r="F612" s="33"/>
     </row>
     <row r="613">
-      <c r="F613" s="19"/>
+      <c r="F613" s="33"/>
     </row>
     <row r="614">
-      <c r="F614" s="19"/>
+      <c r="F614" s="33"/>
     </row>
     <row r="615">
-      <c r="F615" s="19"/>
+      <c r="F615" s="33"/>
     </row>
     <row r="616">
-      <c r="F616" s="19"/>
+      <c r="F616" s="33"/>
     </row>
     <row r="617">
-      <c r="F617" s="19"/>
+      <c r="F617" s="33"/>
     </row>
     <row r="618">
-      <c r="F618" s="19"/>
+      <c r="F618" s="33"/>
     </row>
     <row r="619">
-      <c r="F619" s="19"/>
+      <c r="F619" s="33"/>
     </row>
     <row r="620">
-      <c r="F620" s="19"/>
+      <c r="F620" s="33"/>
     </row>
     <row r="621">
-      <c r="F621" s="19"/>
+      <c r="F621" s="33"/>
     </row>
     <row r="622">
-      <c r="F622" s="19"/>
+      <c r="F622" s="33"/>
     </row>
     <row r="623">
-      <c r="F623" s="19"/>
+      <c r="F623" s="33"/>
     </row>
     <row r="624">
-      <c r="F624" s="19"/>
+      <c r="F624" s="33"/>
     </row>
     <row r="625">
-      <c r="F625" s="19"/>
+      <c r="F625" s="33"/>
     </row>
     <row r="626">
-      <c r="F626" s="19"/>
+      <c r="F626" s="33"/>
     </row>
     <row r="627">
-      <c r="F627" s="19"/>
+      <c r="F627" s="33"/>
     </row>
     <row r="628">
-      <c r="F628" s="19"/>
+      <c r="F628" s="33"/>
     </row>
     <row r="629">
-      <c r="F629" s="19"/>
+      <c r="F629" s="33"/>
     </row>
     <row r="630">
-      <c r="F630" s="19"/>
+      <c r="F630" s="33"/>
     </row>
     <row r="631">
-      <c r="F631" s="19"/>
+      <c r="F631" s="33"/>
     </row>
     <row r="632">
-      <c r="F632" s="19"/>
+      <c r="F632" s="33"/>
     </row>
     <row r="633">
-      <c r="F633" s="19"/>
+      <c r="F633" s="33"/>
     </row>
     <row r="634">
-      <c r="F634" s="19"/>
+      <c r="F634" s="33"/>
     </row>
     <row r="635">
-      <c r="F635" s="19"/>
+      <c r="F635" s="33"/>
     </row>
     <row r="636">
-      <c r="F636" s="19"/>
+      <c r="F636" s="33"/>
     </row>
     <row r="637">
-      <c r="F637" s="19"/>
+      <c r="F637" s="33"/>
     </row>
     <row r="638">
-      <c r="F638" s="19"/>
+      <c r="F638" s="33"/>
     </row>
     <row r="639">
-      <c r="F639" s="19"/>
+      <c r="F639" s="33"/>
     </row>
     <row r="640">
-      <c r="F640" s="19"/>
+      <c r="F640" s="33"/>
     </row>
     <row r="641">
-      <c r="F641" s="19"/>
+      <c r="F641" s="33"/>
     </row>
     <row r="642">
-      <c r="F642" s="19"/>
+      <c r="F642" s="33"/>
     </row>
     <row r="643">
-      <c r="F643" s="19"/>
+      <c r="F643" s="33"/>
     </row>
     <row r="644">
-      <c r="F644" s="19"/>
+      <c r="F644" s="33"/>
     </row>
     <row r="645">
-      <c r="F645" s="19"/>
+      <c r="F645" s="33"/>
     </row>
     <row r="646">
-      <c r="F646" s="19"/>
+      <c r="F646" s="33"/>
     </row>
     <row r="647">
-      <c r="F647" s="19"/>
+      <c r="F647" s="33"/>
     </row>
     <row r="648">
-      <c r="F648" s="19"/>
+      <c r="F648" s="33"/>
     </row>
     <row r="649">
-      <c r="F649" s="19"/>
+      <c r="F649" s="33"/>
     </row>
     <row r="650">
-      <c r="F650" s="19"/>
+      <c r="F650" s="33"/>
     </row>
     <row r="651">
-      <c r="F651" s="19"/>
+      <c r="F651" s="33"/>
     </row>
     <row r="652">
-      <c r="F652" s="19"/>
+      <c r="F652" s="33"/>
     </row>
     <row r="653">
-      <c r="F653" s="19"/>
+      <c r="F653" s="33"/>
     </row>
     <row r="654">
-      <c r="F654" s="19"/>
+      <c r="F654" s="33"/>
     </row>
     <row r="655">
-      <c r="F655" s="19"/>
+      <c r="F655" s="33"/>
     </row>
     <row r="656">
-      <c r="F656" s="19"/>
+      <c r="F656" s="33"/>
     </row>
     <row r="657">
-      <c r="F657" s="19"/>
+      <c r="F657" s="33"/>
     </row>
     <row r="658">
-      <c r="F658" s="19"/>
+      <c r="F658" s="33"/>
     </row>
     <row r="659">
-      <c r="F659" s="19"/>
+      <c r="F659" s="33"/>
     </row>
     <row r="660">
-      <c r="F660" s="19"/>
+      <c r="F660" s="33"/>
     </row>
     <row r="661">
-      <c r="F661" s="19"/>
+      <c r="F661" s="33"/>
     </row>
     <row r="662">
-      <c r="F662" s="19"/>
+      <c r="F662" s="33"/>
     </row>
     <row r="663">
-      <c r="F663" s="19"/>
+      <c r="F663" s="33"/>
     </row>
     <row r="664">
-      <c r="F664" s="19"/>
+      <c r="F664" s="33"/>
     </row>
     <row r="665">
-      <c r="F665" s="19"/>
+      <c r="F665" s="33"/>
     </row>
     <row r="666">
-      <c r="F666" s="19"/>
+      <c r="F666" s="33"/>
     </row>
     <row r="667">
-      <c r="F667" s="19"/>
+      <c r="F667" s="33"/>
     </row>
     <row r="668">
-      <c r="F668" s="19"/>
+      <c r="F668" s="33"/>
     </row>
     <row r="669">
-      <c r="F669" s="19"/>
+      <c r="F669" s="33"/>
     </row>
     <row r="670">
-      <c r="F670" s="19"/>
+      <c r="F670" s="33"/>
     </row>
     <row r="671">
-      <c r="F671" s="19"/>
+      <c r="F671" s="33"/>
     </row>
     <row r="672">
-      <c r="F672" s="19"/>
+      <c r="F672" s="33"/>
     </row>
     <row r="673">
-      <c r="F673" s="19"/>
+      <c r="F673" s="33"/>
     </row>
     <row r="674">
-      <c r="F674" s="19"/>
+      <c r="F674" s="33"/>
     </row>
     <row r="675">
-      <c r="F675" s="19"/>
+      <c r="F675" s="33"/>
     </row>
     <row r="676">
-      <c r="F676" s="19"/>
+      <c r="F676" s="33"/>
     </row>
     <row r="677">
-      <c r="F677" s="19"/>
+      <c r="F677" s="33"/>
     </row>
     <row r="678">
-      <c r="F678" s="19"/>
+      <c r="F678" s="33"/>
     </row>
     <row r="679">
-      <c r="F679" s="19"/>
+      <c r="F679" s="33"/>
     </row>
     <row r="680">
-      <c r="F680" s="19"/>
+      <c r="F680" s="33"/>
     </row>
     <row r="681">
-      <c r="F681" s="19"/>
+      <c r="F681" s="33"/>
     </row>
     <row r="682">
-      <c r="F682" s="19"/>
+      <c r="F682" s="33"/>
     </row>
     <row r="683">
-      <c r="F683" s="19"/>
+      <c r="F683" s="33"/>
     </row>
     <row r="684">
-      <c r="F684" s="19"/>
+      <c r="F684" s="33"/>
     </row>
     <row r="685">
-      <c r="F685" s="19"/>
+      <c r="F685" s="33"/>
     </row>
     <row r="686">
-      <c r="F686" s="19"/>
+      <c r="F686" s="33"/>
     </row>
     <row r="687">
-      <c r="F687" s="19"/>
+      <c r="F687" s="33"/>
     </row>
     <row r="688">
-      <c r="F688" s="19"/>
+      <c r="F688" s="33"/>
     </row>
     <row r="689">
-      <c r="F689" s="19"/>
+      <c r="F689" s="33"/>
     </row>
     <row r="690">
-      <c r="F690" s="19"/>
+      <c r="F690" s="33"/>
     </row>
     <row r="691">
-      <c r="F691" s="19"/>
+      <c r="F691" s="33"/>
     </row>
     <row r="692">
-      <c r="F692" s="19"/>
+      <c r="F692" s="33"/>
     </row>
     <row r="693">
-      <c r="F693" s="19"/>
+      <c r="F693" s="33"/>
     </row>
     <row r="694">
-      <c r="F694" s="19"/>
+      <c r="F694" s="33"/>
     </row>
     <row r="695">
-      <c r="F695" s="19"/>
+      <c r="F695" s="33"/>
     </row>
     <row r="696">
-      <c r="F696" s="19"/>
+      <c r="F696" s="33"/>
     </row>
     <row r="697">
-      <c r="F697" s="19"/>
+      <c r="F697" s="33"/>
     </row>
     <row r="698">
-      <c r="F698" s="19"/>
+      <c r="F698" s="33"/>
     </row>
     <row r="699">
-      <c r="F699" s="19"/>
+      <c r="F699" s="33"/>
     </row>
     <row r="700">
-      <c r="F700" s="19"/>
+      <c r="F700" s="33"/>
     </row>
     <row r="701">
-      <c r="F701" s="19"/>
+      <c r="F701" s="33"/>
     </row>
     <row r="702">
-      <c r="F702" s="19"/>
+      <c r="F702" s="33"/>
     </row>
     <row r="703">
-      <c r="F703" s="19"/>
+      <c r="F703" s="33"/>
     </row>
     <row r="704">
-      <c r="F704" s="19"/>
+      <c r="F704" s="33"/>
     </row>
     <row r="705">
-      <c r="F705" s="19"/>
+      <c r="F705" s="33"/>
     </row>
     <row r="706">
-      <c r="F706" s="19"/>
+      <c r="F706" s="33"/>
     </row>
     <row r="707">
-      <c r="F707" s="19"/>
+      <c r="F707" s="33"/>
     </row>
     <row r="708">
-      <c r="F708" s="19"/>
+      <c r="F708" s="33"/>
     </row>
     <row r="709">
-      <c r="F709" s="19"/>
+      <c r="F709" s="33"/>
     </row>
     <row r="710">
-      <c r="F710" s="19"/>
+      <c r="F710" s="33"/>
     </row>
     <row r="711">
-      <c r="F711" s="19"/>
+      <c r="F711" s="33"/>
     </row>
     <row r="712">
-      <c r="F712" s="19"/>
+      <c r="F712" s="33"/>
     </row>
     <row r="713">
-      <c r="F713" s="19"/>
+      <c r="F713" s="33"/>
     </row>
     <row r="714">
-      <c r="F714" s="19"/>
+      <c r="F714" s="33"/>
     </row>
     <row r="715">
-      <c r="F715" s="19"/>
+      <c r="F715" s="33"/>
     </row>
     <row r="716">
-      <c r="F716" s="19"/>
+      <c r="F716" s="33"/>
     </row>
     <row r="717">
-      <c r="F717" s="19"/>
+      <c r="F717" s="33"/>
     </row>
     <row r="718">
-      <c r="F718" s="19"/>
+      <c r="F718" s="33"/>
     </row>
     <row r="719">
-      <c r="F719" s="19"/>
+      <c r="F719" s="33"/>
     </row>
     <row r="720">
-      <c r="F720" s="19"/>
+      <c r="F720" s="33"/>
     </row>
     <row r="721">
-      <c r="F721" s="19"/>
+      <c r="F721" s="33"/>
     </row>
     <row r="722">
-      <c r="F722" s="19"/>
+      <c r="F722" s="33"/>
     </row>
     <row r="723">
-      <c r="F723" s="19"/>
+      <c r="F723" s="33"/>
     </row>
     <row r="724">
-      <c r="F724" s="19"/>
+      <c r="F724" s="33"/>
     </row>
     <row r="725">
-      <c r="F725" s="19"/>
+      <c r="F725" s="33"/>
     </row>
     <row r="726">
-      <c r="F726" s="19"/>
+      <c r="F726" s="33"/>
     </row>
     <row r="727">
-      <c r="F727" s="19"/>
+      <c r="F727" s="33"/>
     </row>
     <row r="728">
-      <c r="F728" s="19"/>
+      <c r="F728" s="33"/>
     </row>
     <row r="729">
-      <c r="F729" s="19"/>
+      <c r="F729" s="33"/>
     </row>
     <row r="730">
-      <c r="F730" s="19"/>
+      <c r="F730" s="33"/>
     </row>
     <row r="731">
-      <c r="F731" s="19"/>
+      <c r="F731" s="33"/>
     </row>
     <row r="732">
-      <c r="F732" s="19"/>
+      <c r="F732" s="33"/>
     </row>
     <row r="733">
-      <c r="F733" s="19"/>
+      <c r="F733" s="33"/>
     </row>
     <row r="734">
-      <c r="F734" s="19"/>
+      <c r="F734" s="33"/>
     </row>
     <row r="735">
-      <c r="F735" s="19"/>
+      <c r="F735" s="33"/>
     </row>
     <row r="736">
-      <c r="F736" s="19"/>
+      <c r="F736" s="33"/>
     </row>
     <row r="737">
-      <c r="F737" s="19"/>
+      <c r="F737" s="33"/>
     </row>
     <row r="738">
-      <c r="F738" s="19"/>
+      <c r="F738" s="33"/>
     </row>
     <row r="739">
-      <c r="F739" s="19"/>
+      <c r="F739" s="33"/>
     </row>
     <row r="740">
-      <c r="F740" s="19"/>
+      <c r="F740" s="33"/>
     </row>
     <row r="741">
-      <c r="F741" s="19"/>
+      <c r="F741" s="33"/>
     </row>
     <row r="742">
-      <c r="F742" s="19"/>
+      <c r="F742" s="33"/>
     </row>
     <row r="743">
-      <c r="F743" s="19"/>
+      <c r="F743" s="33"/>
     </row>
     <row r="744">
-      <c r="F744" s="19"/>
+      <c r="F744" s="33"/>
     </row>
     <row r="745">
-      <c r="F745" s="19"/>
+      <c r="F745" s="33"/>
     </row>
     <row r="746">
-      <c r="F746" s="19"/>
+      <c r="F746" s="33"/>
     </row>
     <row r="747">
-      <c r="F747" s="19"/>
+      <c r="F747" s="33"/>
     </row>
     <row r="748">
-      <c r="F748" s="19"/>
+      <c r="F748" s="33"/>
     </row>
     <row r="749">
-      <c r="F749" s="19"/>
+      <c r="F749" s="33"/>
     </row>
     <row r="750">
-      <c r="F750" s="19"/>
+      <c r="F750" s="33"/>
     </row>
     <row r="751">
-      <c r="F751" s="19"/>
+      <c r="F751" s="33"/>
     </row>
     <row r="752">
-      <c r="F752" s="19"/>
+      <c r="F752" s="33"/>
     </row>
     <row r="753">
-      <c r="F753" s="19"/>
+      <c r="F753" s="33"/>
     </row>
     <row r="754">
-      <c r="F754" s="19"/>
+      <c r="F754" s="33"/>
     </row>
     <row r="755">
-      <c r="F755" s="19"/>
+      <c r="F755" s="33"/>
     </row>
     <row r="756">
-      <c r="F756" s="19"/>
+      <c r="F756" s="33"/>
     </row>
     <row r="757">
-      <c r="F757" s="19"/>
+      <c r="F757" s="33"/>
     </row>
     <row r="758">
-      <c r="F758" s="19"/>
+      <c r="F758" s="33"/>
     </row>
     <row r="759">
-      <c r="F759" s="19"/>
+      <c r="F759" s="33"/>
     </row>
     <row r="760">
-      <c r="F760" s="19"/>
+      <c r="F760" s="33"/>
     </row>
     <row r="761">
-      <c r="F761" s="19"/>
+      <c r="F761" s="33"/>
     </row>
     <row r="762">
-      <c r="F762" s="19"/>
+      <c r="F762" s="33"/>
     </row>
     <row r="763">
-      <c r="F763" s="19"/>
+      <c r="F763" s="33"/>
     </row>
     <row r="764">
-      <c r="F764" s="19"/>
+      <c r="F764" s="33"/>
     </row>
     <row r="765">
-      <c r="F765" s="19"/>
+      <c r="F765" s="33"/>
     </row>
     <row r="766">
-      <c r="F766" s="19"/>
+      <c r="F766" s="33"/>
     </row>
     <row r="767">
-      <c r="F767" s="19"/>
+      <c r="F767" s="33"/>
     </row>
     <row r="768">
-      <c r="F768" s="19"/>
+      <c r="F768" s="33"/>
     </row>
     <row r="769">
-      <c r="F769" s="19"/>
+      <c r="F769" s="33"/>
     </row>
     <row r="770">
-      <c r="F770" s="19"/>
+      <c r="F770" s="33"/>
     </row>
     <row r="771">
-      <c r="F771" s="19"/>
+      <c r="F771" s="33"/>
     </row>
     <row r="772">
-      <c r="F772" s="19"/>
+      <c r="F772" s="33"/>
     </row>
     <row r="773">
-      <c r="F773" s="19"/>
+      <c r="F773" s="33"/>
     </row>
     <row r="774">
-      <c r="F774" s="19"/>
+      <c r="F774" s="33"/>
     </row>
     <row r="775">
-      <c r="F775" s="19"/>
+      <c r="F775" s="33"/>
     </row>
     <row r="776">
-      <c r="F776" s="19"/>
+      <c r="F776" s="33"/>
     </row>
     <row r="777">
-      <c r="F777" s="19"/>
+      <c r="F777" s="33"/>
     </row>
     <row r="778">
-      <c r="F778" s="19"/>
+      <c r="F778" s="33"/>
     </row>
     <row r="779">
-      <c r="F779" s="19"/>
+      <c r="F779" s="33"/>
     </row>
     <row r="780">
-      <c r="F780" s="19"/>
+      <c r="F780" s="33"/>
     </row>
     <row r="781">
-      <c r="F781" s="19"/>
+      <c r="F781" s="33"/>
     </row>
     <row r="782">
-      <c r="F782" s="19"/>
+      <c r="F782" s="33"/>
     </row>
     <row r="783">
-      <c r="F783" s="19"/>
+      <c r="F783" s="33"/>
     </row>
     <row r="784">
-      <c r="F784" s="19"/>
+      <c r="F784" s="33"/>
     </row>
     <row r="785">
-      <c r="F785" s="19"/>
+      <c r="F785" s="33"/>
     </row>
     <row r="786">
-      <c r="F786" s="19"/>
+      <c r="F786" s="33"/>
     </row>
     <row r="787">
-      <c r="F787" s="19"/>
+      <c r="F787" s="33"/>
     </row>
     <row r="788">
-      <c r="F788" s="19"/>
+      <c r="F788" s="33"/>
     </row>
     <row r="789">
-      <c r="F789" s="19"/>
+      <c r="F789" s="33"/>
     </row>
     <row r="790">
-      <c r="F790" s="19"/>
+      <c r="F790" s="33"/>
     </row>
     <row r="791">
-      <c r="F791" s="19"/>
+      <c r="F791" s="33"/>
     </row>
     <row r="792">
-      <c r="F792" s="19"/>
+      <c r="F792" s="33"/>
     </row>
     <row r="793">
-      <c r="F793" s="19"/>
+      <c r="F793" s="33"/>
     </row>
     <row r="794">
-      <c r="F794" s="19"/>
+      <c r="F794" s="33"/>
     </row>
     <row r="795">
-      <c r="F795" s="19"/>
+      <c r="F795" s="33"/>
     </row>
     <row r="796">
-      <c r="F796" s="19"/>
+      <c r="F796" s="33"/>
     </row>
     <row r="797">
-      <c r="F797" s="19"/>
+      <c r="F797" s="33"/>
     </row>
     <row r="798">
-      <c r="F798" s="19"/>
+      <c r="F798" s="33"/>
     </row>
     <row r="799">
-      <c r="F799" s="19"/>
+      <c r="F799" s="33"/>
     </row>
     <row r="800">
-      <c r="F800" s="19"/>
+      <c r="F800" s="33"/>
     </row>
     <row r="801">
-      <c r="F801" s="19"/>
+      <c r="F801" s="33"/>
     </row>
     <row r="802">
-      <c r="F802" s="19"/>
+      <c r="F802" s="33"/>
     </row>
     <row r="803">
-      <c r="F803" s="19"/>
+      <c r="F803" s="33"/>
     </row>
     <row r="804">
-      <c r="F804" s="19"/>
+      <c r="F804" s="33"/>
     </row>
     <row r="805">
-      <c r="F805" s="19"/>
+      <c r="F805" s="33"/>
     </row>
     <row r="806">
-      <c r="F806" s="19"/>
+      <c r="F806" s="33"/>
     </row>
     <row r="807">
-      <c r="F807" s="19"/>
+      <c r="F807" s="33"/>
     </row>
     <row r="808">
-      <c r="F808" s="19"/>
+      <c r="F808" s="33"/>
     </row>
     <row r="809">
-      <c r="F809" s="19"/>
+      <c r="F809" s="33"/>
     </row>
     <row r="810">
-      <c r="F810" s="19"/>
+      <c r="F810" s="33"/>
     </row>
     <row r="811">
-      <c r="F811" s="19"/>
+      <c r="F811" s="33"/>
     </row>
     <row r="812">
-      <c r="F812" s="19"/>
+      <c r="F812" s="33"/>
     </row>
     <row r="813">
-      <c r="F813" s="19"/>
+      <c r="F813" s="33"/>
     </row>
     <row r="814">
-      <c r="F814" s="19"/>
+      <c r="F814" s="33"/>
     </row>
     <row r="815">
-      <c r="F815" s="19"/>
+      <c r="F815" s="33"/>
     </row>
     <row r="816">
-      <c r="F816" s="19"/>
+      <c r="F816" s="33"/>
     </row>
     <row r="817">
-      <c r="F817" s="19"/>
+      <c r="F817" s="33"/>
     </row>
     <row r="818">
-      <c r="F818" s="19"/>
+      <c r="F818" s="33"/>
     </row>
     <row r="819">
-      <c r="F819" s="19"/>
+      <c r="F819" s="33"/>
     </row>
     <row r="820">
-      <c r="F820" s="19"/>
+      <c r="F820" s="33"/>
     </row>
     <row r="821">
-      <c r="F821" s="19"/>
+      <c r="F821" s="33"/>
     </row>
     <row r="822">
-      <c r="F822" s="19"/>
+      <c r="F822" s="33"/>
     </row>
     <row r="823">
-      <c r="F823" s="19"/>
+      <c r="F823" s="33"/>
     </row>
     <row r="824">
-      <c r="F824" s="19"/>
+      <c r="F824" s="33"/>
     </row>
     <row r="825">
-      <c r="F825" s="19"/>
+      <c r="F825" s="33"/>
     </row>
     <row r="826">
-      <c r="F826" s="19"/>
+      <c r="F826" s="33"/>
     </row>
     <row r="827">
-      <c r="F827" s="19"/>
+      <c r="F827" s="33"/>
     </row>
     <row r="828">
-      <c r="F828" s="19"/>
+      <c r="F828" s="33"/>
     </row>
     <row r="829">
-      <c r="F829" s="19"/>
+      <c r="F829" s="33"/>
     </row>
     <row r="830">
-      <c r="F830" s="19"/>
+      <c r="F830" s="33"/>
     </row>
     <row r="831">
-      <c r="F831" s="19"/>
+      <c r="F831" s="33"/>
     </row>
     <row r="832">
-      <c r="F832" s="19"/>
+      <c r="F832" s="33"/>
     </row>
     <row r="833">
-      <c r="F833" s="19"/>
+      <c r="F833" s="33"/>
     </row>
     <row r="834">
-      <c r="F834" s="19"/>
+      <c r="F834" s="33"/>
     </row>
     <row r="835">
-      <c r="F835" s="19"/>
+      <c r="F835" s="33"/>
     </row>
     <row r="836">
-      <c r="F836" s="19"/>
+      <c r="F836" s="33"/>
     </row>
     <row r="837">
-      <c r="F837" s="19"/>
+      <c r="F837" s="33"/>
     </row>
     <row r="838">
-      <c r="F838" s="19"/>
+      <c r="F838" s="33"/>
     </row>
     <row r="839">
-      <c r="F839" s="19"/>
+      <c r="F839" s="33"/>
     </row>
     <row r="840">
-      <c r="F840" s="19"/>
+      <c r="F840" s="33"/>
     </row>
     <row r="841">
-      <c r="F841" s="19"/>
+      <c r="F841" s="33"/>
     </row>
     <row r="842">
-      <c r="F842" s="19"/>
+      <c r="F842" s="33"/>
     </row>
     <row r="843">
-      <c r="F843" s="19"/>
+      <c r="F843" s="33"/>
     </row>
     <row r="844">
-      <c r="F844" s="19"/>
+      <c r="F844" s="33"/>
     </row>
     <row r="845">
-      <c r="F845" s="19"/>
+      <c r="F845" s="33"/>
     </row>
     <row r="846">
-      <c r="F846" s="19"/>
+      <c r="F846" s="33"/>
     </row>
     <row r="847">
-      <c r="F847" s="19"/>
+      <c r="F847" s="33"/>
     </row>
     <row r="848">
-      <c r="F848" s="19"/>
+      <c r="F848" s="33"/>
     </row>
     <row r="849">
-      <c r="F849" s="19"/>
+      <c r="F849" s="33"/>
     </row>
     <row r="850">
-      <c r="F850" s="19"/>
+      <c r="F850" s="33"/>
     </row>
     <row r="851">
-      <c r="F851" s="19"/>
+      <c r="F851" s="33"/>
     </row>
     <row r="852">
-      <c r="F852" s="19"/>
+      <c r="F852" s="33"/>
     </row>
     <row r="853">
-      <c r="F853" s="19"/>
+      <c r="F853" s="33"/>
     </row>
     <row r="854">
-      <c r="F854" s="19"/>
+      <c r="F854" s="33"/>
     </row>
     <row r="855">
-      <c r="F855" s="19"/>
+      <c r="F855" s="33"/>
     </row>
     <row r="856">
-      <c r="F856" s="19"/>
+      <c r="F856" s="33"/>
     </row>
     <row r="857">
-      <c r="F857" s="19"/>
+      <c r="F857" s="33"/>
     </row>
     <row r="858">
-      <c r="F858" s="19"/>
+      <c r="F858" s="33"/>
     </row>
     <row r="859">
-      <c r="F859" s="19"/>
+      <c r="F859" s="33"/>
     </row>
     <row r="860">
-      <c r="F860" s="19"/>
+      <c r="F860" s="33"/>
     </row>
     <row r="861">
-      <c r="F861" s="19"/>
+      <c r="F861" s="33"/>
     </row>
     <row r="862">
-      <c r="F862" s="19"/>
+      <c r="F862" s="33"/>
     </row>
     <row r="863">
-      <c r="F863" s="19"/>
+      <c r="F863" s="33"/>
     </row>
     <row r="864">
-      <c r="F864" s="19"/>
+      <c r="F864" s="33"/>
     </row>
     <row r="865">
-      <c r="F865" s="19"/>
+      <c r="F865" s="33"/>
     </row>
     <row r="866">
-      <c r="F866" s="19"/>
+      <c r="F866" s="33"/>
     </row>
     <row r="867">
-      <c r="F867" s="19"/>
+      <c r="F867" s="33"/>
     </row>
     <row r="868">
-      <c r="F868" s="19"/>
+      <c r="F868" s="33"/>
     </row>
     <row r="869">
-      <c r="F869" s="19"/>
+      <c r="F869" s="33"/>
     </row>
     <row r="870">
-      <c r="F870" s="19"/>
+      <c r="F870" s="33"/>
     </row>
     <row r="871">
-      <c r="F871" s="19"/>
+      <c r="F871" s="33"/>
     </row>
     <row r="872">
-      <c r="F872" s="19"/>
+      <c r="F872" s="33"/>
     </row>
     <row r="873">
-      <c r="F873" s="19"/>
+      <c r="F873" s="33"/>
     </row>
     <row r="874">
-      <c r="F874" s="19"/>
+      <c r="F874" s="33"/>
     </row>
     <row r="875">
-      <c r="F875" s="19"/>
+      <c r="F875" s="33"/>
     </row>
     <row r="876">
-      <c r="F876" s="19"/>
+      <c r="F876" s="33"/>
     </row>
     <row r="877">
-      <c r="F877" s="19"/>
+      <c r="F877" s="33"/>
     </row>
     <row r="878">
-      <c r="F878" s="19"/>
+      <c r="F878" s="33"/>
     </row>
     <row r="879">
-      <c r="F879" s="19"/>
+      <c r="F879" s="33"/>
     </row>
     <row r="880">
-      <c r="F880" s="19"/>
+      <c r="F880" s="33"/>
     </row>
     <row r="881">
-      <c r="F881" s="19"/>
+      <c r="F881" s="33"/>
     </row>
     <row r="882">
-      <c r="F882" s="19"/>
+      <c r="F882" s="33"/>
     </row>
     <row r="883">
-      <c r="F883" s="19"/>
+      <c r="F883" s="33"/>
     </row>
     <row r="884">
-      <c r="F884" s="19"/>
+      <c r="F884" s="33"/>
     </row>
     <row r="885">
-      <c r="F885" s="19"/>
+      <c r="F885" s="33"/>
     </row>
     <row r="886">
-      <c r="F886" s="19"/>
+      <c r="F886" s="33"/>
     </row>
     <row r="887">
-      <c r="F887" s="19"/>
+      <c r="F887" s="33"/>
     </row>
     <row r="888">
-      <c r="F888" s="19"/>
+      <c r="F888" s="33"/>
     </row>
     <row r="889">
-      <c r="F889" s="19"/>
+      <c r="F889" s="33"/>
     </row>
     <row r="890">
-      <c r="F890" s="19"/>
+      <c r="F890" s="33"/>
     </row>
     <row r="891">
-      <c r="F891" s="19"/>
+      <c r="F891" s="33"/>
     </row>
     <row r="892">
-      <c r="F892" s="19"/>
+      <c r="F892" s="33"/>
     </row>
     <row r="893">
-      <c r="F893" s="19"/>
+      <c r="F893" s="33"/>
     </row>
     <row r="894">
-      <c r="F894" s="19"/>
+      <c r="F894" s="33"/>
     </row>
     <row r="895">
-      <c r="F895" s="19"/>
+      <c r="F895" s="33"/>
     </row>
     <row r="896">
-      <c r="F896" s="19"/>
+      <c r="F896" s="33"/>
     </row>
     <row r="897">
-      <c r="F897" s="19"/>
+      <c r="F897" s="33"/>
     </row>
     <row r="898">
-      <c r="F898" s="19"/>
+      <c r="F898" s="33"/>
     </row>
     <row r="899">
-      <c r="F899" s="19"/>
+      <c r="F899" s="33"/>
     </row>
     <row r="900">
-      <c r="F900" s="19"/>
+      <c r="F900" s="33"/>
     </row>
     <row r="901">
-      <c r="F901" s="19"/>
+      <c r="F901" s="33"/>
     </row>
     <row r="902">
-      <c r="F902" s="19"/>
+      <c r="F902" s="33"/>
     </row>
     <row r="903">
-      <c r="F903" s="19"/>
+      <c r="F903" s="33"/>
     </row>
     <row r="904">
-      <c r="F904" s="19"/>
+      <c r="F904" s="33"/>
     </row>
     <row r="905">
-      <c r="F905" s="19"/>
+      <c r="F905" s="33"/>
     </row>
     <row r="906">
-      <c r="F906" s="19"/>
+      <c r="F906" s="33"/>
     </row>
     <row r="907">
-      <c r="F907" s="19"/>
+      <c r="F907" s="33"/>
     </row>
     <row r="908">
-      <c r="F908" s="19"/>
+      <c r="F908" s="33"/>
     </row>
     <row r="909">
-      <c r="F909" s="19"/>
+      <c r="F909" s="33"/>
     </row>
     <row r="910">
-      <c r="F910" s="19"/>
+      <c r="F910" s="33"/>
     </row>
     <row r="911">
-      <c r="F911" s="19"/>
+      <c r="F911" s="33"/>
     </row>
     <row r="912">
-      <c r="F912" s="19"/>
+      <c r="F912" s="33"/>
     </row>
     <row r="913">
-      <c r="F913" s="19"/>
+      <c r="F913" s="33"/>
     </row>
     <row r="914">
-      <c r="F914" s="19"/>
+      <c r="F914" s="33"/>
     </row>
     <row r="915">
-      <c r="F915" s="19"/>
+      <c r="F915" s="33"/>
     </row>
     <row r="916">
-      <c r="F916" s="19"/>
+      <c r="F916" s="33"/>
     </row>
     <row r="917">
-      <c r="F917" s="19"/>
+      <c r="F917" s="33"/>
     </row>
     <row r="918">
-      <c r="F918" s="19"/>
+      <c r="F918" s="33"/>
     </row>
     <row r="919">
-      <c r="F919" s="19"/>
+      <c r="F919" s="33"/>
     </row>
     <row r="920">
-      <c r="F920" s="19"/>
+      <c r="F920" s="33"/>
     </row>
     <row r="921">
-      <c r="F921" s="19"/>
+      <c r="F921" s="33"/>
     </row>
     <row r="922">
-      <c r="F922" s="19"/>
+      <c r="F922" s="33"/>
     </row>
     <row r="923">
-      <c r="F923" s="19"/>
+      <c r="F923" s="33"/>
     </row>
     <row r="924">
-      <c r="F924" s="19"/>
+      <c r="F924" s="33"/>
     </row>
     <row r="925">
-      <c r="F925" s="19"/>
+      <c r="F925" s="33"/>
     </row>
     <row r="926">
-      <c r="F926" s="19"/>
+      <c r="F926" s="33"/>
     </row>
     <row r="927">
-      <c r="F927" s="19"/>
+      <c r="F927" s="33"/>
     </row>
     <row r="928">
-      <c r="F928" s="19"/>
+      <c r="F928" s="33"/>
     </row>
     <row r="929">
-      <c r="F929" s="19"/>
+      <c r="F929" s="33"/>
     </row>
     <row r="930">
-      <c r="F930" s="19"/>
+      <c r="F930" s="33"/>
     </row>
     <row r="931">
-      <c r="F931" s="19"/>
+      <c r="F931" s="33"/>
     </row>
     <row r="932">
-      <c r="F932" s="19"/>
+      <c r="F932" s="33"/>
     </row>
     <row r="933">
-      <c r="F933" s="19"/>
+      <c r="F933" s="33"/>
     </row>
     <row r="934">
-      <c r="F934" s="19"/>
+      <c r="F934" s="33"/>
     </row>
     <row r="935">
-      <c r="F935" s="19"/>
+      <c r="F935" s="33"/>
     </row>
     <row r="936">
-      <c r="F936" s="19"/>
+      <c r="F936" s="33"/>
     </row>
     <row r="937">
-      <c r="F937" s="19"/>
+      <c r="F937" s="33"/>
     </row>
     <row r="938">
-      <c r="F938" s="19"/>
+      <c r="F938" s="33"/>
     </row>
     <row r="939">
-      <c r="F939" s="19"/>
+      <c r="F939" s="33"/>
     </row>
     <row r="940">
-      <c r="F940" s="19"/>
+      <c r="F940" s="33"/>
     </row>
     <row r="941">
-      <c r="F941" s="19"/>
+      <c r="F941" s="33"/>
     </row>
     <row r="942">
-      <c r="F942" s="19"/>
+      <c r="F942" s="33"/>
     </row>
     <row r="943">
-      <c r="F943" s="19"/>
+      <c r="F943" s="33"/>
     </row>
     <row r="944">
-      <c r="F944" s="19"/>
+      <c r="F944" s="33"/>
     </row>
     <row r="945">
-      <c r="F945" s="19"/>
+      <c r="F945" s="33"/>
     </row>
     <row r="946">
-      <c r="F946" s="19"/>
+      <c r="F946" s="33"/>
     </row>
     <row r="947">
-      <c r="F947" s="19"/>
+      <c r="F947" s="33"/>
     </row>
     <row r="948">
-      <c r="F948" s="19"/>
+      <c r="F948" s="33"/>
     </row>
     <row r="949">
-      <c r="F949" s="19"/>
+      <c r="F949" s="33"/>
     </row>
     <row r="950">
-      <c r="F950" s="19"/>
+      <c r="F950" s="33"/>
     </row>
     <row r="951">
-      <c r="F951" s="19"/>
+      <c r="F951" s="33"/>
     </row>
     <row r="952">
-      <c r="F952" s="19"/>
+      <c r="F952" s="33"/>
     </row>
     <row r="953">
-      <c r="F953" s="19"/>
+      <c r="F953" s="33"/>
     </row>
     <row r="954">
-      <c r="F954" s="19"/>
+      <c r="F954" s="33"/>
     </row>
     <row r="955">
-      <c r="F955" s="19"/>
+      <c r="F955" s="33"/>
     </row>
     <row r="956">
-      <c r="F956" s="19"/>
+      <c r="F956" s="33"/>
     </row>
     <row r="957">
-      <c r="F957" s="19"/>
+      <c r="F957" s="33"/>
     </row>
     <row r="958">
-      <c r="F958" s="19"/>
+      <c r="F958" s="33"/>
     </row>
     <row r="959">
-      <c r="F959" s="19"/>
+      <c r="F959" s="33"/>
     </row>
     <row r="960">
-      <c r="F960" s="19"/>
+      <c r="F960" s="33"/>
     </row>
     <row r="961">
-      <c r="F961" s="19"/>
+      <c r="F961" s="33"/>
     </row>
     <row r="962">
-      <c r="F962" s="19"/>
+      <c r="F962" s="33"/>
     </row>
     <row r="963">
-      <c r="F963" s="19"/>
+      <c r="F963" s="33"/>
     </row>
     <row r="964">
-      <c r="F964" s="19"/>
+      <c r="F964" s="33"/>
     </row>
     <row r="965">
-      <c r="F965" s="19"/>
+      <c r="F965" s="33"/>
     </row>
     <row r="966">
-      <c r="F966" s="19"/>
+      <c r="F966" s="33"/>
     </row>
     <row r="967">
-      <c r="F967" s="19"/>
+      <c r="F967" s="33"/>
     </row>
     <row r="968">
-      <c r="F968" s="19"/>
+      <c r="F968" s="33"/>
     </row>
     <row r="969">
-      <c r="F969" s="19"/>
+      <c r="F969" s="33"/>
     </row>
     <row r="970">
-      <c r="F970" s="19"/>
+      <c r="F970" s="33"/>
     </row>
     <row r="971">
-      <c r="F971" s="19"/>
+      <c r="F971" s="33"/>
     </row>
     <row r="972">
-      <c r="F972" s="19"/>
+      <c r="F972" s="33"/>
     </row>
     <row r="973">
-      <c r="F973" s="19"/>
+      <c r="F973" s="33"/>
     </row>
     <row r="974">
-      <c r="F974" s="19"/>
+      <c r="F974" s="33"/>
     </row>
     <row r="975">
-      <c r="F975" s="19"/>
+      <c r="F975" s="33"/>
     </row>
     <row r="976">
-      <c r="F976" s="19"/>
+      <c r="F976" s="33"/>
     </row>
     <row r="977">
-      <c r="F977" s="19"/>
+      <c r="F977" s="33"/>
     </row>
     <row r="978">
-      <c r="F978" s="19"/>
+      <c r="F978" s="33"/>
     </row>
     <row r="979">
-      <c r="F979" s="19"/>
+      <c r="F979" s="33"/>
     </row>
     <row r="980">
-      <c r="F980" s="19"/>
+      <c r="F980" s="33"/>
     </row>
     <row r="981">
-      <c r="F981" s="19"/>
+      <c r="F981" s="33"/>
     </row>
     <row r="982">
-      <c r="F982" s="19"/>
+      <c r="F982" s="33"/>
     </row>
     <row r="983">
-      <c r="F983" s="19"/>
+      <c r="F983" s="33"/>
     </row>
     <row r="984">
-      <c r="F984" s="19"/>
+      <c r="F984" s="33"/>
     </row>
     <row r="985">
-      <c r="F985" s="19"/>
+      <c r="F985" s="33"/>
     </row>
     <row r="986">
-      <c r="F986" s="19"/>
+      <c r="F986" s="33"/>
     </row>
     <row r="987">
-      <c r="F987" s="19"/>
+      <c r="F987" s="33"/>
     </row>
     <row r="988">
-      <c r="F988" s="19"/>
+      <c r="F988" s="33"/>
     </row>
     <row r="989">
-      <c r="F989" s="19"/>
+      <c r="F989" s="33"/>
     </row>
     <row r="990">
-      <c r="F990" s="19"/>
+      <c r="F990" s="33"/>
     </row>
     <row r="991">
-      <c r="F991" s="19"/>
+      <c r="F991" s="33"/>
     </row>
     <row r="992">
-      <c r="F992" s="19"/>
+      <c r="F992" s="33"/>
     </row>
     <row r="993">
-      <c r="F993" s="19"/>
+      <c r="F993" s="33"/>
     </row>
     <row r="994">
-      <c r="F994" s="19"/>
+      <c r="F994" s="33"/>
     </row>
     <row r="995">
-      <c r="F995" s="19"/>
+      <c r="F995" s="33"/>
     </row>
     <row r="996">
-      <c r="F996" s="19"/>
+      <c r="F996" s="33"/>
     </row>
     <row r="997">
-      <c r="F997" s="19"/>
+      <c r="F997" s="33"/>
     </row>
     <row r="998">
-      <c r="F998" s="19"/>
+      <c r="F998" s="33"/>
     </row>
     <row r="999">
-      <c r="F999" s="19"/>
+      <c r="F999" s="33"/>
     </row>
     <row r="1000">
-      <c r="F1000" s="19"/>
+      <c r="F1000" s="33"/>
     </row>
     <row r="1001">
-      <c r="F1001" s="19"/>
+      <c r="F1001" s="33"/>
+    </row>
+    <row r="1002">
+      <c r="F1002" s="33"/>
+    </row>
+    <row r="1003">
+      <c r="F1003" s="33"/>
+    </row>
+    <row r="1004">
+      <c r="F1004" s="33"/>
+    </row>
+    <row r="1005">
+      <c r="F1005" s="33"/>
+    </row>
+    <row r="1006">
+      <c r="F1006" s="33"/>
+    </row>
+    <row r="1007">
+      <c r="F1007" s="33"/>
+    </row>
+    <row r="1008">
+      <c r="F1008" s="33"/>
+    </row>
+    <row r="1009">
+      <c r="F1009" s="33"/>
+    </row>
+    <row r="1010">
+      <c r="F1010" s="33"/>
+    </row>
+    <row r="1011">
+      <c r="F1011" s="33"/>
+    </row>
+    <row r="1012">
+      <c r="F1012" s="33"/>
+    </row>
+    <row r="1013">
+      <c r="F1013" s="33"/>
+    </row>
+    <row r="1014">
+      <c r="F1014" s="33"/>
+    </row>
+    <row r="1015">
+      <c r="F1015" s="33"/>
+    </row>
+    <row r="1016">
+      <c r="F1016" s="33"/>
+    </row>
+    <row r="1017">
+      <c r="F1017" s="33"/>
+    </row>
+    <row r="1018">
+      <c r="F1018" s="33"/>
+    </row>
+    <row r="1019">
+      <c r="F1019" s="33"/>
+    </row>
+    <row r="1020">
+      <c r="F1020" s="33"/>
+    </row>
+    <row r="1021">
+      <c r="F1021" s="33"/>
+    </row>
+    <row r="1022">
+      <c r="F1022" s="33"/>
+    </row>
+    <row r="1023">
+      <c r="F1023" s="33"/>
+    </row>
+    <row r="1024">
+      <c r="F1024" s="33"/>
+    </row>
+    <row r="1025">
+      <c r="F1025" s="33"/>
+    </row>
+    <row r="1026">
+      <c r="F1026" s="33"/>
+    </row>
+    <row r="1027">
+      <c r="F1027" s="33"/>
+    </row>
+    <row r="1028">
+      <c r="F1028" s="33"/>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <hyperlinks>
+    <hyperlink r:id="rId2" ref="G3"/>
+    <hyperlink r:id="rId3" ref="G5"/>
+    <hyperlink r:id="rId4" ref="G6"/>
+    <hyperlink r:id="rId5" ref="G7"/>
+    <hyperlink r:id="rId6" ref="G8"/>
+    <hyperlink r:id="rId7" ref="G9"/>
+    <hyperlink r:id="rId8" ref="H9"/>
+    <hyperlink r:id="rId9" ref="H16"/>
+    <hyperlink r:id="rId10" ref="H17"/>
+    <hyperlink r:id="rId11" ref="G20"/>
+    <hyperlink r:id="rId12" ref="H20"/>
+    <hyperlink r:id="rId13" ref="G22"/>
+    <hyperlink r:id="rId14" ref="G25"/>
+    <hyperlink r:id="rId15" ref="G26"/>
+    <hyperlink r:id="rId16" ref="H28"/>
+    <hyperlink r:id="rId17" ref="G30"/>
+    <hyperlink r:id="rId18" ref="G31"/>
+    <hyperlink r:id="rId19" ref="H31"/>
+    <hyperlink r:id="rId20" ref="G33"/>
+    <hyperlink r:id="rId21" ref="G35"/>
+    <hyperlink r:id="rId22" ref="G37"/>
+    <hyperlink r:id="rId23" ref="G39"/>
+    <hyperlink r:id="rId24" ref="G42"/>
+    <hyperlink r:id="rId25" ref="H42"/>
+    <hyperlink r:id="rId26" ref="G43"/>
+    <hyperlink r:id="rId27" ref="G51"/>
+    <hyperlink r:id="rId28" ref="G53"/>
+    <hyperlink r:id="rId29" ref="G55"/>
+    <hyperlink r:id="rId30" ref="H55"/>
+    <hyperlink r:id="rId31" ref="G57"/>
+    <hyperlink r:id="rId32" ref="H57"/>
+    <hyperlink r:id="rId33" ref="G58"/>
+    <hyperlink r:id="rId34" ref="G62"/>
+    <hyperlink r:id="rId35" ref="H62"/>
+    <hyperlink r:id="rId36" ref="G63"/>
+    <hyperlink r:id="rId37" ref="H64"/>
+    <hyperlink r:id="rId38" ref="G65"/>
+    <hyperlink r:id="rId39" ref="H65"/>
+    <hyperlink r:id="rId40" ref="G67"/>
+    <hyperlink r:id="rId41" ref="G70"/>
+    <hyperlink r:id="rId42" ref="G72"/>
+  </hyperlinks>
+  <drawing r:id="rId43"/>
+  <legacyDrawing r:id="rId44"/>
 </worksheet>
 </file>
--- a/lib/samples/assets/csv/institutions.xlsx
+++ b/lib/samples/assets/csv/institutions.xlsx
@@ -219,7 +219,7 @@
     <t>Department of Anti-Human Trafficking and Juvenile Protection</t>
   </si>
   <si>
-    <t>នាយកដ្ឋានប្រឆាំងការជួញដូរមនុស្ស និងការពារ អនីតិជន</t>
+    <t>នាយកដ្ឋានប្រឆាំងការជួញដូរមនុស្ស និងការពារអនីតិជន</t>
   </si>
   <si>
     <t>1288</t>
@@ -974,7 +974,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="17">
+  <fonts count="14">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -994,13 +994,9 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
     </font>
     <font>
       <sz val="9.0"/>
@@ -1022,14 +1018,6 @@
       <color rgb="FF1155CC"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
       <color rgb="FF000000"/>
       <name val="Battambang"/>
     </font>
@@ -1048,6 +1036,11 @@
       <u/>
       <sz val="10.0"/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1076,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1098,80 +1091,62 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="14" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1624,29 +1599,29 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1655,22 +1630,22 @@
       <c r="C3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="13" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1682,17 +1657,17 @@
       <c r="D4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="15" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1704,43 +1679,43 @@
       <c r="D5" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="15" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>71</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="2"/>
+      <c r="F6" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
     </row>
     <row r="7">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1752,91 +1727,91 @@
       <c r="D7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
     </row>
     <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>81</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
     </row>
     <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="2"/>
+      <c r="F9" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="21" t="s">
+      <c r="E10" s="2"/>
+      <c r="F10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
     </row>
     <row r="11">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1848,77 +1823,77 @@
       <c r="D11" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="22" t="s">
+      <c r="E11" s="2"/>
+      <c r="F11" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="3" t="s">
         <v>96</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="22" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="22" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
     </row>
     <row r="14">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="17" t="s">
         <v>103</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
     </row>
     <row r="15">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -1927,44 +1902,44 @@
       <c r="C15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="25" t="s">
+      <c r="E15" s="2"/>
+      <c r="F15" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
     </row>
     <row r="16">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="18" t="s">
         <v>111</v>
       </c>
       <c r="E16" s="2"/>
-      <c r="F16" s="26" t="s">
+      <c r="F16" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="18" t="s">
+      <c r="G16" s="9"/>
+      <c r="H16" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
     </row>
     <row r="17">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -1976,41 +1951,41 @@
       <c r="D17" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="15" t="s">
+      <c r="E17" s="2"/>
+      <c r="F17" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="16" t="s">
+      <c r="G17" s="9"/>
+      <c r="H17" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
     </row>
     <row r="18">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="21" t="s">
+      <c r="E18" s="2"/>
+      <c r="F18" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -2022,17 +1997,17 @@
       <c r="D19" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
     </row>
     <row r="20">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2044,21 +2019,21 @@
       <c r="D20" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="G20" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="H20" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
     </row>
     <row r="21">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -2067,64 +2042,64 @@
       <c r="C21" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="2"/>
+      <c r="F21" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
     </row>
     <row r="22">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="2"/>
+      <c r="F22" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="21" t="s">
+      <c r="E23" s="2"/>
+      <c r="F23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="G23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
     </row>
     <row r="24">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -2133,70 +2108,70 @@
       <c r="C24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="22" t="s">
+      <c r="E24" s="2"/>
+      <c r="F24" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="G24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
     </row>
     <row r="25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
     </row>
     <row r="26">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="4" t="s">
         <v>149</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="2"/>
+      <c r="F26" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G26" s="18" t="s">
+      <c r="G26" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
     </row>
     <row r="27">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C27" s="4" t="s">
@@ -2206,62 +2181,62 @@
         <v>155</v>
       </c>
       <c r="E27" s="2"/>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="11" t="s">
         <v>156</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
     </row>
     <row r="28">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="18" t="s">
         <v>158</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="11" t="s">
         <v>160</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="18" t="s">
+      <c r="H28" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
     </row>
     <row r="29">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="21" t="s">
+      <c r="E29" s="2"/>
+      <c r="F29" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G29" s="27"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
     </row>
     <row r="30">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -2273,19 +2248,19 @@
       <c r="D30" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="10" t="s">
+      <c r="E30" s="2"/>
+      <c r="F30" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="18" t="s">
+      <c r="G30" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
     </row>
     <row r="31">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -2297,43 +2272,43 @@
       <c r="D31" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="2"/>
+      <c r="F31" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="18" t="s">
+      <c r="G31" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="H31" s="18" t="s">
+      <c r="H31" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
     </row>
     <row r="32">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="21" t="s">
+      <c r="E32" s="2"/>
+      <c r="F32" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G32" s="28"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
     </row>
     <row r="33">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -2345,19 +2320,19 @@
       <c r="D33" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="10" t="s">
+      <c r="E33" s="2"/>
+      <c r="F33" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="23" t="s">
         <v>177</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
     </row>
     <row r="34">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -2366,20 +2341,20 @@
       <c r="C34" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="15" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
     </row>
     <row r="35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -2391,41 +2366,41 @@
       <c r="D35" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="22" t="s">
+      <c r="E35" s="2"/>
+      <c r="F35" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="G35" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
     </row>
     <row r="36">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="21" t="s">
+      <c r="E36" s="2"/>
+      <c r="F36" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G36" s="27"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
     </row>
     <row r="37">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2437,19 +2412,19 @@
       <c r="D37" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="2"/>
+      <c r="F37" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="G37" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
     </row>
     <row r="38">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -2461,17 +2436,17 @@
       <c r="D38" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="15" t="s">
+      <c r="E38" s="2"/>
+      <c r="F38" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
     </row>
     <row r="39">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="10" t="s">
         <v>28</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -2483,41 +2458,41 @@
       <c r="D39" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="15" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="G39" s="16" t="s">
+      <c r="G39" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
     </row>
     <row r="40">
-      <c r="A40" s="19" t="s">
+      <c r="A40" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="21" t="s">
+      <c r="E40" s="2"/>
+      <c r="F40" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
     </row>
     <row r="41">
-      <c r="A41" s="19" t="s">
+      <c r="A41" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B41" s="3" t="s">
@@ -2529,17 +2504,17 @@
       <c r="D41" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="10" t="s">
+      <c r="E41" s="2"/>
+      <c r="F41" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-      <c r="J41" s="11"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
     </row>
     <row r="42">
-      <c r="A42" s="19" t="s">
+      <c r="A42" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -2552,20 +2527,20 @@
         <v>125</v>
       </c>
       <c r="E42" s="2"/>
-      <c r="F42" s="13" t="s">
+      <c r="F42" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="G42" s="18" t="s">
+      <c r="G42" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="H42" s="18" t="s">
+      <c r="H42" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
     </row>
     <row r="43">
-      <c r="A43" s="19" t="s">
+      <c r="A43" s="10" t="s">
         <v>31</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2577,41 +2552,41 @@
       <c r="D43" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="13" t="s">
+      <c r="E43" s="2"/>
+      <c r="F43" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="G43" s="18" t="s">
+      <c r="G43" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-      <c r="J43" s="11"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
     </row>
     <row r="44">
-      <c r="A44" s="19" t="s">
+      <c r="A44" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="21" t="s">
+      <c r="E44" s="2"/>
+      <c r="F44" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
     </row>
     <row r="45">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>34</v>
       </c>
       <c r="B45" s="3" t="s">
@@ -2623,20 +2598,20 @@
       <c r="D45" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="10" t="s">
+      <c r="E45" s="2"/>
+      <c r="F45" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-      <c r="J45" s="11"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
     </row>
     <row r="46">
-      <c r="A46" s="12" t="s">
+      <c r="A46" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -2645,39 +2620,39 @@
       <c r="D46" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="13" t="s">
+      <c r="E46" s="2"/>
+      <c r="F46" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
     </row>
     <row r="47">
-      <c r="A47" s="19" t="s">
+      <c r="A47" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="21" t="s">
+      <c r="E47" s="2"/>
+      <c r="F47" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-      <c r="J47" s="11"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
     </row>
     <row r="48">
-      <c r="A48" s="12" t="s">
+      <c r="A48" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B48" s="3" t="s">
@@ -2689,20 +2664,20 @@
       <c r="D48" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="13" t="s">
+      <c r="E48" s="2"/>
+      <c r="F48" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
     </row>
     <row r="49">
-      <c r="A49" s="12" t="s">
+      <c r="A49" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="3" t="s">
         <v>222</v>
       </c>
       <c r="C49" s="4" t="s">
@@ -2711,20 +2686,20 @@
       <c r="D49" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E49" s="9"/>
-      <c r="F49" s="13" t="s">
+      <c r="E49" s="2"/>
+      <c r="F49" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-      <c r="J49" s="11"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
     </row>
     <row r="50">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="3" t="s">
         <v>225</v>
       </c>
       <c r="C50" s="4" t="s">
@@ -2734,62 +2709,62 @@
         <v>227</v>
       </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="13" t="s">
+      <c r="F50" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
     </row>
     <row r="51">
-      <c r="A51" s="12" t="s">
+      <c r="A51" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="3" t="s">
         <v>229</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="18" t="s">
         <v>231</v>
       </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="13" t="s">
+      <c r="F51" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="G51" s="16" t="s">
+      <c r="G51" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-      <c r="J51" s="11"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
     </row>
     <row r="52">
-      <c r="A52" s="19" t="s">
+      <c r="A52" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E52" s="9"/>
-      <c r="F52" s="21" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-      <c r="J52" s="11"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
     </row>
     <row r="53">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B53" s="3" t="s">
@@ -2801,19 +2776,19 @@
       <c r="D53" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E53" s="9"/>
-      <c r="F53" s="10" t="s">
+      <c r="E53" s="2"/>
+      <c r="F53" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="G53" s="16" t="s">
+      <c r="G53" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
     </row>
     <row r="54">
-      <c r="A54" s="12" t="s">
+      <c r="A54" s="10" t="s">
         <v>40</v>
       </c>
       <c r="B54" s="3" t="s">
@@ -2822,23 +2797,23 @@
       <c r="C54" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D54" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="E54" s="9"/>
-      <c r="F54" s="13" t="s">
+      <c r="E54" s="2"/>
+      <c r="F54" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
     </row>
     <row r="55">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="3" t="s">
         <v>241</v>
       </c>
       <c r="C55" s="4" t="s">
@@ -2847,43 +2822,43 @@
       <c r="D55" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E55" s="9"/>
-      <c r="F55" s="17" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="G55" s="16" t="s">
+      <c r="G55" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="H55" s="18" t="s">
+      <c r="H55" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
     </row>
     <row r="56">
-      <c r="A56" s="19" t="s">
+      <c r="A56" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E56" s="9"/>
-      <c r="F56" s="21" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G56" s="27"/>
+      <c r="G56" s="21"/>
       <c r="H56" s="2"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
     </row>
     <row r="57">
-      <c r="A57" s="12" t="s">
+      <c r="A57" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B57" s="3" t="s">
@@ -2895,24 +2870,24 @@
       <c r="D57" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E57" s="9"/>
-      <c r="F57" s="30" t="s">
+      <c r="E57" s="2"/>
+      <c r="F57" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="G57" s="18" t="s">
+      <c r="G57" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="H57" s="16" t="s">
+      <c r="H57" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
     </row>
     <row r="58">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="3" t="s">
         <v>254</v>
       </c>
       <c r="C58" s="4"/>
@@ -2920,18 +2895,18 @@
         <v>255</v>
       </c>
       <c r="E58" s="2"/>
-      <c r="F58" s="22" t="s">
+      <c r="F58" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="G58" s="18" t="s">
+      <c r="G58" s="15" t="s">
         <v>257</v>
       </c>
       <c r="H58" s="2"/>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
     </row>
     <row r="59">
-      <c r="A59" s="12" t="s">
+      <c r="A59" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -2943,20 +2918,20 @@
       <c r="D59" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E59" s="9"/>
-      <c r="F59" s="15" t="s">
+      <c r="E59" s="2"/>
+      <c r="F59" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-      <c r="J59" s="11"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
     </row>
     <row r="60">
-      <c r="A60" s="12" t="s">
+      <c r="A60" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="3" t="s">
         <v>260</v>
       </c>
       <c r="C60" s="4"/>
@@ -2964,16 +2939,16 @@
         <v>261</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
     </row>
     <row r="61">
-      <c r="A61" s="12" t="s">
+      <c r="A61" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B61" s="3" t="s">
@@ -2985,20 +2960,20 @@
       <c r="D61" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="15" t="s">
+      <c r="E61" s="2"/>
+      <c r="F61" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
-      <c r="J61" s="11"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
     </row>
     <row r="62">
-      <c r="A62" s="12" t="s">
+      <c r="A62" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="3" t="s">
         <v>267</v>
       </c>
       <c r="C62" s="4" t="s">
@@ -3008,20 +2983,20 @@
         <v>269</v>
       </c>
       <c r="E62" s="2"/>
-      <c r="F62" s="15" t="s">
+      <c r="F62" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="14" t="s">
         <v>271</v>
       </c>
-      <c r="H62" s="18" t="s">
+      <c r="H62" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="I62" s="11"/>
-      <c r="J62" s="11"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
     </row>
     <row r="63">
-      <c r="A63" s="12" t="s">
+      <c r="A63" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B63" s="3" t="s">
@@ -3033,22 +3008,22 @@
       <c r="D63" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E63" s="9"/>
-      <c r="F63" s="15" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="G63" s="16" t="s">
+      <c r="G63" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
     </row>
     <row r="64">
-      <c r="A64" s="12" t="s">
+      <c r="A64" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="3" t="s">
         <v>278</v>
       </c>
       <c r="C64" s="4" t="s">
@@ -3058,102 +3033,102 @@
         <v>280</v>
       </c>
       <c r="E64" s="2"/>
-      <c r="F64" s="22" t="s">
+      <c r="F64" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="G64" s="27"/>
-      <c r="H64" s="18" t="s">
+      <c r="G64" s="21"/>
+      <c r="H64" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
     </row>
     <row r="65">
-      <c r="A65" s="19" t="s">
+      <c r="A65" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D65" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="31" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="G65" s="18" t="s">
+      <c r="G65" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="H65" s="14" t="s">
+      <c r="H65" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="I65" s="19"/>
-      <c r="K65" s="8"/>
-      <c r="L65" s="20"/>
+      <c r="I65" s="10"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="4"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="13"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="14"/>
-      <c r="Q65" s="19"/>
-      <c r="S65" s="8"/>
-      <c r="T65" s="20"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="21"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="10"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="4"/>
       <c r="U65" s="2"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="18"/>
-      <c r="X65" s="14"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="21"/>
+      <c r="X65" s="25"/>
     </row>
     <row r="66">
-      <c r="A66" s="19" t="s">
+      <c r="A66" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E66" s="9"/>
-      <c r="F66" s="21" t="s">
+      <c r="E66" s="2"/>
+      <c r="F66" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G66" s="27"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
-      <c r="J66" s="11"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
     </row>
     <row r="67">
-      <c r="A67" s="19" t="s">
+      <c r="A67" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="C67" s="23" t="s">
+      <c r="C67" s="17" t="s">
         <v>287</v>
       </c>
-      <c r="D67" s="24" t="s">
+      <c r="D67" s="18" t="s">
         <v>288</v>
       </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="21" t="s">
+      <c r="F67" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G67" s="18" t="s">
+      <c r="G67" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
     </row>
     <row r="68">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B68" s="3" t="s">
@@ -3162,20 +3137,20 @@
       <c r="C68" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E68" s="9"/>
-      <c r="F68" s="10" t="s">
+      <c r="E68" s="2"/>
+      <c r="F68" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
-      <c r="J68" s="11"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
     </row>
     <row r="69">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -3184,44 +3159,44 @@
       <c r="C69" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E69" s="9"/>
-      <c r="F69" s="13" t="s">
+      <c r="E69" s="2"/>
+      <c r="F69" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
-      <c r="J69" s="11"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
     </row>
     <row r="70">
-      <c r="A70" s="19" t="s">
+      <c r="A70" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D70" s="4" t="s">
         <v>299</v>
       </c>
       <c r="E70" s="2"/>
-      <c r="F70" s="30" t="s">
+      <c r="F70" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
-      <c r="J70" s="11"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
     </row>
     <row r="71">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B71" s="3" t="s">
@@ -3230,2909 +3205,2909 @@
       <c r="C71" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D71" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="E71" s="9"/>
-      <c r="F71" s="15" t="s">
+      <c r="E71" s="2"/>
+      <c r="F71" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
-      <c r="J71" s="11"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
     </row>
     <row r="72">
-      <c r="A72" s="12" t="s">
+      <c r="A72" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C72" s="23" t="s">
+      <c r="C72" s="17" t="s">
         <v>307</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="E72" s="11"/>
-      <c r="F72" s="32" t="s">
+      <c r="E72" s="9"/>
+      <c r="F72" s="26" t="s">
         <v>309</v>
       </c>
-      <c r="G72" s="18" t="s">
+      <c r="G72" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
-      <c r="J72" s="11"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
     </row>
     <row r="73">
-      <c r="F73" s="33"/>
+      <c r="F73" s="27"/>
     </row>
     <row r="74">
-      <c r="F74" s="33"/>
+      <c r="F74" s="27"/>
     </row>
     <row r="75">
-      <c r="F75" s="33"/>
+      <c r="F75" s="27"/>
     </row>
     <row r="76">
-      <c r="F76" s="33"/>
+      <c r="F76" s="27"/>
     </row>
     <row r="77">
-      <c r="F77" s="33"/>
+      <c r="F77" s="27"/>
     </row>
     <row r="78">
-      <c r="F78" s="33"/>
+      <c r="F78" s="27"/>
     </row>
     <row r="79">
-      <c r="F79" s="33"/>
+      <c r="F79" s="27"/>
     </row>
     <row r="80">
-      <c r="F80" s="33"/>
+      <c r="F80" s="27"/>
     </row>
     <row r="81">
-      <c r="F81" s="33"/>
+      <c r="F81" s="27"/>
     </row>
     <row r="82">
-      <c r="F82" s="33"/>
+      <c r="F82" s="27"/>
     </row>
     <row r="83">
-      <c r="F83" s="33"/>
+      <c r="F83" s="27"/>
     </row>
     <row r="84">
-      <c r="F84" s="33"/>
+      <c r="F84" s="27"/>
     </row>
     <row r="85">
-      <c r="F85" s="33"/>
+      <c r="F85" s="27"/>
     </row>
     <row r="86">
-      <c r="F86" s="33"/>
+      <c r="F86" s="27"/>
     </row>
     <row r="87">
-      <c r="F87" s="33"/>
+      <c r="F87" s="27"/>
     </row>
     <row r="88">
-      <c r="F88" s="33"/>
+      <c r="F88" s="27"/>
     </row>
     <row r="89">
-      <c r="F89" s="33"/>
+      <c r="F89" s="27"/>
     </row>
     <row r="90">
-      <c r="F90" s="33"/>
+      <c r="F90" s="27"/>
     </row>
     <row r="91">
-      <c r="F91" s="33"/>
+      <c r="F91" s="27"/>
     </row>
     <row r="92">
-      <c r="F92" s="33"/>
+      <c r="F92" s="27"/>
     </row>
     <row r="93">
-      <c r="F93" s="33"/>
+      <c r="F93" s="27"/>
     </row>
     <row r="94">
-      <c r="F94" s="33"/>
+      <c r="F94" s="27"/>
     </row>
     <row r="95">
-      <c r="F95" s="33"/>
+      <c r="F95" s="27"/>
     </row>
     <row r="96">
-      <c r="F96" s="33"/>
+      <c r="F96" s="27"/>
     </row>
     <row r="97">
-      <c r="F97" s="33"/>
+      <c r="F97" s="27"/>
     </row>
     <row r="98">
-      <c r="F98" s="33"/>
+      <c r="F98" s="27"/>
     </row>
     <row r="99">
-      <c r="F99" s="33"/>
+      <c r="F99" s="27"/>
     </row>
     <row r="100">
-      <c r="F100" s="33"/>
+      <c r="F100" s="27"/>
     </row>
     <row r="101">
-      <c r="F101" s="33"/>
+      <c r="F101" s="27"/>
     </row>
     <row r="102">
-      <c r="F102" s="33"/>
+      <c r="F102" s="27"/>
     </row>
     <row r="103">
-      <c r="F103" s="33"/>
+      <c r="F103" s="27"/>
     </row>
     <row r="104">
-      <c r="F104" s="33"/>
+      <c r="F104" s="27"/>
     </row>
     <row r="105">
-      <c r="F105" s="33"/>
+      <c r="F105" s="27"/>
     </row>
     <row r="106">
-      <c r="F106" s="33"/>
+      <c r="F106" s="27"/>
     </row>
     <row r="107">
-      <c r="F107" s="33"/>
+      <c r="F107" s="27"/>
     </row>
     <row r="108">
-      <c r="F108" s="33"/>
+      <c r="F108" s="27"/>
     </row>
     <row r="109">
-      <c r="F109" s="33"/>
+      <c r="F109" s="27"/>
     </row>
     <row r="110">
-      <c r="F110" s="33"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111">
-      <c r="F111" s="33"/>
+      <c r="F111" s="27"/>
     </row>
     <row r="112">
-      <c r="F112" s="33"/>
+      <c r="F112" s="27"/>
     </row>
     <row r="113">
-      <c r="F113" s="33"/>
+      <c r="F113" s="27"/>
     </row>
     <row r="114">
-      <c r="F114" s="33"/>
+      <c r="F114" s="27"/>
     </row>
     <row r="115">
-      <c r="F115" s="33"/>
+      <c r="F115" s="27"/>
     </row>
     <row r="116">
-      <c r="F116" s="33"/>
+      <c r="F116" s="27"/>
     </row>
     <row r="117">
-      <c r="F117" s="33"/>
+      <c r="F117" s="27"/>
     </row>
     <row r="118">
-      <c r="F118" s="33"/>
+      <c r="F118" s="27"/>
     </row>
     <row r="119">
-      <c r="F119" s="33"/>
+      <c r="F119" s="27"/>
     </row>
     <row r="120">
-      <c r="F120" s="33"/>
+      <c r="F120" s="27"/>
     </row>
     <row r="121">
-      <c r="F121" s="33"/>
+      <c r="F121" s="27"/>
     </row>
     <row r="122">
-      <c r="F122" s="33"/>
+      <c r="F122" s="27"/>
     </row>
     <row r="123">
-      <c r="F123" s="33"/>
+      <c r="F123" s="27"/>
     </row>
     <row r="124">
-      <c r="F124" s="33"/>
+      <c r="F124" s="27"/>
     </row>
     <row r="125">
-      <c r="F125" s="33"/>
+      <c r="F125" s="27"/>
     </row>
     <row r="126">
-      <c r="F126" s="33"/>
+      <c r="F126" s="27"/>
     </row>
     <row r="127">
-      <c r="F127" s="33"/>
+      <c r="F127" s="27"/>
     </row>
     <row r="128">
-      <c r="F128" s="33"/>
+      <c r="F128" s="27"/>
     </row>
     <row r="129">
-      <c r="F129" s="33"/>
+      <c r="F129" s="27"/>
     </row>
     <row r="130">
-      <c r="F130" s="33"/>
+      <c r="F130" s="27"/>
     </row>
     <row r="131">
-      <c r="F131" s="33"/>
+      <c r="F131" s="27"/>
     </row>
     <row r="132">
-      <c r="F132" s="33"/>
+      <c r="F132" s="27"/>
     </row>
     <row r="133">
-      <c r="F133" s="33"/>
+      <c r="F133" s="27"/>
     </row>
     <row r="134">
-      <c r="F134" s="33"/>
+      <c r="F134" s="27"/>
     </row>
     <row r="135">
-      <c r="F135" s="33"/>
+      <c r="F135" s="27"/>
     </row>
     <row r="136">
-      <c r="F136" s="33"/>
+      <c r="F136" s="27"/>
     </row>
     <row r="137">
-      <c r="F137" s="33"/>
+      <c r="F137" s="27"/>
     </row>
     <row r="138">
-      <c r="F138" s="33"/>
+      <c r="F138" s="27"/>
     </row>
     <row r="139">
-      <c r="F139" s="33"/>
+      <c r="F139" s="27"/>
     </row>
     <row r="140">
-      <c r="F140" s="33"/>
+      <c r="F140" s="27"/>
     </row>
     <row r="141">
-      <c r="F141" s="33"/>
+      <c r="F141" s="27"/>
     </row>
     <row r="142">
-      <c r="F142" s="33"/>
+      <c r="F142" s="27"/>
     </row>
     <row r="143">
-      <c r="F143" s="33"/>
+      <c r="F143" s="27"/>
     </row>
     <row r="144">
-      <c r="F144" s="33"/>
+      <c r="F144" s="27"/>
     </row>
     <row r="145">
-      <c r="F145" s="33"/>
+      <c r="F145" s="27"/>
     </row>
     <row r="146">
-      <c r="F146" s="33"/>
+      <c r="F146" s="27"/>
     </row>
     <row r="147">
-      <c r="F147" s="33"/>
+      <c r="F147" s="27"/>
     </row>
     <row r="148">
-      <c r="F148" s="33"/>
+      <c r="F148" s="27"/>
     </row>
     <row r="149">
-      <c r="F149" s="33"/>
+      <c r="F149" s="27"/>
     </row>
     <row r="150">
-      <c r="F150" s="33"/>
+      <c r="F150" s="27"/>
     </row>
     <row r="151">
-      <c r="F151" s="33"/>
+      <c r="F151" s="27"/>
     </row>
     <row r="152">
-      <c r="F152" s="33"/>
+      <c r="F152" s="27"/>
     </row>
     <row r="153">
-      <c r="F153" s="33"/>
+      <c r="F153" s="27"/>
     </row>
     <row r="154">
-      <c r="F154" s="33"/>
+      <c r="F154" s="27"/>
     </row>
     <row r="155">
-      <c r="F155" s="33"/>
+      <c r="F155" s="27"/>
     </row>
     <row r="156">
-      <c r="F156" s="33"/>
+      <c r="F156" s="27"/>
     </row>
     <row r="157">
-      <c r="F157" s="33"/>
+      <c r="F157" s="27"/>
     </row>
     <row r="158">
-      <c r="F158" s="33"/>
+      <c r="F158" s="27"/>
     </row>
     <row r="159">
-      <c r="F159" s="33"/>
+      <c r="F159" s="27"/>
     </row>
     <row r="160">
-      <c r="F160" s="33"/>
+      <c r="F160" s="27"/>
     </row>
     <row r="161">
-      <c r="F161" s="33"/>
+      <c r="F161" s="27"/>
     </row>
     <row r="162">
-      <c r="F162" s="33"/>
+      <c r="F162" s="27"/>
     </row>
     <row r="163">
-      <c r="F163" s="33"/>
+      <c r="F163" s="27"/>
     </row>
     <row r="164">
-      <c r="F164" s="33"/>
+      <c r="F164" s="27"/>
     </row>
     <row r="165">
-      <c r="F165" s="33"/>
+      <c r="F165" s="27"/>
     </row>
     <row r="166">
-      <c r="F166" s="33"/>
+      <c r="F166" s="27"/>
     </row>
     <row r="167">
-      <c r="F167" s="33"/>
+      <c r="F167" s="27"/>
     </row>
     <row r="168">
-      <c r="F168" s="33"/>
+      <c r="F168" s="27"/>
     </row>
     <row r="169">
-      <c r="F169" s="33"/>
+      <c r="F169" s="27"/>
     </row>
     <row r="170">
-      <c r="F170" s="33"/>
+      <c r="F170" s="27"/>
     </row>
     <row r="171">
-      <c r="F171" s="33"/>
+      <c r="F171" s="27"/>
     </row>
     <row r="172">
-      <c r="F172" s="33"/>
+      <c r="F172" s="27"/>
     </row>
     <row r="173">
-      <c r="F173" s="33"/>
+      <c r="F173" s="27"/>
     </row>
     <row r="174">
-      <c r="F174" s="33"/>
+      <c r="F174" s="27"/>
     </row>
     <row r="175">
-      <c r="F175" s="33"/>
+      <c r="F175" s="27"/>
     </row>
     <row r="176">
-      <c r="F176" s="33"/>
+      <c r="F176" s="27"/>
     </row>
     <row r="177">
-      <c r="F177" s="33"/>
+      <c r="F177" s="27"/>
     </row>
     <row r="178">
-      <c r="F178" s="33"/>
+      <c r="F178" s="27"/>
     </row>
     <row r="179">
-      <c r="F179" s="33"/>
+      <c r="F179" s="27"/>
     </row>
     <row r="180">
-      <c r="F180" s="33"/>
+      <c r="F180" s="27"/>
     </row>
     <row r="181">
-      <c r="F181" s="33"/>
+      <c r="F181" s="27"/>
     </row>
     <row r="182">
-      <c r="F182" s="33"/>
+      <c r="F182" s="27"/>
     </row>
     <row r="183">
-      <c r="F183" s="33"/>
+      <c r="F183" s="27"/>
     </row>
     <row r="184">
-      <c r="F184" s="33"/>
+      <c r="F184" s="27"/>
     </row>
     <row r="185">
-      <c r="F185" s="33"/>
+      <c r="F185" s="27"/>
     </row>
     <row r="186">
-      <c r="F186" s="33"/>
+      <c r="F186" s="27"/>
     </row>
     <row r="187">
-      <c r="F187" s="33"/>
+      <c r="F187" s="27"/>
     </row>
     <row r="188">
-      <c r="F188" s="33"/>
+      <c r="F188" s="27"/>
     </row>
     <row r="189">
-      <c r="F189" s="33"/>
+      <c r="F189" s="27"/>
     </row>
     <row r="190">
-      <c r="F190" s="33"/>
+      <c r="F190" s="27"/>
     </row>
     <row r="191">
-      <c r="F191" s="33"/>
+      <c r="F191" s="27"/>
     </row>
     <row r="192">
-      <c r="F192" s="33"/>
+      <c r="F192" s="27"/>
     </row>
     <row r="193">
-      <c r="F193" s="33"/>
+      <c r="F193" s="27"/>
     </row>
     <row r="194">
-      <c r="F194" s="33"/>
+      <c r="F194" s="27"/>
     </row>
     <row r="195">
-      <c r="F195" s="33"/>
+      <c r="F195" s="27"/>
     </row>
     <row r="196">
-      <c r="F196" s="33"/>
+      <c r="F196" s="27"/>
     </row>
     <row r="197">
-      <c r="F197" s="33"/>
+      <c r="F197" s="27"/>
     </row>
     <row r="198">
-      <c r="F198" s="33"/>
+      <c r="F198" s="27"/>
     </row>
     <row r="199">
-      <c r="F199" s="33"/>
+      <c r="F199" s="27"/>
     </row>
     <row r="200">
-      <c r="F200" s="33"/>
+      <c r="F200" s="27"/>
     </row>
     <row r="201">
-      <c r="F201" s="33"/>
+      <c r="F201" s="27"/>
     </row>
     <row r="202">
-      <c r="F202" s="33"/>
+      <c r="F202" s="27"/>
     </row>
     <row r="203">
-      <c r="F203" s="33"/>
+      <c r="F203" s="27"/>
     </row>
     <row r="204">
-      <c r="F204" s="33"/>
+      <c r="F204" s="27"/>
     </row>
     <row r="205">
-      <c r="F205" s="33"/>
+      <c r="F205" s="27"/>
     </row>
     <row r="206">
-      <c r="F206" s="33"/>
+      <c r="F206" s="27"/>
     </row>
     <row r="207">
-      <c r="F207" s="33"/>
+      <c r="F207" s="27"/>
     </row>
     <row r="208">
-      <c r="F208" s="33"/>
+      <c r="F208" s="27"/>
     </row>
     <row r="209">
-      <c r="F209" s="33"/>
+      <c r="F209" s="27"/>
     </row>
     <row r="210">
-      <c r="F210" s="33"/>
+      <c r="F210" s="27"/>
     </row>
     <row r="211">
-      <c r="F211" s="33"/>
+      <c r="F211" s="27"/>
     </row>
     <row r="212">
-      <c r="F212" s="33"/>
+      <c r="F212" s="27"/>
     </row>
     <row r="213">
-      <c r="F213" s="33"/>
+      <c r="F213" s="27"/>
     </row>
     <row r="214">
-      <c r="F214" s="33"/>
+      <c r="F214" s="27"/>
     </row>
     <row r="215">
-      <c r="F215" s="33"/>
+      <c r="F215" s="27"/>
     </row>
     <row r="216">
-      <c r="F216" s="33"/>
+      <c r="F216" s="27"/>
     </row>
     <row r="217">
-      <c r="F217" s="33"/>
+      <c r="F217" s="27"/>
     </row>
     <row r="218">
-      <c r="F218" s="33"/>
+      <c r="F218" s="27"/>
     </row>
     <row r="219">
-      <c r="F219" s="33"/>
+      <c r="F219" s="27"/>
     </row>
     <row r="220">
-      <c r="F220" s="33"/>
+      <c r="F220" s="27"/>
     </row>
     <row r="221">
-      <c r="F221" s="33"/>
+      <c r="F221" s="27"/>
     </row>
     <row r="222">
-      <c r="F222" s="33"/>
+      <c r="F222" s="27"/>
     </row>
     <row r="223">
-      <c r="F223" s="33"/>
+      <c r="F223" s="27"/>
     </row>
     <row r="224">
-      <c r="F224" s="33"/>
+      <c r="F224" s="27"/>
     </row>
     <row r="225">
-      <c r="F225" s="33"/>
+      <c r="F225" s="27"/>
     </row>
     <row r="226">
-      <c r="F226" s="33"/>
+      <c r="F226" s="27"/>
     </row>
     <row r="227">
-      <c r="F227" s="33"/>
+      <c r="F227" s="27"/>
     </row>
     <row r="228">
-      <c r="F228" s="33"/>
+      <c r="F228" s="27"/>
     </row>
     <row r="229">
-      <c r="F229" s="33"/>
+      <c r="F229" s="27"/>
     </row>
     <row r="230">
-      <c r="F230" s="33"/>
+      <c r="F230" s="27"/>
     </row>
     <row r="231">
-      <c r="F231" s="33"/>
+      <c r="F231" s="27"/>
     </row>
     <row r="232">
-      <c r="F232" s="33"/>
+      <c r="F232" s="27"/>
     </row>
     <row r="233">
-      <c r="F233" s="33"/>
+      <c r="F233" s="27"/>
     </row>
     <row r="234">
-      <c r="F234" s="33"/>
+      <c r="F234" s="27"/>
     </row>
     <row r="235">
-      <c r="F235" s="33"/>
+      <c r="F235" s="27"/>
     </row>
     <row r="236">
-      <c r="F236" s="33"/>
+      <c r="F236" s="27"/>
     </row>
     <row r="237">
-      <c r="F237" s="33"/>
+      <c r="F237" s="27"/>
     </row>
     <row r="238">
-      <c r="F238" s="33"/>
+      <c r="F238" s="27"/>
     </row>
     <row r="239">
-      <c r="F239" s="33"/>
+      <c r="F239" s="27"/>
     </row>
     <row r="240">
-      <c r="F240" s="33"/>
+      <c r="F240" s="27"/>
     </row>
     <row r="241">
-      <c r="F241" s="33"/>
+      <c r="F241" s="27"/>
     </row>
     <row r="242">
-      <c r="F242" s="33"/>
+      <c r="F242" s="27"/>
     </row>
     <row r="243">
-      <c r="F243" s="33"/>
+      <c r="F243" s="27"/>
     </row>
     <row r="244">
-      <c r="F244" s="33"/>
+      <c r="F244" s="27"/>
     </row>
     <row r="245">
-      <c r="F245" s="33"/>
+      <c r="F245" s="27"/>
     </row>
     <row r="246">
-      <c r="F246" s="33"/>
+      <c r="F246" s="27"/>
     </row>
     <row r="247">
-      <c r="F247" s="33"/>
+      <c r="F247" s="27"/>
     </row>
     <row r="248">
-      <c r="F248" s="33"/>
+      <c r="F248" s="27"/>
     </row>
     <row r="249">
-      <c r="F249" s="33"/>
+      <c r="F249" s="27"/>
     </row>
     <row r="250">
-      <c r="F250" s="33"/>
+      <c r="F250" s="27"/>
     </row>
     <row r="251">
-      <c r="F251" s="33"/>
+      <c r="F251" s="27"/>
     </row>
     <row r="252">
-      <c r="F252" s="33"/>
+      <c r="F252" s="27"/>
     </row>
     <row r="253">
-      <c r="F253" s="33"/>
+      <c r="F253" s="27"/>
     </row>
     <row r="254">
-      <c r="F254" s="33"/>
+      <c r="F254" s="27"/>
     </row>
     <row r="255">
-      <c r="F255" s="33"/>
+      <c r="F255" s="27"/>
     </row>
     <row r="256">
-      <c r="F256" s="33"/>
+      <c r="F256" s="27"/>
     </row>
     <row r="257">
-      <c r="F257" s="33"/>
+      <c r="F257" s="27"/>
     </row>
     <row r="258">
-      <c r="F258" s="33"/>
+      <c r="F258" s="27"/>
     </row>
     <row r="259">
-      <c r="F259" s="33"/>
+      <c r="F259" s="27"/>
     </row>
     <row r="260">
-      <c r="F260" s="33"/>
+      <c r="F260" s="27"/>
     </row>
     <row r="261">
-      <c r="F261" s="33"/>
+      <c r="F261" s="27"/>
     </row>
     <row r="262">
-      <c r="F262" s="33"/>
+      <c r="F262" s="27"/>
     </row>
     <row r="263">
-      <c r="F263" s="33"/>
+      <c r="F263" s="27"/>
     </row>
     <row r="264">
-      <c r="F264" s="33"/>
+      <c r="F264" s="27"/>
     </row>
     <row r="265">
-      <c r="F265" s="33"/>
+      <c r="F265" s="27"/>
     </row>
     <row r="266">
-      <c r="F266" s="33"/>
+      <c r="F266" s="27"/>
     </row>
     <row r="267">
-      <c r="F267" s="33"/>
+      <c r="F267" s="27"/>
     </row>
     <row r="268">
-      <c r="F268" s="33"/>
+      <c r="F268" s="27"/>
     </row>
     <row r="269">
-      <c r="F269" s="33"/>
+      <c r="F269" s="27"/>
     </row>
     <row r="270">
-      <c r="F270" s="33"/>
+      <c r="F270" s="27"/>
     </row>
     <row r="271">
-      <c r="F271" s="33"/>
+      <c r="F271" s="27"/>
     </row>
     <row r="272">
-      <c r="F272" s="33"/>
+      <c r="F272" s="27"/>
     </row>
     <row r="273">
-      <c r="F273" s="33"/>
+      <c r="F273" s="27"/>
     </row>
     <row r="274">
-      <c r="F274" s="33"/>
+      <c r="F274" s="27"/>
     </row>
     <row r="275">
-      <c r="F275" s="33"/>
+      <c r="F275" s="27"/>
     </row>
     <row r="276">
-      <c r="F276" s="33"/>
+      <c r="F276" s="27"/>
     </row>
     <row r="277">
-      <c r="F277" s="33"/>
+      <c r="F277" s="27"/>
     </row>
     <row r="278">
-      <c r="F278" s="33"/>
+      <c r="F278" s="27"/>
     </row>
     <row r="279">
-      <c r="F279" s="33"/>
+      <c r="F279" s="27"/>
     </row>
     <row r="280">
-      <c r="F280" s="33"/>
+      <c r="F280" s="27"/>
     </row>
     <row r="281">
-      <c r="F281" s="33"/>
+      <c r="F281" s="27"/>
     </row>
     <row r="282">
-      <c r="F282" s="33"/>
+      <c r="F282" s="27"/>
     </row>
     <row r="283">
-      <c r="F283" s="33"/>
+      <c r="F283" s="27"/>
     </row>
     <row r="284">
-      <c r="F284" s="33"/>
+      <c r="F284" s="27"/>
     </row>
     <row r="285">
-      <c r="F285" s="33"/>
+      <c r="F285" s="27"/>
     </row>
     <row r="286">
-      <c r="F286" s="33"/>
+      <c r="F286" s="27"/>
     </row>
     <row r="287">
-      <c r="F287" s="33"/>
+      <c r="F287" s="27"/>
     </row>
     <row r="288">
-      <c r="F288" s="33"/>
+      <c r="F288" s="27"/>
     </row>
     <row r="289">
-      <c r="F289" s="33"/>
+      <c r="F289" s="27"/>
     </row>
     <row r="290">
-      <c r="F290" s="33"/>
+      <c r="F290" s="27"/>
     </row>
     <row r="291">
-      <c r="F291" s="33"/>
+      <c r="F291" s="27"/>
     </row>
     <row r="292">
-      <c r="F292" s="33"/>
+      <c r="F292" s="27"/>
     </row>
     <row r="293">
-      <c r="F293" s="33"/>
+      <c r="F293" s="27"/>
     </row>
     <row r="294">
-      <c r="F294" s="33"/>
+      <c r="F294" s="27"/>
     </row>
     <row r="295">
-      <c r="F295" s="33"/>
+      <c r="F295" s="27"/>
     </row>
     <row r="296">
-      <c r="F296" s="33"/>
+      <c r="F296" s="27"/>
     </row>
     <row r="297">
-      <c r="F297" s="33"/>
+      <c r="F297" s="27"/>
     </row>
     <row r="298">
-      <c r="F298" s="33"/>
+      <c r="F298" s="27"/>
     </row>
     <row r="299">
-      <c r="F299" s="33"/>
+      <c r="F299" s="27"/>
     </row>
     <row r="300">
-      <c r="F300" s="33"/>
+      <c r="F300" s="27"/>
     </row>
     <row r="301">
-      <c r="F301" s="33"/>
+      <c r="F301" s="27"/>
     </row>
     <row r="302">
-      <c r="F302" s="33"/>
+      <c r="F302" s="27"/>
     </row>
     <row r="303">
-      <c r="F303" s="33"/>
+      <c r="F303" s="27"/>
     </row>
     <row r="304">
-      <c r="F304" s="33"/>
+      <c r="F304" s="27"/>
     </row>
     <row r="305">
-      <c r="F305" s="33"/>
+      <c r="F305" s="27"/>
     </row>
     <row r="306">
-      <c r="F306" s="33"/>
+      <c r="F306" s="27"/>
     </row>
     <row r="307">
-      <c r="F307" s="33"/>
+      <c r="F307" s="27"/>
     </row>
     <row r="308">
-      <c r="F308" s="33"/>
+      <c r="F308" s="27"/>
     </row>
     <row r="309">
-      <c r="F309" s="33"/>
+      <c r="F309" s="27"/>
     </row>
     <row r="310">
-      <c r="F310" s="33"/>
+      <c r="F310" s="27"/>
     </row>
     <row r="311">
-      <c r="F311" s="33"/>
+      <c r="F311" s="27"/>
     </row>
     <row r="312">
-      <c r="F312" s="33"/>
+      <c r="F312" s="27"/>
     </row>
     <row r="313">
-      <c r="F313" s="33"/>
+      <c r="F313" s="27"/>
     </row>
     <row r="314">
-      <c r="F314" s="33"/>
+      <c r="F314" s="27"/>
     </row>
     <row r="315">
-      <c r="F315" s="33"/>
+      <c r="F315" s="27"/>
     </row>
     <row r="316">
-      <c r="F316" s="33"/>
+      <c r="F316" s="27"/>
     </row>
     <row r="317">
-      <c r="F317" s="33"/>
+      <c r="F317" s="27"/>
     </row>
     <row r="318">
-      <c r="F318" s="33"/>
+      <c r="F318" s="27"/>
     </row>
     <row r="319">
-      <c r="F319" s="33"/>
+      <c r="F319" s="27"/>
     </row>
     <row r="320">
-      <c r="F320" s="33"/>
+      <c r="F320" s="27"/>
     </row>
     <row r="321">
-      <c r="F321" s="33"/>
+      <c r="F321" s="27"/>
     </row>
     <row r="322">
-      <c r="F322" s="33"/>
+      <c r="F322" s="27"/>
     </row>
     <row r="323">
-      <c r="F323" s="33"/>
+      <c r="F323" s="27"/>
     </row>
     <row r="324">
-      <c r="F324" s="33"/>
+      <c r="F324" s="27"/>
     </row>
     <row r="325">
-      <c r="F325" s="33"/>
+      <c r="F325" s="27"/>
     </row>
     <row r="326">
-      <c r="F326" s="33"/>
+      <c r="F326" s="27"/>
     </row>
     <row r="327">
-      <c r="F327" s="33"/>
+      <c r="F327" s="27"/>
     </row>
     <row r="328">
-      <c r="F328" s="33"/>
+      <c r="F328" s="27"/>
     </row>
     <row r="329">
-      <c r="F329" s="33"/>
+      <c r="F329" s="27"/>
     </row>
     <row r="330">
-      <c r="F330" s="33"/>
+      <c r="F330" s="27"/>
     </row>
     <row r="331">
-      <c r="F331" s="33"/>
+      <c r="F331" s="27"/>
     </row>
     <row r="332">
-      <c r="F332" s="33"/>
+      <c r="F332" s="27"/>
     </row>
     <row r="333">
-      <c r="F333" s="33"/>
+      <c r="F333" s="27"/>
     </row>
     <row r="334">
-      <c r="F334" s="33"/>
+      <c r="F334" s="27"/>
     </row>
     <row r="335">
-      <c r="F335" s="33"/>
+      <c r="F335" s="27"/>
     </row>
     <row r="336">
-      <c r="F336" s="33"/>
+      <c r="F336" s="27"/>
     </row>
     <row r="337">
-      <c r="F337" s="33"/>
+      <c r="F337" s="27"/>
     </row>
     <row r="338">
-      <c r="F338" s="33"/>
+      <c r="F338" s="27"/>
     </row>
     <row r="339">
-      <c r="F339" s="33"/>
+      <c r="F339" s="27"/>
     </row>
     <row r="340">
-      <c r="F340" s="33"/>
+      <c r="F340" s="27"/>
     </row>
     <row r="341">
-      <c r="F341" s="33"/>
+      <c r="F341" s="27"/>
     </row>
     <row r="342">
-      <c r="F342" s="33"/>
+      <c r="F342" s="27"/>
     </row>
     <row r="343">
-      <c r="F343" s="33"/>
+      <c r="F343" s="27"/>
     </row>
     <row r="344">
-      <c r="F344" s="33"/>
+      <c r="F344" s="27"/>
     </row>
     <row r="345">
-      <c r="F345" s="33"/>
+      <c r="F345" s="27"/>
     </row>
     <row r="346">
-      <c r="F346" s="33"/>
+      <c r="F346" s="27"/>
     </row>
     <row r="347">
-      <c r="F347" s="33"/>
+      <c r="F347" s="27"/>
     </row>
     <row r="348">
-      <c r="F348" s="33"/>
+      <c r="F348" s="27"/>
     </row>
     <row r="349">
-      <c r="F349" s="33"/>
+      <c r="F349" s="27"/>
     </row>
     <row r="350">
-      <c r="F350" s="33"/>
+      <c r="F350" s="27"/>
     </row>
     <row r="351">
-      <c r="F351" s="33"/>
+      <c r="F351" s="27"/>
     </row>
     <row r="352">
-      <c r="F352" s="33"/>
+      <c r="F352" s="27"/>
     </row>
     <row r="353">
-      <c r="F353" s="33"/>
+      <c r="F353" s="27"/>
     </row>
     <row r="354">
-      <c r="F354" s="33"/>
+      <c r="F354" s="27"/>
     </row>
     <row r="355">
-      <c r="F355" s="33"/>
+      <c r="F355" s="27"/>
     </row>
     <row r="356">
-      <c r="F356" s="33"/>
+      <c r="F356" s="27"/>
     </row>
     <row r="357">
-      <c r="F357" s="33"/>
+      <c r="F357" s="27"/>
     </row>
     <row r="358">
-      <c r="F358" s="33"/>
+      <c r="F358" s="27"/>
     </row>
     <row r="359">
-      <c r="F359" s="33"/>
+      <c r="F359" s="27"/>
     </row>
     <row r="360">
-      <c r="F360" s="33"/>
+      <c r="F360" s="27"/>
     </row>
     <row r="361">
-      <c r="F361" s="33"/>
+      <c r="F361" s="27"/>
     </row>
     <row r="362">
-      <c r="F362" s="33"/>
+      <c r="F362" s="27"/>
     </row>
     <row r="363">
-      <c r="F363" s="33"/>
+      <c r="F363" s="27"/>
     </row>
     <row r="364">
-      <c r="F364" s="33"/>
+      <c r="F364" s="27"/>
     </row>
     <row r="365">
-      <c r="F365" s="33"/>
+      <c r="F365" s="27"/>
     </row>
     <row r="366">
-      <c r="F366" s="33"/>
+      <c r="F366" s="27"/>
     </row>
     <row r="367">
-      <c r="F367" s="33"/>
+      <c r="F367" s="27"/>
     </row>
     <row r="368">
-      <c r="F368" s="33"/>
+      <c r="F368" s="27"/>
     </row>
     <row r="369">
-      <c r="F369" s="33"/>
+      <c r="F369" s="27"/>
     </row>
     <row r="370">
-      <c r="F370" s="33"/>
+      <c r="F370" s="27"/>
     </row>
     <row r="371">
-      <c r="F371" s="33"/>
+      <c r="F371" s="27"/>
     </row>
     <row r="372">
-      <c r="F372" s="33"/>
+      <c r="F372" s="27"/>
     </row>
     <row r="373">
-      <c r="F373" s="33"/>
+      <c r="F373" s="27"/>
     </row>
     <row r="374">
-      <c r="F374" s="33"/>
+      <c r="F374" s="27"/>
     </row>
     <row r="375">
-      <c r="F375" s="33"/>
+      <c r="F375" s="27"/>
     </row>
     <row r="376">
-      <c r="F376" s="33"/>
+      <c r="F376" s="27"/>
     </row>
     <row r="377">
-      <c r="F377" s="33"/>
+      <c r="F377" s="27"/>
     </row>
     <row r="378">
-      <c r="F378" s="33"/>
+      <c r="F378" s="27"/>
     </row>
     <row r="379">
-      <c r="F379" s="33"/>
+      <c r="F379" s="27"/>
     </row>
     <row r="380">
-      <c r="F380" s="33"/>
+      <c r="F380" s="27"/>
     </row>
     <row r="381">
-      <c r="F381" s="33"/>
+      <c r="F381" s="27"/>
     </row>
     <row r="382">
-      <c r="F382" s="33"/>
+      <c r="F382" s="27"/>
     </row>
     <row r="383">
-      <c r="F383" s="33"/>
+      <c r="F383" s="27"/>
     </row>
     <row r="384">
-      <c r="F384" s="33"/>
+      <c r="F384" s="27"/>
     </row>
     <row r="385">
-      <c r="F385" s="33"/>
+      <c r="F385" s="27"/>
     </row>
     <row r="386">
-      <c r="F386" s="33"/>
+      <c r="F386" s="27"/>
     </row>
     <row r="387">
-      <c r="F387" s="33"/>
+      <c r="F387" s="27"/>
     </row>
     <row r="388">
-      <c r="F388" s="33"/>
+      <c r="F388" s="27"/>
     </row>
     <row r="389">
-      <c r="F389" s="33"/>
+      <c r="F389" s="27"/>
     </row>
     <row r="390">
-      <c r="F390" s="33"/>
+      <c r="F390" s="27"/>
     </row>
     <row r="391">
-      <c r="F391" s="33"/>
+      <c r="F391" s="27"/>
     </row>
     <row r="392">
-      <c r="F392" s="33"/>
+      <c r="F392" s="27"/>
     </row>
     <row r="393">
-      <c r="F393" s="33"/>
+      <c r="F393" s="27"/>
     </row>
     <row r="394">
-      <c r="F394" s="33"/>
+      <c r="F394" s="27"/>
     </row>
     <row r="395">
-      <c r="F395" s="33"/>
+      <c r="F395" s="27"/>
     </row>
     <row r="396">
-      <c r="F396" s="33"/>
+      <c r="F396" s="27"/>
     </row>
     <row r="397">
-      <c r="F397" s="33"/>
+      <c r="F397" s="27"/>
     </row>
     <row r="398">
-      <c r="F398" s="33"/>
+      <c r="F398" s="27"/>
     </row>
     <row r="399">
-      <c r="F399" s="33"/>
+      <c r="F399" s="27"/>
     </row>
     <row r="400">
-      <c r="F400" s="33"/>
+      <c r="F400" s="27"/>
     </row>
     <row r="401">
-      <c r="F401" s="33"/>
+      <c r="F401" s="27"/>
     </row>
     <row r="402">
-      <c r="F402" s="33"/>
+      <c r="F402" s="27"/>
     </row>
     <row r="403">
-      <c r="F403" s="33"/>
+      <c r="F403" s="27"/>
     </row>
     <row r="404">
-      <c r="F404" s="33"/>
+      <c r="F404" s="27"/>
     </row>
     <row r="405">
-      <c r="F405" s="33"/>
+      <c r="F405" s="27"/>
     </row>
     <row r="406">
-      <c r="F406" s="33"/>
+      <c r="F406" s="27"/>
     </row>
     <row r="407">
-      <c r="F407" s="33"/>
+      <c r="F407" s="27"/>
     </row>
     <row r="408">
-      <c r="F408" s="33"/>
+      <c r="F408" s="27"/>
     </row>
     <row r="409">
-      <c r="F409" s="33"/>
+      <c r="F409" s="27"/>
     </row>
     <row r="410">
-      <c r="F410" s="33"/>
+      <c r="F410" s="27"/>
     </row>
     <row r="411">
-      <c r="F411" s="33"/>
+      <c r="F411" s="27"/>
     </row>
     <row r="412">
-      <c r="F412" s="33"/>
+      <c r="F412" s="27"/>
     </row>
     <row r="413">
-      <c r="F413" s="33"/>
+      <c r="F413" s="27"/>
     </row>
     <row r="414">
-      <c r="F414" s="33"/>
+      <c r="F414" s="27"/>
     </row>
     <row r="415">
-      <c r="F415" s="33"/>
+      <c r="F415" s="27"/>
     </row>
     <row r="416">
-      <c r="F416" s="33"/>
+      <c r="F416" s="27"/>
     </row>
     <row r="417">
-      <c r="F417" s="33"/>
+      <c r="F417" s="27"/>
     </row>
     <row r="418">
-      <c r="F418" s="33"/>
+      <c r="F418" s="27"/>
     </row>
     <row r="419">
-      <c r="F419" s="33"/>
+      <c r="F419" s="27"/>
     </row>
     <row r="420">
-      <c r="F420" s="33"/>
+      <c r="F420" s="27"/>
     </row>
     <row r="421">
-      <c r="F421" s="33"/>
+      <c r="F421" s="27"/>
     </row>
     <row r="422">
-      <c r="F422" s="33"/>
+      <c r="F422" s="27"/>
     </row>
     <row r="423">
-      <c r="F423" s="33"/>
+      <c r="F423" s="27"/>
     </row>
     <row r="424">
-      <c r="F424" s="33"/>
+      <c r="F424" s="27"/>
     </row>
     <row r="425">
-      <c r="F425" s="33"/>
+      <c r="F425" s="27"/>
     </row>
     <row r="426">
-      <c r="F426" s="33"/>
+      <c r="F426" s="27"/>
     </row>
     <row r="427">
-      <c r="F427" s="33"/>
+      <c r="F427" s="27"/>
     </row>
     <row r="428">
-      <c r="F428" s="33"/>
+      <c r="F428" s="27"/>
     </row>
     <row r="429">
-      <c r="F429" s="33"/>
+      <c r="F429" s="27"/>
     </row>
     <row r="430">
-      <c r="F430" s="33"/>
+      <c r="F430" s="27"/>
     </row>
     <row r="431">
-      <c r="F431" s="33"/>
+      <c r="F431" s="27"/>
     </row>
     <row r="432">
-      <c r="F432" s="33"/>
+      <c r="F432" s="27"/>
     </row>
     <row r="433">
-      <c r="F433" s="33"/>
+      <c r="F433" s="27"/>
     </row>
     <row r="434">
-      <c r="F434" s="33"/>
+      <c r="F434" s="27"/>
     </row>
     <row r="435">
-      <c r="F435" s="33"/>
+      <c r="F435" s="27"/>
     </row>
     <row r="436">
-      <c r="F436" s="33"/>
+      <c r="F436" s="27"/>
     </row>
     <row r="437">
-      <c r="F437" s="33"/>
+      <c r="F437" s="27"/>
     </row>
     <row r="438">
-      <c r="F438" s="33"/>
+      <c r="F438" s="27"/>
     </row>
     <row r="439">
-      <c r="F439" s="33"/>
+      <c r="F439" s="27"/>
     </row>
     <row r="440">
-      <c r="F440" s="33"/>
+      <c r="F440" s="27"/>
     </row>
     <row r="441">
-      <c r="F441" s="33"/>
+      <c r="F441" s="27"/>
     </row>
     <row r="442">
-      <c r="F442" s="33"/>
+      <c r="F442" s="27"/>
     </row>
     <row r="443">
-      <c r="F443" s="33"/>
+      <c r="F443" s="27"/>
     </row>
     <row r="444">
-      <c r="F444" s="33"/>
+      <c r="F444" s="27"/>
     </row>
     <row r="445">
-      <c r="F445" s="33"/>
+      <c r="F445" s="27"/>
     </row>
     <row r="446">
-      <c r="F446" s="33"/>
+      <c r="F446" s="27"/>
     </row>
     <row r="447">
-      <c r="F447" s="33"/>
+      <c r="F447" s="27"/>
     </row>
     <row r="448">
-      <c r="F448" s="33"/>
+      <c r="F448" s="27"/>
     </row>
     <row r="449">
-      <c r="F449" s="33"/>
+      <c r="F449" s="27"/>
     </row>
     <row r="450">
-      <c r="F450" s="33"/>
+      <c r="F450" s="27"/>
     </row>
     <row r="451">
-      <c r="F451" s="33"/>
+      <c r="F451" s="27"/>
     </row>
     <row r="452">
-      <c r="F452" s="33"/>
+      <c r="F452" s="27"/>
     </row>
     <row r="453">
-      <c r="F453" s="33"/>
+      <c r="F453" s="27"/>
     </row>
     <row r="454">
-      <c r="F454" s="33"/>
+      <c r="F454" s="27"/>
     </row>
     <row r="455">
-      <c r="F455" s="33"/>
+      <c r="F455" s="27"/>
     </row>
     <row r="456">
-      <c r="F456" s="33"/>
+      <c r="F456" s="27"/>
     </row>
     <row r="457">
-      <c r="F457" s="33"/>
+      <c r="F457" s="27"/>
     </row>
     <row r="458">
-      <c r="F458" s="33"/>
+      <c r="F458" s="27"/>
     </row>
     <row r="459">
-      <c r="F459" s="33"/>
+      <c r="F459" s="27"/>
     </row>
     <row r="460">
-      <c r="F460" s="33"/>
+      <c r="F460" s="27"/>
     </row>
     <row r="461">
-      <c r="F461" s="33"/>
+      <c r="F461" s="27"/>
     </row>
     <row r="462">
-      <c r="F462" s="33"/>
+      <c r="F462" s="27"/>
     </row>
     <row r="463">
-      <c r="F463" s="33"/>
+      <c r="F463" s="27"/>
     </row>
     <row r="464">
-      <c r="F464" s="33"/>
+      <c r="F464" s="27"/>
     </row>
     <row r="465">
-      <c r="F465" s="33"/>
+      <c r="F465" s="27"/>
     </row>
     <row r="466">
-      <c r="F466" s="33"/>
+      <c r="F466" s="27"/>
     </row>
     <row r="467">
-      <c r="F467" s="33"/>
+      <c r="F467" s="27"/>
     </row>
     <row r="468">
-      <c r="F468" s="33"/>
+      <c r="F468" s="27"/>
     </row>
     <row r="469">
-      <c r="F469" s="33"/>
+      <c r="F469" s="27"/>
     </row>
     <row r="470">
-      <c r="F470" s="33"/>
+      <c r="F470" s="27"/>
     </row>
     <row r="471">
-      <c r="F471" s="33"/>
+      <c r="F471" s="27"/>
     </row>
     <row r="472">
-      <c r="F472" s="33"/>
+      <c r="F472" s="27"/>
     </row>
     <row r="473">
-      <c r="F473" s="33"/>
+      <c r="F473" s="27"/>
     </row>
     <row r="474">
-      <c r="F474" s="33"/>
+      <c r="F474" s="27"/>
     </row>
     <row r="475">
-      <c r="F475" s="33"/>
+      <c r="F475" s="27"/>
     </row>
     <row r="476">
-      <c r="F476" s="33"/>
+      <c r="F476" s="27"/>
     </row>
     <row r="477">
-      <c r="F477" s="33"/>
+      <c r="F477" s="27"/>
     </row>
     <row r="478">
-      <c r="F478" s="33"/>
+      <c r="F478" s="27"/>
     </row>
     <row r="479">
-      <c r="F479" s="33"/>
+      <c r="F479" s="27"/>
     </row>
     <row r="480">
-      <c r="F480" s="33"/>
+      <c r="F480" s="27"/>
     </row>
     <row r="481">
-      <c r="F481" s="33"/>
+      <c r="F481" s="27"/>
     </row>
     <row r="482">
-      <c r="F482" s="33"/>
+      <c r="F482" s="27"/>
     </row>
     <row r="483">
-      <c r="F483" s="33"/>
+      <c r="F483" s="27"/>
     </row>
     <row r="484">
-      <c r="F484" s="33"/>
+      <c r="F484" s="27"/>
     </row>
     <row r="485">
-      <c r="F485" s="33"/>
+      <c r="F485" s="27"/>
     </row>
     <row r="486">
-      <c r="F486" s="33"/>
+      <c r="F486" s="27"/>
     </row>
     <row r="487">
-      <c r="F487" s="33"/>
+      <c r="F487" s="27"/>
     </row>
     <row r="488">
-      <c r="F488" s="33"/>
+      <c r="F488" s="27"/>
     </row>
     <row r="489">
-      <c r="F489" s="33"/>
+      <c r="F489" s="27"/>
     </row>
     <row r="490">
-      <c r="F490" s="33"/>
+      <c r="F490" s="27"/>
     </row>
     <row r="491">
-      <c r="F491" s="33"/>
+      <c r="F491" s="27"/>
     </row>
     <row r="492">
-      <c r="F492" s="33"/>
+      <c r="F492" s="27"/>
     </row>
     <row r="493">
-      <c r="F493" s="33"/>
+      <c r="F493" s="27"/>
     </row>
     <row r="494">
-      <c r="F494" s="33"/>
+      <c r="F494" s="27"/>
     </row>
     <row r="495">
-      <c r="F495" s="33"/>
+      <c r="F495" s="27"/>
     </row>
     <row r="496">
-      <c r="F496" s="33"/>
+      <c r="F496" s="27"/>
     </row>
     <row r="497">
-      <c r="F497" s="33"/>
+      <c r="F497" s="27"/>
     </row>
     <row r="498">
-      <c r="F498" s="33"/>
+      <c r="F498" s="27"/>
     </row>
     <row r="499">
-      <c r="F499" s="33"/>
+      <c r="F499" s="27"/>
     </row>
     <row r="500">
-      <c r="F500" s="33"/>
+      <c r="F500" s="27"/>
     </row>
     <row r="501">
-      <c r="F501" s="33"/>
+      <c r="F501" s="27"/>
     </row>
     <row r="502">
-      <c r="F502" s="33"/>
+      <c r="F502" s="27"/>
     </row>
     <row r="503">
-      <c r="F503" s="33"/>
+      <c r="F503" s="27"/>
     </row>
     <row r="504">
-      <c r="F504" s="33"/>
+      <c r="F504" s="27"/>
     </row>
     <row r="505">
-      <c r="F505" s="33"/>
+      <c r="F505" s="27"/>
     </row>
     <row r="506">
-      <c r="F506" s="33"/>
+      <c r="F506" s="27"/>
     </row>
     <row r="507">
-      <c r="F507" s="33"/>
+      <c r="F507" s="27"/>
     </row>
     <row r="508">
-      <c r="F508" s="33"/>
+      <c r="F508" s="27"/>
     </row>
     <row r="509">
-      <c r="F509" s="33"/>
+      <c r="F509" s="27"/>
     </row>
     <row r="510">
-      <c r="F510" s="33"/>
+      <c r="F510" s="27"/>
     </row>
     <row r="511">
-      <c r="F511" s="33"/>
+      <c r="F511" s="27"/>
     </row>
     <row r="512">
-      <c r="F512" s="33"/>
+      <c r="F512" s="27"/>
     </row>
     <row r="513">
-      <c r="F513" s="33"/>
+      <c r="F513" s="27"/>
     </row>
     <row r="514">
-      <c r="F514" s="33"/>
+      <c r="F514" s="27"/>
     </row>
     <row r="515">
-      <c r="F515" s="33"/>
+      <c r="F515" s="27"/>
     </row>
     <row r="516">
-      <c r="F516" s="33"/>
+      <c r="F516" s="27"/>
     </row>
     <row r="517">
-      <c r="F517" s="33"/>
+      <c r="F517" s="27"/>
     </row>
     <row r="518">
-      <c r="F518" s="33"/>
+      <c r="F518" s="27"/>
     </row>
     <row r="519">
-      <c r="F519" s="33"/>
+      <c r="F519" s="27"/>
     </row>
     <row r="520">
-      <c r="F520" s="33"/>
+      <c r="F520" s="27"/>
     </row>
     <row r="521">
-      <c r="F521" s="33"/>
+      <c r="F521" s="27"/>
     </row>
     <row r="522">
-      <c r="F522" s="33"/>
+      <c r="F522" s="27"/>
     </row>
     <row r="523">
-      <c r="F523" s="33"/>
+      <c r="F523" s="27"/>
     </row>
     <row r="524">
-      <c r="F524" s="33"/>
+      <c r="F524" s="27"/>
     </row>
     <row r="525">
-      <c r="F525" s="33"/>
+      <c r="F525" s="27"/>
     </row>
     <row r="526">
-      <c r="F526" s="33"/>
+      <c r="F526" s="27"/>
     </row>
     <row r="527">
-      <c r="F527" s="33"/>
+      <c r="F527" s="27"/>
     </row>
     <row r="528">
-      <c r="F528" s="33"/>
+      <c r="F528" s="27"/>
     </row>
     <row r="529">
-      <c r="F529" s="33"/>
+      <c r="F529" s="27"/>
     </row>
     <row r="530">
-      <c r="F530" s="33"/>
+      <c r="F530" s="27"/>
     </row>
     <row r="531">
-      <c r="F531" s="33"/>
+      <c r="F531" s="27"/>
     </row>
     <row r="532">
-      <c r="F532" s="33"/>
+      <c r="F532" s="27"/>
     </row>
     <row r="533">
-      <c r="F533" s="33"/>
+      <c r="F533" s="27"/>
     </row>
     <row r="534">
-      <c r="F534" s="33"/>
+      <c r="F534" s="27"/>
     </row>
     <row r="535">
-      <c r="F535" s="33"/>
+      <c r="F535" s="27"/>
     </row>
     <row r="536">
-      <c r="F536" s="33"/>
+      <c r="F536" s="27"/>
     </row>
     <row r="537">
-      <c r="F537" s="33"/>
+      <c r="F537" s="27"/>
     </row>
     <row r="538">
-      <c r="F538" s="33"/>
+      <c r="F538" s="27"/>
     </row>
     <row r="539">
-      <c r="F539" s="33"/>
+      <c r="F539" s="27"/>
     </row>
     <row r="540">
-      <c r="F540" s="33"/>
+      <c r="F540" s="27"/>
     </row>
     <row r="541">
-      <c r="F541" s="33"/>
+      <c r="F541" s="27"/>
     </row>
     <row r="542">
-      <c r="F542" s="33"/>
+      <c r="F542" s="27"/>
     </row>
     <row r="543">
-      <c r="F543" s="33"/>
+      <c r="F543" s="27"/>
     </row>
     <row r="544">
-      <c r="F544" s="33"/>
+      <c r="F544" s="27"/>
     </row>
     <row r="545">
-      <c r="F545" s="33"/>
+      <c r="F545" s="27"/>
     </row>
     <row r="546">
-      <c r="F546" s="33"/>
+      <c r="F546" s="27"/>
     </row>
     <row r="547">
-      <c r="F547" s="33"/>
+      <c r="F547" s="27"/>
     </row>
     <row r="548">
-      <c r="F548" s="33"/>
+      <c r="F548" s="27"/>
     </row>
     <row r="549">
-      <c r="F549" s="33"/>
+      <c r="F549" s="27"/>
     </row>
     <row r="550">
-      <c r="F550" s="33"/>
+      <c r="F550" s="27"/>
     </row>
     <row r="551">
-      <c r="F551" s="33"/>
+      <c r="F551" s="27"/>
     </row>
     <row r="552">
-      <c r="F552" s="33"/>
+      <c r="F552" s="27"/>
     </row>
     <row r="553">
-      <c r="F553" s="33"/>
+      <c r="F553" s="27"/>
     </row>
     <row r="554">
-      <c r="F554" s="33"/>
+      <c r="F554" s="27"/>
     </row>
     <row r="555">
-      <c r="F555" s="33"/>
+      <c r="F555" s="27"/>
     </row>
     <row r="556">
-      <c r="F556" s="33"/>
+      <c r="F556" s="27"/>
     </row>
     <row r="557">
-      <c r="F557" s="33"/>
+      <c r="F557" s="27"/>
     </row>
     <row r="558">
-      <c r="F558" s="33"/>
+      <c r="F558" s="27"/>
     </row>
     <row r="559">
-      <c r="F559" s="33"/>
+      <c r="F559" s="27"/>
     </row>
     <row r="560">
-      <c r="F560" s="33"/>
+      <c r="F560" s="27"/>
     </row>
     <row r="561">
-      <c r="F561" s="33"/>
+      <c r="F561" s="27"/>
     </row>
     <row r="562">
-      <c r="F562" s="33"/>
+      <c r="F562" s="27"/>
     </row>
     <row r="563">
-      <c r="F563" s="33"/>
+      <c r="F563" s="27"/>
     </row>
     <row r="564">
-      <c r="F564" s="33"/>
+      <c r="F564" s="27"/>
     </row>
     <row r="565">
-      <c r="F565" s="33"/>
+      <c r="F565" s="27"/>
     </row>
     <row r="566">
-      <c r="F566" s="33"/>
+      <c r="F566" s="27"/>
     </row>
     <row r="567">
-      <c r="F567" s="33"/>
+      <c r="F567" s="27"/>
     </row>
     <row r="568">
-      <c r="F568" s="33"/>
+      <c r="F568" s="27"/>
     </row>
     <row r="569">
-      <c r="F569" s="33"/>
+      <c r="F569" s="27"/>
     </row>
     <row r="570">
-      <c r="F570" s="33"/>
+      <c r="F570" s="27"/>
     </row>
     <row r="571">
-      <c r="F571" s="33"/>
+      <c r="F571" s="27"/>
     </row>
     <row r="572">
-      <c r="F572" s="33"/>
+      <c r="F572" s="27"/>
     </row>
     <row r="573">
-      <c r="F573" s="33"/>
+      <c r="F573" s="27"/>
     </row>
     <row r="574">
-      <c r="F574" s="33"/>
+      <c r="F574" s="27"/>
     </row>
     <row r="575">
-      <c r="F575" s="33"/>
+      <c r="F575" s="27"/>
     </row>
     <row r="576">
-      <c r="F576" s="33"/>
+      <c r="F576" s="27"/>
     </row>
     <row r="577">
-      <c r="F577" s="33"/>
+      <c r="F577" s="27"/>
     </row>
     <row r="578">
-      <c r="F578" s="33"/>
+      <c r="F578" s="27"/>
     </row>
     <row r="579">
-      <c r="F579" s="33"/>
+      <c r="F579" s="27"/>
     </row>
     <row r="580">
-      <c r="F580" s="33"/>
+      <c r="F580" s="27"/>
     </row>
     <row r="581">
-      <c r="F581" s="33"/>
+      <c r="F581" s="27"/>
     </row>
     <row r="582">
-      <c r="F582" s="33"/>
+      <c r="F582" s="27"/>
     </row>
     <row r="583">
-      <c r="F583" s="33"/>
+      <c r="F583" s="27"/>
     </row>
     <row r="584">
-      <c r="F584" s="33"/>
+      <c r="F584" s="27"/>
     </row>
     <row r="585">
-      <c r="F585" s="33"/>
+      <c r="F585" s="27"/>
     </row>
     <row r="586">
-      <c r="F586" s="33"/>
+      <c r="F586" s="27"/>
     </row>
     <row r="587">
-      <c r="F587" s="33"/>
+      <c r="F587" s="27"/>
     </row>
     <row r="588">
-      <c r="F588" s="33"/>
+      <c r="F588" s="27"/>
     </row>
     <row r="589">
-      <c r="F589" s="33"/>
+      <c r="F589" s="27"/>
     </row>
     <row r="590">
-      <c r="F590" s="33"/>
+      <c r="F590" s="27"/>
     </row>
     <row r="591">
-      <c r="F591" s="33"/>
+      <c r="F591" s="27"/>
     </row>
     <row r="592">
-      <c r="F592" s="33"/>
+      <c r="F592" s="27"/>
     </row>
     <row r="593">
-      <c r="F593" s="33"/>
+      <c r="F593" s="27"/>
     </row>
     <row r="594">
-      <c r="F594" s="33"/>
+      <c r="F594" s="27"/>
     </row>
     <row r="595">
-      <c r="F595" s="33"/>
+      <c r="F595" s="27"/>
     </row>
     <row r="596">
-      <c r="F596" s="33"/>
+      <c r="F596" s="27"/>
     </row>
     <row r="597">
-      <c r="F597" s="33"/>
+      <c r="F597" s="27"/>
     </row>
     <row r="598">
-      <c r="F598" s="33"/>
+      <c r="F598" s="27"/>
     </row>
     <row r="599">
-      <c r="F599" s="33"/>
+      <c r="F599" s="27"/>
     </row>
     <row r="600">
-      <c r="F600" s="33"/>
+      <c r="F600" s="27"/>
     </row>
     <row r="601">
-      <c r="F601" s="33"/>
+      <c r="F601" s="27"/>
     </row>
     <row r="602">
-      <c r="F602" s="33"/>
+      <c r="F602" s="27"/>
     </row>
     <row r="603">
-      <c r="F603" s="33"/>
+      <c r="F603" s="27"/>
     </row>
     <row r="604">
-      <c r="F604" s="33"/>
+      <c r="F604" s="27"/>
     </row>
     <row r="605">
-      <c r="F605" s="33"/>
+      <c r="F605" s="27"/>
     </row>
     <row r="606">
-      <c r="F606" s="33"/>
+      <c r="F606" s="27"/>
     </row>
     <row r="607">
-      <c r="F607" s="33"/>
+      <c r="F607" s="27"/>
     </row>
     <row r="608">
-      <c r="F608" s="33"/>
+      <c r="F608" s="27"/>
     </row>
     <row r="609">
-      <c r="F609" s="33"/>
+      <c r="F609" s="27"/>
     </row>
     <row r="610">
-      <c r="F610" s="33"/>
+      <c r="F610" s="27"/>
     </row>
     <row r="611">
-      <c r="F611" s="33"/>
+      <c r="F611" s="27"/>
     </row>
     <row r="612">
-      <c r="F612" s="33"/>
+      <c r="F612" s="27"/>
     </row>
     <row r="613">
-      <c r="F613" s="33"/>
+      <c r="F613" s="27"/>
     </row>
     <row r="614">
-      <c r="F614" s="33"/>
+      <c r="F614" s="27"/>
     </row>
     <row r="615">
-      <c r="F615" s="33"/>
+      <c r="F615" s="27"/>
     </row>
     <row r="616">
-      <c r="F616" s="33"/>
+      <c r="F616" s="27"/>
     </row>
     <row r="617">
-      <c r="F617" s="33"/>
+      <c r="F617" s="27"/>
     </row>
     <row r="618">
-      <c r="F618" s="33"/>
+      <c r="F618" s="27"/>
     </row>
     <row r="619">
-      <c r="F619" s="33"/>
+      <c r="F619" s="27"/>
     </row>
     <row r="620">
-      <c r="F620" s="33"/>
+      <c r="F620" s="27"/>
     </row>
     <row r="621">
-      <c r="F621" s="33"/>
+      <c r="F621" s="27"/>
     </row>
     <row r="622">
-      <c r="F622" s="33"/>
+      <c r="F622" s="27"/>
     </row>
     <row r="623">
-      <c r="F623" s="33"/>
+      <c r="F623" s="27"/>
     </row>
     <row r="624">
-      <c r="F624" s="33"/>
+      <c r="F624" s="27"/>
     </row>
     <row r="625">
-      <c r="F625" s="33"/>
+      <c r="F625" s="27"/>
     </row>
     <row r="626">
-      <c r="F626" s="33"/>
+      <c r="F626" s="27"/>
     </row>
     <row r="627">
-      <c r="F627" s="33"/>
+      <c r="F627" s="27"/>
     </row>
     <row r="628">
-      <c r="F628" s="33"/>
+      <c r="F628" s="27"/>
     </row>
     <row r="629">
-      <c r="F629" s="33"/>
+      <c r="F629" s="27"/>
     </row>
     <row r="630">
-      <c r="F630" s="33"/>
+      <c r="F630" s="27"/>
     </row>
     <row r="631">
-      <c r="F631" s="33"/>
+      <c r="F631" s="27"/>
     </row>
     <row r="632">
-      <c r="F632" s="33"/>
+      <c r="F632" s="27"/>
     </row>
     <row r="633">
-      <c r="F633" s="33"/>
+      <c r="F633" s="27"/>
     </row>
     <row r="634">
-      <c r="F634" s="33"/>
+      <c r="F634" s="27"/>
     </row>
     <row r="635">
-      <c r="F635" s="33"/>
+      <c r="F635" s="27"/>
     </row>
     <row r="636">
-      <c r="F636" s="33"/>
+      <c r="F636" s="27"/>
     </row>
     <row r="637">
-      <c r="F637" s="33"/>
+      <c r="F637" s="27"/>
     </row>
     <row r="638">
-      <c r="F638" s="33"/>
+      <c r="F638" s="27"/>
     </row>
     <row r="639">
-      <c r="F639" s="33"/>
+      <c r="F639" s="27"/>
     </row>
     <row r="640">
-      <c r="F640" s="33"/>
+      <c r="F640" s="27"/>
     </row>
     <row r="641">
-      <c r="F641" s="33"/>
+      <c r="F641" s="27"/>
     </row>
     <row r="642">
-      <c r="F642" s="33"/>
+      <c r="F642" s="27"/>
     </row>
     <row r="643">
-      <c r="F643" s="33"/>
+      <c r="F643" s="27"/>
     </row>
     <row r="644">
-      <c r="F644" s="33"/>
+      <c r="F644" s="27"/>
     </row>
     <row r="645">
-      <c r="F645" s="33"/>
+      <c r="F645" s="27"/>
     </row>
     <row r="646">
-      <c r="F646" s="33"/>
+      <c r="F646" s="27"/>
     </row>
     <row r="647">
-      <c r="F647" s="33"/>
+      <c r="F647" s="27"/>
     </row>
     <row r="648">
-      <c r="F648" s="33"/>
+      <c r="F648" s="27"/>
     </row>
     <row r="649">
-      <c r="F649" s="33"/>
+      <c r="F649" s="27"/>
     </row>
     <row r="650">
-      <c r="F650" s="33"/>
+      <c r="F650" s="27"/>
     </row>
     <row r="651">
-      <c r="F651" s="33"/>
+      <c r="F651" s="27"/>
     </row>
     <row r="652">
-      <c r="F652" s="33"/>
+      <c r="F652" s="27"/>
     </row>
     <row r="653">
-      <c r="F653" s="33"/>
+      <c r="F653" s="27"/>
     </row>
     <row r="654">
-      <c r="F654" s="33"/>
+      <c r="F654" s="27"/>
     </row>
     <row r="655">
-      <c r="F655" s="33"/>
+      <c r="F655" s="27"/>
     </row>
     <row r="656">
-      <c r="F656" s="33"/>
+      <c r="F656" s="27"/>
     </row>
     <row r="657">
-      <c r="F657" s="33"/>
+      <c r="F657" s="27"/>
     </row>
     <row r="658">
-      <c r="F658" s="33"/>
+      <c r="F658" s="27"/>
     </row>
     <row r="659">
-      <c r="F659" s="33"/>
+      <c r="F659" s="27"/>
     </row>
     <row r="660">
-      <c r="F660" s="33"/>
+      <c r="F660" s="27"/>
     </row>
     <row r="661">
-      <c r="F661" s="33"/>
+      <c r="F661" s="27"/>
     </row>
     <row r="662">
-      <c r="F662" s="33"/>
+      <c r="F662" s="27"/>
     </row>
     <row r="663">
-      <c r="F663" s="33"/>
+      <c r="F663" s="27"/>
     </row>
     <row r="664">
-      <c r="F664" s="33"/>
+      <c r="F664" s="27"/>
     </row>
     <row r="665">
-      <c r="F665" s="33"/>
+      <c r="F665" s="27"/>
     </row>
     <row r="666">
-      <c r="F666" s="33"/>
+      <c r="F666" s="27"/>
     </row>
     <row r="667">
-      <c r="F667" s="33"/>
+      <c r="F667" s="27"/>
     </row>
     <row r="668">
-      <c r="F668" s="33"/>
+      <c r="F668" s="27"/>
     </row>
     <row r="669">
-      <c r="F669" s="33"/>
+      <c r="F669" s="27"/>
     </row>
     <row r="670">
-      <c r="F670" s="33"/>
+      <c r="F670" s="27"/>
     </row>
     <row r="671">
-      <c r="F671" s="33"/>
+      <c r="F671" s="27"/>
     </row>
     <row r="672">
-      <c r="F672" s="33"/>
+      <c r="F672" s="27"/>
     </row>
     <row r="673">
-      <c r="F673" s="33"/>
+      <c r="F673" s="27"/>
     </row>
     <row r="674">
-      <c r="F674" s="33"/>
+      <c r="F674" s="27"/>
     </row>
     <row r="675">
-      <c r="F675" s="33"/>
+      <c r="F675" s="27"/>
     </row>
     <row r="676">
-      <c r="F676" s="33"/>
+      <c r="F676" s="27"/>
     </row>
     <row r="677">
-      <c r="F677" s="33"/>
+      <c r="F677" s="27"/>
     </row>
     <row r="678">
-      <c r="F678" s="33"/>
+      <c r="F678" s="27"/>
     </row>
     <row r="679">
-      <c r="F679" s="33"/>
+      <c r="F679" s="27"/>
     </row>
     <row r="680">
-      <c r="F680" s="33"/>
+      <c r="F680" s="27"/>
     </row>
     <row r="681">
-      <c r="F681" s="33"/>
+      <c r="F681" s="27"/>
     </row>
     <row r="682">
-      <c r="F682" s="33"/>
+      <c r="F682" s="27"/>
     </row>
     <row r="683">
-      <c r="F683" s="33"/>
+      <c r="F683" s="27"/>
     </row>
     <row r="684">
-      <c r="F684" s="33"/>
+      <c r="F684" s="27"/>
     </row>
     <row r="685">
-      <c r="F685" s="33"/>
+      <c r="F685" s="27"/>
     </row>
     <row r="686">
-      <c r="F686" s="33"/>
+      <c r="F686" s="27"/>
     </row>
     <row r="687">
-      <c r="F687" s="33"/>
+      <c r="F687" s="27"/>
     </row>
     <row r="688">
-      <c r="F688" s="33"/>
+      <c r="F688" s="27"/>
     </row>
     <row r="689">
-      <c r="F689" s="33"/>
+      <c r="F689" s="27"/>
     </row>
     <row r="690">
-      <c r="F690" s="33"/>
+      <c r="F690" s="27"/>
     </row>
     <row r="691">
-      <c r="F691" s="33"/>
+      <c r="F691" s="27"/>
     </row>
     <row r="692">
-      <c r="F692" s="33"/>
+      <c r="F692" s="27"/>
     </row>
     <row r="693">
-      <c r="F693" s="33"/>
+      <c r="F693" s="27"/>
     </row>
     <row r="694">
-      <c r="F694" s="33"/>
+      <c r="F694" s="27"/>
     </row>
     <row r="695">
-      <c r="F695" s="33"/>
+      <c r="F695" s="27"/>
     </row>
     <row r="696">
-      <c r="F696" s="33"/>
+      <c r="F696" s="27"/>
     </row>
     <row r="697">
-      <c r="F697" s="33"/>
+      <c r="F697" s="27"/>
     </row>
     <row r="698">
-      <c r="F698" s="33"/>
+      <c r="F698" s="27"/>
     </row>
     <row r="699">
-      <c r="F699" s="33"/>
+      <c r="F699" s="27"/>
     </row>
     <row r="700">
-      <c r="F700" s="33"/>
+      <c r="F700" s="27"/>
     </row>
     <row r="701">
-      <c r="F701" s="33"/>
+      <c r="F701" s="27"/>
     </row>
     <row r="702">
-      <c r="F702" s="33"/>
+      <c r="F702" s="27"/>
     </row>
     <row r="703">
-      <c r="F703" s="33"/>
+      <c r="F703" s="27"/>
     </row>
     <row r="704">
-      <c r="F704" s="33"/>
+      <c r="F704" s="27"/>
     </row>
     <row r="705">
-      <c r="F705" s="33"/>
+      <c r="F705" s="27"/>
     </row>
     <row r="706">
-      <c r="F706" s="33"/>
+      <c r="F706" s="27"/>
     </row>
     <row r="707">
-      <c r="F707" s="33"/>
+      <c r="F707" s="27"/>
     </row>
     <row r="708">
-      <c r="F708" s="33"/>
+      <c r="F708" s="27"/>
     </row>
     <row r="709">
-      <c r="F709" s="33"/>
+      <c r="F709" s="27"/>
     </row>
     <row r="710">
-      <c r="F710" s="33"/>
+      <c r="F710" s="27"/>
     </row>
     <row r="711">
-      <c r="F711" s="33"/>
+      <c r="F711" s="27"/>
     </row>
     <row r="712">
-      <c r="F712" s="33"/>
+      <c r="F712" s="27"/>
     </row>
     <row r="713">
-      <c r="F713" s="33"/>
+      <c r="F713" s="27"/>
     </row>
     <row r="714">
-      <c r="F714" s="33"/>
+      <c r="F714" s="27"/>
     </row>
     <row r="715">
-      <c r="F715" s="33"/>
+      <c r="F715" s="27"/>
     </row>
     <row r="716">
-      <c r="F716" s="33"/>
+      <c r="F716" s="27"/>
     </row>
     <row r="717">
-      <c r="F717" s="33"/>
+      <c r="F717" s="27"/>
     </row>
     <row r="718">
-      <c r="F718" s="33"/>
+      <c r="F718" s="27"/>
     </row>
     <row r="719">
-      <c r="F719" s="33"/>
+      <c r="F719" s="27"/>
     </row>
     <row r="720">
-      <c r="F720" s="33"/>
+      <c r="F720" s="27"/>
     </row>
     <row r="721">
-      <c r="F721" s="33"/>
+      <c r="F721" s="27"/>
     </row>
     <row r="722">
-      <c r="F722" s="33"/>
+      <c r="F722" s="27"/>
     </row>
     <row r="723">
-      <c r="F723" s="33"/>
+      <c r="F723" s="27"/>
     </row>
     <row r="724">
-      <c r="F724" s="33"/>
+      <c r="F724" s="27"/>
     </row>
     <row r="725">
-      <c r="F725" s="33"/>
+      <c r="F725" s="27"/>
     </row>
     <row r="726">
-      <c r="F726" s="33"/>
+      <c r="F726" s="27"/>
     </row>
     <row r="727">
-      <c r="F727" s="33"/>
+      <c r="F727" s="27"/>
     </row>
     <row r="728">
-      <c r="F728" s="33"/>
+      <c r="F728" s="27"/>
     </row>
     <row r="729">
-      <c r="F729" s="33"/>
+      <c r="F729" s="27"/>
     </row>
     <row r="730">
-      <c r="F730" s="33"/>
+      <c r="F730" s="27"/>
     </row>
     <row r="731">
-      <c r="F731" s="33"/>
+      <c r="F731" s="27"/>
     </row>
     <row r="732">
-      <c r="F732" s="33"/>
+      <c r="F732" s="27"/>
     </row>
     <row r="733">
-      <c r="F733" s="33"/>
+      <c r="F733" s="27"/>
     </row>
     <row r="734">
-      <c r="F734" s="33"/>
+      <c r="F734" s="27"/>
     </row>
     <row r="735">
-      <c r="F735" s="33"/>
+      <c r="F735" s="27"/>
     </row>
     <row r="736">
-      <c r="F736" s="33"/>
+      <c r="F736" s="27"/>
     </row>
     <row r="737">
-      <c r="F737" s="33"/>
+      <c r="F737" s="27"/>
     </row>
     <row r="738">
-      <c r="F738" s="33"/>
+      <c r="F738" s="27"/>
     </row>
     <row r="739">
-      <c r="F739" s="33"/>
+      <c r="F739" s="27"/>
     </row>
     <row r="740">
-      <c r="F740" s="33"/>
+      <c r="F740" s="27"/>
     </row>
     <row r="741">
-      <c r="F741" s="33"/>
+      <c r="F741" s="27"/>
     </row>
     <row r="742">
-      <c r="F742" s="33"/>
+      <c r="F742" s="27"/>
     </row>
     <row r="743">
-      <c r="F743" s="33"/>
+      <c r="F743" s="27"/>
     </row>
     <row r="744">
-      <c r="F744" s="33"/>
+      <c r="F744" s="27"/>
     </row>
     <row r="745">
-      <c r="F745" s="33"/>
+      <c r="F745" s="27"/>
     </row>
     <row r="746">
-      <c r="F746" s="33"/>
+      <c r="F746" s="27"/>
     </row>
     <row r="747">
-      <c r="F747" s="33"/>
+      <c r="F747" s="27"/>
     </row>
     <row r="748">
-      <c r="F748" s="33"/>
+      <c r="F748" s="27"/>
     </row>
     <row r="749">
-      <c r="F749" s="33"/>
+      <c r="F749" s="27"/>
     </row>
     <row r="750">
-      <c r="F750" s="33"/>
+      <c r="F750" s="27"/>
     </row>
     <row r="751">
-      <c r="F751" s="33"/>
+      <c r="F751" s="27"/>
     </row>
     <row r="752">
-      <c r="F752" s="33"/>
+      <c r="F752" s="27"/>
     </row>
     <row r="753">
-      <c r="F753" s="33"/>
+      <c r="F753" s="27"/>
     </row>
     <row r="754">
-      <c r="F754" s="33"/>
+      <c r="F754" s="27"/>
     </row>
     <row r="755">
-      <c r="F755" s="33"/>
+      <c r="F755" s="27"/>
     </row>
     <row r="756">
-      <c r="F756" s="33"/>
+      <c r="F756" s="27"/>
     </row>
     <row r="757">
-      <c r="F757" s="33"/>
+      <c r="F757" s="27"/>
     </row>
     <row r="758">
-      <c r="F758" s="33"/>
+      <c r="F758" s="27"/>
     </row>
     <row r="759">
-      <c r="F759" s="33"/>
+      <c r="F759" s="27"/>
     </row>
     <row r="760">
-      <c r="F760" s="33"/>
+      <c r="F760" s="27"/>
     </row>
     <row r="761">
-      <c r="F761" s="33"/>
+      <c r="F761" s="27"/>
     </row>
     <row r="762">
-      <c r="F762" s="33"/>
+      <c r="F762" s="27"/>
     </row>
     <row r="763">
-      <c r="F763" s="33"/>
+      <c r="F763" s="27"/>
     </row>
     <row r="764">
-      <c r="F764" s="33"/>
+      <c r="F764" s="27"/>
     </row>
     <row r="765">
-      <c r="F765" s="33"/>
+      <c r="F765" s="27"/>
     </row>
     <row r="766">
-      <c r="F766" s="33"/>
+      <c r="F766" s="27"/>
     </row>
     <row r="767">
-      <c r="F767" s="33"/>
+      <c r="F767" s="27"/>
     </row>
     <row r="768">
-      <c r="F768" s="33"/>
+      <c r="F768" s="27"/>
     </row>
     <row r="769">
-      <c r="F769" s="33"/>
+      <c r="F769" s="27"/>
     </row>
     <row r="770">
-      <c r="F770" s="33"/>
+      <c r="F770" s="27"/>
     </row>
     <row r="771">
-      <c r="F771" s="33"/>
+      <c r="F771" s="27"/>
     </row>
     <row r="772">
-      <c r="F772" s="33"/>
+      <c r="F772" s="27"/>
     </row>
     <row r="773">
-      <c r="F773" s="33"/>
+      <c r="F773" s="27"/>
     </row>
     <row r="774">
-      <c r="F774" s="33"/>
+      <c r="F774" s="27"/>
     </row>
     <row r="775">
-      <c r="F775" s="33"/>
+      <c r="F775" s="27"/>
     </row>
     <row r="776">
-      <c r="F776" s="33"/>
+      <c r="F776" s="27"/>
     </row>
     <row r="777">
-      <c r="F777" s="33"/>
+      <c r="F777" s="27"/>
     </row>
     <row r="778">
-      <c r="F778" s="33"/>
+      <c r="F778" s="27"/>
     </row>
     <row r="779">
-      <c r="F779" s="33"/>
+      <c r="F779" s="27"/>
     </row>
     <row r="780">
-      <c r="F780" s="33"/>
+      <c r="F780" s="27"/>
     </row>
     <row r="781">
-      <c r="F781" s="33"/>
+      <c r="F781" s="27"/>
     </row>
     <row r="782">
-      <c r="F782" s="33"/>
+      <c r="F782" s="27"/>
     </row>
     <row r="783">
-      <c r="F783" s="33"/>
+      <c r="F783" s="27"/>
     </row>
     <row r="784">
-      <c r="F784" s="33"/>
+      <c r="F784" s="27"/>
     </row>
     <row r="785">
-      <c r="F785" s="33"/>
+      <c r="F785" s="27"/>
     </row>
     <row r="786">
-      <c r="F786" s="33"/>
+      <c r="F786" s="27"/>
     </row>
     <row r="787">
-      <c r="F787" s="33"/>
+      <c r="F787" s="27"/>
     </row>
     <row r="788">
-      <c r="F788" s="33"/>
+      <c r="F788" s="27"/>
     </row>
     <row r="789">
-      <c r="F789" s="33"/>
+      <c r="F789" s="27"/>
     </row>
     <row r="790">
-      <c r="F790" s="33"/>
+      <c r="F790" s="27"/>
     </row>
     <row r="791">
-      <c r="F791" s="33"/>
+      <c r="F791" s="27"/>
     </row>
     <row r="792">
-      <c r="F792" s="33"/>
+      <c r="F792" s="27"/>
     </row>
     <row r="793">
-      <c r="F793" s="33"/>
+      <c r="F793" s="27"/>
     </row>
     <row r="794">
-      <c r="F794" s="33"/>
+      <c r="F794" s="27"/>
     </row>
     <row r="795">
-      <c r="F795" s="33"/>
+      <c r="F795" s="27"/>
     </row>
     <row r="796">
-      <c r="F796" s="33"/>
+      <c r="F796" s="27"/>
     </row>
     <row r="797">
-      <c r="F797" s="33"/>
+      <c r="F797" s="27"/>
     </row>
     <row r="798">
-      <c r="F798" s="33"/>
+      <c r="F798" s="27"/>
     </row>
     <row r="799">
-      <c r="F799" s="33"/>
+      <c r="F799" s="27"/>
     </row>
     <row r="800">
-      <c r="F800" s="33"/>
+      <c r="F800" s="27"/>
     </row>
     <row r="801">
-      <c r="F801" s="33"/>
+      <c r="F801" s="27"/>
     </row>
     <row r="802">
-      <c r="F802" s="33"/>
+      <c r="F802" s="27"/>
     </row>
     <row r="803">
-      <c r="F803" s="33"/>
+      <c r="F803" s="27"/>
     </row>
     <row r="804">
-      <c r="F804" s="33"/>
+      <c r="F804" s="27"/>
     </row>
     <row r="805">
-      <c r="F805" s="33"/>
+      <c r="F805" s="27"/>
     </row>
     <row r="806">
-      <c r="F806" s="33"/>
+      <c r="F806" s="27"/>
     </row>
     <row r="807">
-      <c r="F807" s="33"/>
+      <c r="F807" s="27"/>
     </row>
     <row r="808">
-      <c r="F808" s="33"/>
+      <c r="F808" s="27"/>
     </row>
     <row r="809">
-      <c r="F809" s="33"/>
+      <c r="F809" s="27"/>
     </row>
     <row r="810">
-      <c r="F810" s="33"/>
+      <c r="F810" s="27"/>
     </row>
     <row r="811">
-      <c r="F811" s="33"/>
+      <c r="F811" s="27"/>
     </row>
     <row r="812">
-      <c r="F812" s="33"/>
+      <c r="F812" s="27"/>
     </row>
     <row r="813">
-      <c r="F813" s="33"/>
+      <c r="F813" s="27"/>
     </row>
     <row r="814">
-      <c r="F814" s="33"/>
+      <c r="F814" s="27"/>
     </row>
     <row r="815">
-      <c r="F815" s="33"/>
+      <c r="F815" s="27"/>
     </row>
     <row r="816">
-      <c r="F816" s="33"/>
+      <c r="F816" s="27"/>
     </row>
     <row r="817">
-      <c r="F817" s="33"/>
+      <c r="F817" s="27"/>
     </row>
     <row r="818">
-      <c r="F818" s="33"/>
+      <c r="F818" s="27"/>
     </row>
     <row r="819">
-      <c r="F819" s="33"/>
+      <c r="F819" s="27"/>
     </row>
     <row r="820">
-      <c r="F820" s="33"/>
+      <c r="F820" s="27"/>
     </row>
     <row r="821">
-      <c r="F821" s="33"/>
+      <c r="F821" s="27"/>
     </row>
     <row r="822">
-      <c r="F822" s="33"/>
+      <c r="F822" s="27"/>
     </row>
     <row r="823">
-      <c r="F823" s="33"/>
+      <c r="F823" s="27"/>
     </row>
     <row r="824">
-      <c r="F824" s="33"/>
+      <c r="F824" s="27"/>
     </row>
     <row r="825">
-      <c r="F825" s="33"/>
+      <c r="F825" s="27"/>
     </row>
     <row r="826">
-      <c r="F826" s="33"/>
+      <c r="F826" s="27"/>
     </row>
     <row r="827">
-      <c r="F827" s="33"/>
+      <c r="F827" s="27"/>
     </row>
     <row r="828">
-      <c r="F828" s="33"/>
+      <c r="F828" s="27"/>
     </row>
     <row r="829">
-      <c r="F829" s="33"/>
+      <c r="F829" s="27"/>
     </row>
     <row r="830">
-      <c r="F830" s="33"/>
+      <c r="F830" s="27"/>
     </row>
     <row r="831">
-      <c r="F831" s="33"/>
+      <c r="F831" s="27"/>
     </row>
     <row r="832">
-      <c r="F832" s="33"/>
+      <c r="F832" s="27"/>
     </row>
     <row r="833">
-      <c r="F833" s="33"/>
+      <c r="F833" s="27"/>
     </row>
     <row r="834">
-      <c r="F834" s="33"/>
+      <c r="F834" s="27"/>
     </row>
     <row r="835">
-      <c r="F835" s="33"/>
+      <c r="F835" s="27"/>
     </row>
     <row r="836">
-      <c r="F836" s="33"/>
+      <c r="F836" s="27"/>
     </row>
     <row r="837">
-      <c r="F837" s="33"/>
+      <c r="F837" s="27"/>
     </row>
     <row r="838">
-      <c r="F838" s="33"/>
+      <c r="F838" s="27"/>
     </row>
     <row r="839">
-      <c r="F839" s="33"/>
+      <c r="F839" s="27"/>
     </row>
     <row r="840">
-      <c r="F840" s="33"/>
+      <c r="F840" s="27"/>
     </row>
     <row r="841">
-      <c r="F841" s="33"/>
+      <c r="F841" s="27"/>
     </row>
     <row r="842">
-      <c r="F842" s="33"/>
+      <c r="F842" s="27"/>
     </row>
     <row r="843">
-      <c r="F843" s="33"/>
+      <c r="F843" s="27"/>
     </row>
     <row r="844">
-      <c r="F844" s="33"/>
+      <c r="F844" s="27"/>
     </row>
     <row r="845">
-      <c r="F845" s="33"/>
+      <c r="F845" s="27"/>
     </row>
     <row r="846">
-      <c r="F846" s="33"/>
+      <c r="F846" s="27"/>
     </row>
     <row r="847">
-      <c r="F847" s="33"/>
+      <c r="F847" s="27"/>
     </row>
     <row r="848">
-      <c r="F848" s="33"/>
+      <c r="F848" s="27"/>
     </row>
     <row r="849">
-      <c r="F849" s="33"/>
+      <c r="F849" s="27"/>
     </row>
     <row r="850">
-      <c r="F850" s="33"/>
+      <c r="F850" s="27"/>
     </row>
     <row r="851">
-      <c r="F851" s="33"/>
+      <c r="F851" s="27"/>
     </row>
     <row r="852">
-      <c r="F852" s="33"/>
+      <c r="F852" s="27"/>
     </row>
     <row r="853">
-      <c r="F853" s="33"/>
+      <c r="F853" s="27"/>
     </row>
     <row r="854">
-      <c r="F854" s="33"/>
+      <c r="F854" s="27"/>
     </row>
     <row r="855">
-      <c r="F855" s="33"/>
+      <c r="F855" s="27"/>
     </row>
     <row r="856">
-      <c r="F856" s="33"/>
+      <c r="F856" s="27"/>
     </row>
     <row r="857">
-      <c r="F857" s="33"/>
+      <c r="F857" s="27"/>
     </row>
     <row r="858">
-      <c r="F858" s="33"/>
+      <c r="F858" s="27"/>
     </row>
     <row r="859">
-      <c r="F859" s="33"/>
+      <c r="F859" s="27"/>
     </row>
     <row r="860">
-      <c r="F860" s="33"/>
+      <c r="F860" s="27"/>
     </row>
     <row r="861">
-      <c r="F861" s="33"/>
+      <c r="F861" s="27"/>
     </row>
     <row r="862">
-      <c r="F862" s="33"/>
+      <c r="F862" s="27"/>
     </row>
     <row r="863">
-      <c r="F863" s="33"/>
+      <c r="F863" s="27"/>
     </row>
     <row r="864">
-      <c r="F864" s="33"/>
+      <c r="F864" s="27"/>
     </row>
     <row r="865">
-      <c r="F865" s="33"/>
+      <c r="F865" s="27"/>
     </row>
     <row r="866">
-      <c r="F866" s="33"/>
+      <c r="F866" s="27"/>
     </row>
     <row r="867">
-      <c r="F867" s="33"/>
+      <c r="F867" s="27"/>
     </row>
     <row r="868">
-      <c r="F868" s="33"/>
+      <c r="F868" s="27"/>
     </row>
     <row r="869">
-      <c r="F869" s="33"/>
+      <c r="F869" s="27"/>
     </row>
     <row r="870">
-      <c r="F870" s="33"/>
+      <c r="F870" s="27"/>
     </row>
     <row r="871">
-      <c r="F871" s="33"/>
+      <c r="F871" s="27"/>
     </row>
     <row r="872">
-      <c r="F872" s="33"/>
+      <c r="F872" s="27"/>
     </row>
     <row r="873">
-      <c r="F873" s="33"/>
+      <c r="F873" s="27"/>
     </row>
     <row r="874">
-      <c r="F874" s="33"/>
+      <c r="F874" s="27"/>
     </row>
     <row r="875">
-      <c r="F875" s="33"/>
+      <c r="F875" s="27"/>
     </row>
     <row r="876">
-      <c r="F876" s="33"/>
+      <c r="F876" s="27"/>
     </row>
     <row r="877">
-      <c r="F877" s="33"/>
+      <c r="F877" s="27"/>
     </row>
     <row r="878">
-      <c r="F878" s="33"/>
+      <c r="F878" s="27"/>
     </row>
     <row r="879">
-      <c r="F879" s="33"/>
+      <c r="F879" s="27"/>
     </row>
     <row r="880">
-      <c r="F880" s="33"/>
+      <c r="F880" s="27"/>
     </row>
     <row r="881">
-      <c r="F881" s="33"/>
+      <c r="F881" s="27"/>
     </row>
     <row r="882">
-      <c r="F882" s="33"/>
+      <c r="F882" s="27"/>
     </row>
     <row r="883">
-      <c r="F883" s="33"/>
+      <c r="F883" s="27"/>
     </row>
     <row r="884">
-      <c r="F884" s="33"/>
+      <c r="F884" s="27"/>
     </row>
     <row r="885">
-      <c r="F885" s="33"/>
+      <c r="F885" s="27"/>
     </row>
     <row r="886">
-      <c r="F886" s="33"/>
+      <c r="F886" s="27"/>
     </row>
     <row r="887">
-      <c r="F887" s="33"/>
+      <c r="F887" s="27"/>
     </row>
     <row r="888">
-      <c r="F888" s="33"/>
+      <c r="F888" s="27"/>
     </row>
     <row r="889">
-      <c r="F889" s="33"/>
+      <c r="F889" s="27"/>
     </row>
     <row r="890">
-      <c r="F890" s="33"/>
+      <c r="F890" s="27"/>
     </row>
     <row r="891">
-      <c r="F891" s="33"/>
+      <c r="F891" s="27"/>
     </row>
     <row r="892">
-      <c r="F892" s="33"/>
+      <c r="F892" s="27"/>
     </row>
     <row r="893">
-      <c r="F893" s="33"/>
+      <c r="F893" s="27"/>
     </row>
     <row r="894">
-      <c r="F894" s="33"/>
+      <c r="F894" s="27"/>
     </row>
     <row r="895">
-      <c r="F895" s="33"/>
+      <c r="F895" s="27"/>
     </row>
     <row r="896">
-      <c r="F896" s="33"/>
+      <c r="F896" s="27"/>
     </row>
     <row r="897">
-      <c r="F897" s="33"/>
+      <c r="F897" s="27"/>
     </row>
     <row r="898">
-      <c r="F898" s="33"/>
+      <c r="F898" s="27"/>
     </row>
     <row r="899">
-      <c r="F899" s="33"/>
+      <c r="F899" s="27"/>
     </row>
     <row r="900">
-      <c r="F900" s="33"/>
+      <c r="F900" s="27"/>
     </row>
     <row r="901">
-      <c r="F901" s="33"/>
+      <c r="F901" s="27"/>
     </row>
     <row r="902">
-      <c r="F902" s="33"/>
+      <c r="F902" s="27"/>
     </row>
     <row r="903">
-      <c r="F903" s="33"/>
+      <c r="F903" s="27"/>
     </row>
     <row r="904">
-      <c r="F904" s="33"/>
+      <c r="F904" s="27"/>
     </row>
     <row r="905">
-      <c r="F905" s="33"/>
+      <c r="F905" s="27"/>
     </row>
     <row r="906">
-      <c r="F906" s="33"/>
+      <c r="F906" s="27"/>
     </row>
     <row r="907">
-      <c r="F907" s="33"/>
+      <c r="F907" s="27"/>
     </row>
     <row r="908">
-      <c r="F908" s="33"/>
+      <c r="F908" s="27"/>
     </row>
     <row r="909">
-      <c r="F909" s="33"/>
+      <c r="F909" s="27"/>
     </row>
     <row r="910">
-      <c r="F910" s="33"/>
+      <c r="F910" s="27"/>
     </row>
     <row r="911">
-      <c r="F911" s="33"/>
+      <c r="F911" s="27"/>
     </row>
     <row r="912">
-      <c r="F912" s="33"/>
+      <c r="F912" s="27"/>
     </row>
     <row r="913">
-      <c r="F913" s="33"/>
+      <c r="F913" s="27"/>
     </row>
     <row r="914">
-      <c r="F914" s="33"/>
+      <c r="F914" s="27"/>
     </row>
     <row r="915">
-      <c r="F915" s="33"/>
+      <c r="F915" s="27"/>
     </row>
     <row r="916">
-      <c r="F916" s="33"/>
+      <c r="F916" s="27"/>
     </row>
     <row r="917">
-      <c r="F917" s="33"/>
+      <c r="F917" s="27"/>
     </row>
     <row r="918">
-      <c r="F918" s="33"/>
+      <c r="F918" s="27"/>
     </row>
     <row r="919">
-      <c r="F919" s="33"/>
+      <c r="F919" s="27"/>
     </row>
     <row r="920">
-      <c r="F920" s="33"/>
+      <c r="F920" s="27"/>
     </row>
     <row r="921">
-      <c r="F921" s="33"/>
+      <c r="F921" s="27"/>
     </row>
     <row r="922">
-      <c r="F922" s="33"/>
+      <c r="F922" s="27"/>
     </row>
     <row r="923">
-      <c r="F923" s="33"/>
+      <c r="F923" s="27"/>
     </row>
     <row r="924">
-      <c r="F924" s="33"/>
+      <c r="F924" s="27"/>
     </row>
     <row r="925">
-      <c r="F925" s="33"/>
+      <c r="F925" s="27"/>
     </row>
     <row r="926">
-      <c r="F926" s="33"/>
+      <c r="F926" s="27"/>
     </row>
     <row r="927">
-      <c r="F927" s="33"/>
+      <c r="F927" s="27"/>
     </row>
     <row r="928">
-      <c r="F928" s="33"/>
+      <c r="F928" s="27"/>
     </row>
     <row r="929">
-      <c r="F929" s="33"/>
+      <c r="F929" s="27"/>
     </row>
     <row r="930">
-      <c r="F930" s="33"/>
+      <c r="F930" s="27"/>
     </row>
     <row r="931">
-      <c r="F931" s="33"/>
+      <c r="F931" s="27"/>
     </row>
     <row r="932">
-      <c r="F932" s="33"/>
+      <c r="F932" s="27"/>
     </row>
     <row r="933">
-      <c r="F933" s="33"/>
+      <c r="F933" s="27"/>
     </row>
     <row r="934">
-      <c r="F934" s="33"/>
+      <c r="F934" s="27"/>
     </row>
     <row r="935">
-      <c r="F935" s="33"/>
+      <c r="F935" s="27"/>
     </row>
     <row r="936">
-      <c r="F936" s="33"/>
+      <c r="F936" s="27"/>
     </row>
     <row r="937">
-      <c r="F937" s="33"/>
+      <c r="F937" s="27"/>
     </row>
     <row r="938">
-      <c r="F938" s="33"/>
+      <c r="F938" s="27"/>
     </row>
     <row r="939">
-      <c r="F939" s="33"/>
+      <c r="F939" s="27"/>
     </row>
     <row r="940">
-      <c r="F940" s="33"/>
+      <c r="F940" s="27"/>
     </row>
     <row r="941">
-      <c r="F941" s="33"/>
+      <c r="F941" s="27"/>
     </row>
     <row r="942">
-      <c r="F942" s="33"/>
+      <c r="F942" s="27"/>
     </row>
     <row r="943">
-      <c r="F943" s="33"/>
+      <c r="F943" s="27"/>
     </row>
     <row r="944">
-      <c r="F944" s="33"/>
+      <c r="F944" s="27"/>
     </row>
     <row r="945">
-      <c r="F945" s="33"/>
+      <c r="F945" s="27"/>
     </row>
     <row r="946">
-      <c r="F946" s="33"/>
+      <c r="F946" s="27"/>
     </row>
     <row r="947">
-      <c r="F947" s="33"/>
+      <c r="F947" s="27"/>
     </row>
     <row r="948">
-      <c r="F948" s="33"/>
+      <c r="F948" s="27"/>
     </row>
     <row r="949">
-      <c r="F949" s="33"/>
+      <c r="F949" s="27"/>
     </row>
     <row r="950">
-      <c r="F950" s="33"/>
+      <c r="F950" s="27"/>
     </row>
     <row r="951">
-      <c r="F951" s="33"/>
+      <c r="F951" s="27"/>
     </row>
     <row r="952">
-      <c r="F952" s="33"/>
+      <c r="F952" s="27"/>
     </row>
     <row r="953">
-      <c r="F953" s="33"/>
+      <c r="F953" s="27"/>
     </row>
     <row r="954">
-      <c r="F954" s="33"/>
+      <c r="F954" s="27"/>
     </row>
     <row r="955">
-      <c r="F955" s="33"/>
+      <c r="F955" s="27"/>
     </row>
     <row r="956">
-      <c r="F956" s="33"/>
+      <c r="F956" s="27"/>
     </row>
     <row r="957">
-      <c r="F957" s="33"/>
+      <c r="F957" s="27"/>
     </row>
     <row r="958">
-      <c r="F958" s="33"/>
+      <c r="F958" s="27"/>
     </row>
     <row r="959">
-      <c r="F959" s="33"/>
+      <c r="F959" s="27"/>
     </row>
     <row r="960">
-      <c r="F960" s="33"/>
+      <c r="F960" s="27"/>
     </row>
     <row r="961">
-      <c r="F961" s="33"/>
+      <c r="F961" s="27"/>
     </row>
     <row r="962">
-      <c r="F962" s="33"/>
+      <c r="F962" s="27"/>
     </row>
     <row r="963">
-      <c r="F963" s="33"/>
+      <c r="F963" s="27"/>
     </row>
     <row r="964">
-      <c r="F964" s="33"/>
+      <c r="F964" s="27"/>
     </row>
     <row r="965">
-      <c r="F965" s="33"/>
+      <c r="F965" s="27"/>
     </row>
     <row r="966">
-      <c r="F966" s="33"/>
+      <c r="F966" s="27"/>
     </row>
     <row r="967">
-      <c r="F967" s="33"/>
+      <c r="F967" s="27"/>
     </row>
     <row r="968">
-      <c r="F968" s="33"/>
+      <c r="F968" s="27"/>
     </row>
     <row r="969">
-      <c r="F969" s="33"/>
+      <c r="F969" s="27"/>
     </row>
     <row r="970">
-      <c r="F970" s="33"/>
+      <c r="F970" s="27"/>
     </row>
     <row r="971">
-      <c r="F971" s="33"/>
+      <c r="F971" s="27"/>
     </row>
     <row r="972">
-      <c r="F972" s="33"/>
+      <c r="F972" s="27"/>
     </row>
     <row r="973">
-      <c r="F973" s="33"/>
+      <c r="F973" s="27"/>
     </row>
     <row r="974">
-      <c r="F974" s="33"/>
+      <c r="F974" s="27"/>
     </row>
     <row r="975">
-      <c r="F975" s="33"/>
+      <c r="F975" s="27"/>
     </row>
     <row r="976">
-      <c r="F976" s="33"/>
+      <c r="F976" s="27"/>
     </row>
     <row r="977">
-      <c r="F977" s="33"/>
+      <c r="F977" s="27"/>
     </row>
     <row r="978">
-      <c r="F978" s="33"/>
+      <c r="F978" s="27"/>
     </row>
     <row r="979">
-      <c r="F979" s="33"/>
+      <c r="F979" s="27"/>
     </row>
     <row r="980">
-      <c r="F980" s="33"/>
+      <c r="F980" s="27"/>
     </row>
     <row r="981">
-      <c r="F981" s="33"/>
+      <c r="F981" s="27"/>
     </row>
     <row r="982">
-      <c r="F982" s="33"/>
+      <c r="F982" s="27"/>
     </row>
     <row r="983">
-      <c r="F983" s="33"/>
+      <c r="F983" s="27"/>
     </row>
     <row r="984">
-      <c r="F984" s="33"/>
+      <c r="F984" s="27"/>
     </row>
     <row r="985">
-      <c r="F985" s="33"/>
+      <c r="F985" s="27"/>
     </row>
     <row r="986">
-      <c r="F986" s="33"/>
+      <c r="F986" s="27"/>
     </row>
     <row r="987">
-      <c r="F987" s="33"/>
+      <c r="F987" s="27"/>
     </row>
     <row r="988">
-      <c r="F988" s="33"/>
+      <c r="F988" s="27"/>
     </row>
     <row r="989">
-      <c r="F989" s="33"/>
+      <c r="F989" s="27"/>
     </row>
     <row r="990">
-      <c r="F990" s="33"/>
+      <c r="F990" s="27"/>
     </row>
     <row r="991">
-      <c r="F991" s="33"/>
+      <c r="F991" s="27"/>
     </row>
     <row r="992">
-      <c r="F992" s="33"/>
+      <c r="F992" s="27"/>
     </row>
     <row r="993">
-      <c r="F993" s="33"/>
+      <c r="F993" s="27"/>
     </row>
     <row r="994">
-      <c r="F994" s="33"/>
+      <c r="F994" s="27"/>
     </row>
     <row r="995">
-      <c r="F995" s="33"/>
+      <c r="F995" s="27"/>
     </row>
     <row r="996">
-      <c r="F996" s="33"/>
+      <c r="F996" s="27"/>
     </row>
     <row r="997">
-      <c r="F997" s="33"/>
+      <c r="F997" s="27"/>
     </row>
     <row r="998">
-      <c r="F998" s="33"/>
+      <c r="F998" s="27"/>
     </row>
     <row r="999">
-      <c r="F999" s="33"/>
+      <c r="F999" s="27"/>
     </row>
     <row r="1000">
-      <c r="F1000" s="33"/>
+      <c r="F1000" s="27"/>
     </row>
     <row r="1001">
-      <c r="F1001" s="33"/>
+      <c r="F1001" s="27"/>
     </row>
     <row r="1002">
-      <c r="F1002" s="33"/>
+      <c r="F1002" s="27"/>
     </row>
     <row r="1003">
-      <c r="F1003" s="33"/>
+      <c r="F1003" s="27"/>
     </row>
     <row r="1004">
-      <c r="F1004" s="33"/>
+      <c r="F1004" s="27"/>
     </row>
     <row r="1005">
-      <c r="F1005" s="33"/>
+      <c r="F1005" s="27"/>
     </row>
     <row r="1006">
-      <c r="F1006" s="33"/>
+      <c r="F1006" s="27"/>
     </row>
     <row r="1007">
-      <c r="F1007" s="33"/>
+      <c r="F1007" s="27"/>
     </row>
     <row r="1008">
-      <c r="F1008" s="33"/>
+      <c r="F1008" s="27"/>
     </row>
     <row r="1009">
-      <c r="F1009" s="33"/>
+      <c r="F1009" s="27"/>
     </row>
     <row r="1010">
-      <c r="F1010" s="33"/>
+      <c r="F1010" s="27"/>
     </row>
     <row r="1011">
-      <c r="F1011" s="33"/>
+      <c r="F1011" s="27"/>
     </row>
     <row r="1012">
-      <c r="F1012" s="33"/>
+      <c r="F1012" s="27"/>
     </row>
     <row r="1013">
-      <c r="F1013" s="33"/>
+      <c r="F1013" s="27"/>
     </row>
     <row r="1014">
-      <c r="F1014" s="33"/>
+      <c r="F1014" s="27"/>
     </row>
     <row r="1015">
-      <c r="F1015" s="33"/>
+      <c r="F1015" s="27"/>
     </row>
     <row r="1016">
-      <c r="F1016" s="33"/>
+      <c r="F1016" s="27"/>
     </row>
     <row r="1017">
-      <c r="F1017" s="33"/>
+      <c r="F1017" s="27"/>
     </row>
     <row r="1018">
-      <c r="F1018" s="33"/>
+      <c r="F1018" s="27"/>
     </row>
     <row r="1019">
-      <c r="F1019" s="33"/>
+      <c r="F1019" s="27"/>
     </row>
     <row r="1020">
-      <c r="F1020" s="33"/>
+      <c r="F1020" s="27"/>
     </row>
     <row r="1021">
-      <c r="F1021" s="33"/>
+      <c r="F1021" s="27"/>
     </row>
     <row r="1022">
-      <c r="F1022" s="33"/>
+      <c r="F1022" s="27"/>
     </row>
     <row r="1023">
-      <c r="F1023" s="33"/>
+      <c r="F1023" s="27"/>
     </row>
     <row r="1024">
-      <c r="F1024" s="33"/>
+      <c r="F1024" s="27"/>
     </row>
     <row r="1025">
-      <c r="F1025" s="33"/>
+      <c r="F1025" s="27"/>
     </row>
     <row r="1026">
-      <c r="F1026" s="33"/>
+      <c r="F1026" s="27"/>
     </row>
     <row r="1027">
-      <c r="F1027" s="33"/>
+      <c r="F1027" s="27"/>
     </row>
     <row r="1028">
-      <c r="F1028" s="33"/>
+      <c r="F1028" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/lib/samples/assets/csv/institutions.xlsx
+++ b/lib/samples/assets/csv/institutions.xlsx
@@ -561,14 +561,7 @@
     <t>+60 34 257 1150/+60 34257 3711</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <sz val="10.0"/>
-        <u/>
-      </rPr>
-      <t>https://web.facebook.com/Royal-Embassy-of-Cambodia-to-Malaysia-1577860455843158/</t>
-    </r>
+    <t>https://web.facebook.com/Royal-Embassy-of-Cambodia-to-Malaysia-1577860455843158/</t>
   </si>
   <si>
     <t>my_police</t>
@@ -974,7 +967,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1034,11 +1027,6 @@
     </font>
     <font>
       <u/>
-      <sz val="10.0"/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
     </font>
@@ -1069,7 +1057,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1137,13 +1125,10 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2324,7 +2309,7 @@
       <c r="F33" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G33" s="23" t="s">
+      <c r="G33" s="15" t="s">
         <v>177</v>
       </c>
       <c r="H33" s="9"/>
@@ -3057,7 +3042,7 @@
         <v>87</v>
       </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="24" t="s">
+      <c r="F65" s="23" t="s">
         <v>284</v>
       </c>
       <c r="G65" s="15" t="s">
@@ -3072,14 +3057,14 @@
       <c r="M65" s="2"/>
       <c r="N65" s="11"/>
       <c r="O65" s="21"/>
-      <c r="P65" s="25"/>
+      <c r="P65" s="24"/>
       <c r="Q65" s="10"/>
       <c r="S65" s="7"/>
       <c r="T65" s="4"/>
       <c r="U65" s="2"/>
       <c r="V65" s="11"/>
       <c r="W65" s="21"/>
-      <c r="X65" s="25"/>
+      <c r="X65" s="24"/>
     </row>
     <row r="66">
       <c r="A66" s="10" t="s">
@@ -3231,7 +3216,7 @@
         <v>308</v>
       </c>
       <c r="E72" s="9"/>
-      <c r="F72" s="26" t="s">
+      <c r="F72" s="25" t="s">
         <v>309</v>
       </c>
       <c r="G72" s="15" t="s">
@@ -3242,2872 +3227,2872 @@
       <c r="J72" s="9"/>
     </row>
     <row r="73">
-      <c r="F73" s="27"/>
+      <c r="F73" s="26"/>
     </row>
     <row r="74">
-      <c r="F74" s="27"/>
+      <c r="F74" s="26"/>
     </row>
     <row r="75">
-      <c r="F75" s="27"/>
+      <c r="F75" s="26"/>
     </row>
     <row r="76">
-      <c r="F76" s="27"/>
+      <c r="F76" s="26"/>
     </row>
     <row r="77">
-      <c r="F77" s="27"/>
+      <c r="F77" s="26"/>
     </row>
     <row r="78">
-      <c r="F78" s="27"/>
+      <c r="F78" s="26"/>
     </row>
     <row r="79">
-      <c r="F79" s="27"/>
+      <c r="F79" s="26"/>
     </row>
     <row r="80">
-      <c r="F80" s="27"/>
+      <c r="F80" s="26"/>
     </row>
     <row r="81">
-      <c r="F81" s="27"/>
+      <c r="F81" s="26"/>
     </row>
     <row r="82">
-      <c r="F82" s="27"/>
+      <c r="F82" s="26"/>
     </row>
     <row r="83">
-      <c r="F83" s="27"/>
+      <c r="F83" s="26"/>
     </row>
     <row r="84">
-      <c r="F84" s="27"/>
+      <c r="F84" s="26"/>
     </row>
     <row r="85">
-      <c r="F85" s="27"/>
+      <c r="F85" s="26"/>
     </row>
     <row r="86">
-      <c r="F86" s="27"/>
+      <c r="F86" s="26"/>
     </row>
     <row r="87">
-      <c r="F87" s="27"/>
+      <c r="F87" s="26"/>
     </row>
     <row r="88">
-      <c r="F88" s="27"/>
+      <c r="F88" s="26"/>
     </row>
     <row r="89">
-      <c r="F89" s="27"/>
+      <c r="F89" s="26"/>
     </row>
     <row r="90">
-      <c r="F90" s="27"/>
+      <c r="F90" s="26"/>
     </row>
     <row r="91">
-      <c r="F91" s="27"/>
+      <c r="F91" s="26"/>
     </row>
     <row r="92">
-      <c r="F92" s="27"/>
+      <c r="F92" s="26"/>
     </row>
     <row r="93">
-      <c r="F93" s="27"/>
+      <c r="F93" s="26"/>
     </row>
     <row r="94">
-      <c r="F94" s="27"/>
+      <c r="F94" s="26"/>
     </row>
     <row r="95">
-      <c r="F95" s="27"/>
+      <c r="F95" s="26"/>
     </row>
     <row r="96">
-      <c r="F96" s="27"/>
+      <c r="F96" s="26"/>
     </row>
     <row r="97">
-      <c r="F97" s="27"/>
+      <c r="F97" s="26"/>
     </row>
     <row r="98">
-      <c r="F98" s="27"/>
+      <c r="F98" s="26"/>
     </row>
     <row r="99">
-      <c r="F99" s="27"/>
+      <c r="F99" s="26"/>
     </row>
     <row r="100">
-      <c r="F100" s="27"/>
+      <c r="F100" s="26"/>
     </row>
     <row r="101">
-      <c r="F101" s="27"/>
+      <c r="F101" s="26"/>
     </row>
     <row r="102">
-      <c r="F102" s="27"/>
+      <c r="F102" s="26"/>
     </row>
     <row r="103">
-      <c r="F103" s="27"/>
+      <c r="F103" s="26"/>
     </row>
     <row r="104">
-      <c r="F104" s="27"/>
+      <c r="F104" s="26"/>
     </row>
     <row r="105">
-      <c r="F105" s="27"/>
+      <c r="F105" s="26"/>
     </row>
     <row r="106">
-      <c r="F106" s="27"/>
+      <c r="F106" s="26"/>
     </row>
     <row r="107">
-      <c r="F107" s="27"/>
+      <c r="F107" s="26"/>
     </row>
     <row r="108">
-      <c r="F108" s="27"/>
+      <c r="F108" s="26"/>
     </row>
     <row r="109">
-      <c r="F109" s="27"/>
+      <c r="F109" s="26"/>
     </row>
     <row r="110">
-      <c r="F110" s="27"/>
+      <c r="F110" s="26"/>
     </row>
     <row r="111">
-      <c r="F111" s="27"/>
+      <c r="F111" s="26"/>
     </row>
     <row r="112">
-      <c r="F112" s="27"/>
+      <c r="F112" s="26"/>
     </row>
     <row r="113">
-      <c r="F113" s="27"/>
+      <c r="F113" s="26"/>
     </row>
     <row r="114">
-      <c r="F114" s="27"/>
+      <c r="F114" s="26"/>
     </row>
     <row r="115">
-      <c r="F115" s="27"/>
+      <c r="F115" s="26"/>
     </row>
     <row r="116">
-      <c r="F116" s="27"/>
+      <c r="F116" s="26"/>
     </row>
     <row r="117">
-      <c r="F117" s="27"/>
+      <c r="F117" s="26"/>
     </row>
     <row r="118">
-      <c r="F118" s="27"/>
+      <c r="F118" s="26"/>
     </row>
     <row r="119">
-      <c r="F119" s="27"/>
+      <c r="F119" s="26"/>
     </row>
     <row r="120">
-      <c r="F120" s="27"/>
+      <c r="F120" s="26"/>
     </row>
     <row r="121">
-      <c r="F121" s="27"/>
+      <c r="F121" s="26"/>
     </row>
     <row r="122">
-      <c r="F122" s="27"/>
+      <c r="F122" s="26"/>
     </row>
     <row r="123">
-      <c r="F123" s="27"/>
+      <c r="F123" s="26"/>
     </row>
     <row r="124">
-      <c r="F124" s="27"/>
+      <c r="F124" s="26"/>
     </row>
     <row r="125">
-      <c r="F125" s="27"/>
+      <c r="F125" s="26"/>
     </row>
     <row r="126">
-      <c r="F126" s="27"/>
+      <c r="F126" s="26"/>
     </row>
     <row r="127">
-      <c r="F127" s="27"/>
+      <c r="F127" s="26"/>
     </row>
     <row r="128">
-      <c r="F128" s="27"/>
+      <c r="F128" s="26"/>
     </row>
     <row r="129">
-      <c r="F129" s="27"/>
+      <c r="F129" s="26"/>
     </row>
     <row r="130">
-      <c r="F130" s="27"/>
+      <c r="F130" s="26"/>
     </row>
     <row r="131">
-      <c r="F131" s="27"/>
+      <c r="F131" s="26"/>
     </row>
     <row r="132">
-      <c r="F132" s="27"/>
+      <c r="F132" s="26"/>
     </row>
     <row r="133">
-      <c r="F133" s="27"/>
+      <c r="F133" s="26"/>
     </row>
     <row r="134">
-      <c r="F134" s="27"/>
+      <c r="F134" s="26"/>
     </row>
     <row r="135">
-      <c r="F135" s="27"/>
+      <c r="F135" s="26"/>
     </row>
     <row r="136">
-      <c r="F136" s="27"/>
+      <c r="F136" s="26"/>
     </row>
     <row r="137">
-      <c r="F137" s="27"/>
+      <c r="F137" s="26"/>
     </row>
     <row r="138">
-      <c r="F138" s="27"/>
+      <c r="F138" s="26"/>
     </row>
     <row r="139">
-      <c r="F139" s="27"/>
+      <c r="F139" s="26"/>
     </row>
     <row r="140">
-      <c r="F140" s="27"/>
+      <c r="F140" s="26"/>
     </row>
     <row r="141">
-      <c r="F141" s="27"/>
+      <c r="F141" s="26"/>
     </row>
     <row r="142">
-      <c r="F142" s="27"/>
+      <c r="F142" s="26"/>
     </row>
     <row r="143">
-      <c r="F143" s="27"/>
+      <c r="F143" s="26"/>
     </row>
     <row r="144">
-      <c r="F144" s="27"/>
+      <c r="F144" s="26"/>
     </row>
     <row r="145">
-      <c r="F145" s="27"/>
+      <c r="F145" s="26"/>
     </row>
     <row r="146">
-      <c r="F146" s="27"/>
+      <c r="F146" s="26"/>
     </row>
     <row r="147">
-      <c r="F147" s="27"/>
+      <c r="F147" s="26"/>
     </row>
     <row r="148">
-      <c r="F148" s="27"/>
+      <c r="F148" s="26"/>
     </row>
     <row r="149">
-      <c r="F149" s="27"/>
+      <c r="F149" s="26"/>
     </row>
     <row r="150">
-      <c r="F150" s="27"/>
+      <c r="F150" s="26"/>
     </row>
     <row r="151">
-      <c r="F151" s="27"/>
+      <c r="F151" s="26"/>
     </row>
     <row r="152">
-      <c r="F152" s="27"/>
+      <c r="F152" s="26"/>
     </row>
     <row r="153">
-      <c r="F153" s="27"/>
+      <c r="F153" s="26"/>
     </row>
     <row r="154">
-      <c r="F154" s="27"/>
+      <c r="F154" s="26"/>
     </row>
     <row r="155">
-      <c r="F155" s="27"/>
+      <c r="F155" s="26"/>
     </row>
     <row r="156">
-      <c r="F156" s="27"/>
+      <c r="F156" s="26"/>
     </row>
     <row r="157">
-      <c r="F157" s="27"/>
+      <c r="F157" s="26"/>
     </row>
     <row r="158">
-      <c r="F158" s="27"/>
+      <c r="F158" s="26"/>
     </row>
     <row r="159">
-      <c r="F159" s="27"/>
+      <c r="F159" s="26"/>
     </row>
     <row r="160">
-      <c r="F160" s="27"/>
+      <c r="F160" s="26"/>
     </row>
     <row r="161">
-      <c r="F161" s="27"/>
+      <c r="F161" s="26"/>
     </row>
     <row r="162">
-      <c r="F162" s="27"/>
+      <c r="F162" s="26"/>
     </row>
     <row r="163">
-      <c r="F163" s="27"/>
+      <c r="F163" s="26"/>
     </row>
     <row r="164">
-      <c r="F164" s="27"/>
+      <c r="F164" s="26"/>
     </row>
     <row r="165">
-      <c r="F165" s="27"/>
+      <c r="F165" s="26"/>
     </row>
     <row r="166">
-      <c r="F166" s="27"/>
+      <c r="F166" s="26"/>
     </row>
     <row r="167">
-      <c r="F167" s="27"/>
+      <c r="F167" s="26"/>
     </row>
     <row r="168">
-      <c r="F168" s="27"/>
+      <c r="F168" s="26"/>
     </row>
     <row r="169">
-      <c r="F169" s="27"/>
+      <c r="F169" s="26"/>
     </row>
     <row r="170">
-      <c r="F170" s="27"/>
+      <c r="F170" s="26"/>
     </row>
     <row r="171">
-      <c r="F171" s="27"/>
+      <c r="F171" s="26"/>
     </row>
     <row r="172">
-      <c r="F172" s="27"/>
+      <c r="F172" s="26"/>
     </row>
     <row r="173">
-      <c r="F173" s="27"/>
+      <c r="F173" s="26"/>
     </row>
     <row r="174">
-      <c r="F174" s="27"/>
+      <c r="F174" s="26"/>
     </row>
     <row r="175">
-      <c r="F175" s="27"/>
+      <c r="F175" s="26"/>
     </row>
     <row r="176">
-      <c r="F176" s="27"/>
+      <c r="F176" s="26"/>
     </row>
     <row r="177">
-      <c r="F177" s="27"/>
+      <c r="F177" s="26"/>
     </row>
     <row r="178">
-      <c r="F178" s="27"/>
+      <c r="F178" s="26"/>
     </row>
     <row r="179">
-      <c r="F179" s="27"/>
+      <c r="F179" s="26"/>
     </row>
     <row r="180">
-      <c r="F180" s="27"/>
+      <c r="F180" s="26"/>
     </row>
     <row r="181">
-      <c r="F181" s="27"/>
+      <c r="F181" s="26"/>
     </row>
     <row r="182">
-      <c r="F182" s="27"/>
+      <c r="F182" s="26"/>
     </row>
     <row r="183">
-      <c r="F183" s="27"/>
+      <c r="F183" s="26"/>
     </row>
     <row r="184">
-      <c r="F184" s="27"/>
+      <c r="F184" s="26"/>
     </row>
     <row r="185">
-      <c r="F185" s="27"/>
+      <c r="F185" s="26"/>
     </row>
     <row r="186">
-      <c r="F186" s="27"/>
+      <c r="F186" s="26"/>
     </row>
     <row r="187">
-      <c r="F187" s="27"/>
+      <c r="F187" s="26"/>
     </row>
     <row r="188">
-      <c r="F188" s="27"/>
+      <c r="F188" s="26"/>
     </row>
     <row r="189">
-      <c r="F189" s="27"/>
+      <c r="F189" s="26"/>
     </row>
     <row r="190">
-      <c r="F190" s="27"/>
+      <c r="F190" s="26"/>
     </row>
     <row r="191">
-      <c r="F191" s="27"/>
+      <c r="F191" s="26"/>
     </row>
     <row r="192">
-      <c r="F192" s="27"/>
+      <c r="F192" s="26"/>
     </row>
     <row r="193">
-      <c r="F193" s="27"/>
+      <c r="F193" s="26"/>
     </row>
     <row r="194">
-      <c r="F194" s="27"/>
+      <c r="F194" s="26"/>
     </row>
     <row r="195">
-      <c r="F195" s="27"/>
+      <c r="F195" s="26"/>
     </row>
     <row r="196">
-      <c r="F196" s="27"/>
+      <c r="F196" s="26"/>
     </row>
     <row r="197">
-      <c r="F197" s="27"/>
+      <c r="F197" s="26"/>
     </row>
     <row r="198">
-      <c r="F198" s="27"/>
+      <c r="F198" s="26"/>
     </row>
     <row r="199">
-      <c r="F199" s="27"/>
+      <c r="F199" s="26"/>
     </row>
     <row r="200">
-      <c r="F200" s="27"/>
+      <c r="F200" s="26"/>
     </row>
     <row r="201">
-      <c r="F201" s="27"/>
+      <c r="F201" s="26"/>
     </row>
     <row r="202">
-      <c r="F202" s="27"/>
+      <c r="F202" s="26"/>
     </row>
     <row r="203">
-      <c r="F203" s="27"/>
+      <c r="F203" s="26"/>
     </row>
     <row r="204">
-      <c r="F204" s="27"/>
+      <c r="F204" s="26"/>
     </row>
     <row r="205">
-      <c r="F205" s="27"/>
+      <c r="F205" s="26"/>
     </row>
     <row r="206">
-      <c r="F206" s="27"/>
+      <c r="F206" s="26"/>
     </row>
     <row r="207">
-      <c r="F207" s="27"/>
+      <c r="F207" s="26"/>
     </row>
     <row r="208">
-      <c r="F208" s="27"/>
+      <c r="F208" s="26"/>
     </row>
     <row r="209">
-      <c r="F209" s="27"/>
+      <c r="F209" s="26"/>
     </row>
     <row r="210">
-      <c r="F210" s="27"/>
+      <c r="F210" s="26"/>
     </row>
     <row r="211">
-      <c r="F211" s="27"/>
+      <c r="F211" s="26"/>
     </row>
     <row r="212">
-      <c r="F212" s="27"/>
+      <c r="F212" s="26"/>
     </row>
     <row r="213">
-      <c r="F213" s="27"/>
+      <c r="F213" s="26"/>
     </row>
     <row r="214">
-      <c r="F214" s="27"/>
+      <c r="F214" s="26"/>
     </row>
     <row r="215">
-      <c r="F215" s="27"/>
+      <c r="F215" s="26"/>
     </row>
     <row r="216">
-      <c r="F216" s="27"/>
+      <c r="F216" s="26"/>
     </row>
     <row r="217">
-      <c r="F217" s="27"/>
+      <c r="F217" s="26"/>
     </row>
     <row r="218">
-      <c r="F218" s="27"/>
+      <c r="F218" s="26"/>
     </row>
     <row r="219">
-      <c r="F219" s="27"/>
+      <c r="F219" s="26"/>
     </row>
     <row r="220">
-      <c r="F220" s="27"/>
+      <c r="F220" s="26"/>
     </row>
     <row r="221">
-      <c r="F221" s="27"/>
+      <c r="F221" s="26"/>
     </row>
     <row r="222">
-      <c r="F222" s="27"/>
+      <c r="F222" s="26"/>
     </row>
     <row r="223">
-      <c r="F223" s="27"/>
+      <c r="F223" s="26"/>
     </row>
     <row r="224">
-      <c r="F224" s="27"/>
+      <c r="F224" s="26"/>
     </row>
     <row r="225">
-      <c r="F225" s="27"/>
+      <c r="F225" s="26"/>
     </row>
     <row r="226">
-      <c r="F226" s="27"/>
+      <c r="F226" s="26"/>
     </row>
     <row r="227">
-      <c r="F227" s="27"/>
+      <c r="F227" s="26"/>
     </row>
     <row r="228">
-      <c r="F228" s="27"/>
+      <c r="F228" s="26"/>
     </row>
     <row r="229">
-      <c r="F229" s="27"/>
+      <c r="F229" s="26"/>
     </row>
     <row r="230">
-      <c r="F230" s="27"/>
+      <c r="F230" s="26"/>
     </row>
     <row r="231">
-      <c r="F231" s="27"/>
+      <c r="F231" s="26"/>
     </row>
     <row r="232">
-      <c r="F232" s="27"/>
+      <c r="F232" s="26"/>
     </row>
     <row r="233">
-      <c r="F233" s="27"/>
+      <c r="F233" s="26"/>
     </row>
     <row r="234">
-      <c r="F234" s="27"/>
+      <c r="F234" s="26"/>
     </row>
     <row r="235">
-      <c r="F235" s="27"/>
+      <c r="F235" s="26"/>
     </row>
     <row r="236">
-      <c r="F236" s="27"/>
+      <c r="F236" s="26"/>
     </row>
     <row r="237">
-      <c r="F237" s="27"/>
+      <c r="F237" s="26"/>
     </row>
     <row r="238">
-      <c r="F238" s="27"/>
+      <c r="F238" s="26"/>
     </row>
     <row r="239">
-      <c r="F239" s="27"/>
+      <c r="F239" s="26"/>
     </row>
     <row r="240">
-      <c r="F240" s="27"/>
+      <c r="F240" s="26"/>
     </row>
     <row r="241">
-      <c r="F241" s="27"/>
+      <c r="F241" s="26"/>
     </row>
     <row r="242">
-      <c r="F242" s="27"/>
+      <c r="F242" s="26"/>
     </row>
     <row r="243">
-      <c r="F243" s="27"/>
+      <c r="F243" s="26"/>
     </row>
     <row r="244">
-      <c r="F244" s="27"/>
+      <c r="F244" s="26"/>
     </row>
     <row r="245">
-      <c r="F245" s="27"/>
+      <c r="F245" s="26"/>
     </row>
     <row r="246">
-      <c r="F246" s="27"/>
+      <c r="F246" s="26"/>
     </row>
     <row r="247">
-      <c r="F247" s="27"/>
+      <c r="F247" s="26"/>
     </row>
     <row r="248">
-      <c r="F248" s="27"/>
+      <c r="F248" s="26"/>
     </row>
     <row r="249">
-      <c r="F249" s="27"/>
+      <c r="F249" s="26"/>
     </row>
     <row r="250">
-      <c r="F250" s="27"/>
+      <c r="F250" s="26"/>
     </row>
     <row r="251">
-      <c r="F251" s="27"/>
+      <c r="F251" s="26"/>
     </row>
     <row r="252">
-      <c r="F252" s="27"/>
+      <c r="F252" s="26"/>
     </row>
     <row r="253">
-      <c r="F253" s="27"/>
+      <c r="F253" s="26"/>
     </row>
     <row r="254">
-      <c r="F254" s="27"/>
+      <c r="F254" s="26"/>
     </row>
     <row r="255">
-      <c r="F255" s="27"/>
+      <c r="F255" s="26"/>
     </row>
     <row r="256">
-      <c r="F256" s="27"/>
+      <c r="F256" s="26"/>
     </row>
     <row r="257">
-      <c r="F257" s="27"/>
+      <c r="F257" s="26"/>
     </row>
     <row r="258">
-      <c r="F258" s="27"/>
+      <c r="F258" s="26"/>
     </row>
     <row r="259">
-      <c r="F259" s="27"/>
+      <c r="F259" s="26"/>
     </row>
     <row r="260">
-      <c r="F260" s="27"/>
+      <c r="F260" s="26"/>
     </row>
     <row r="261">
-      <c r="F261" s="27"/>
+      <c r="F261" s="26"/>
     </row>
     <row r="262">
-      <c r="F262" s="27"/>
+      <c r="F262" s="26"/>
     </row>
     <row r="263">
-      <c r="F263" s="27"/>
+      <c r="F263" s="26"/>
     </row>
     <row r="264">
-      <c r="F264" s="27"/>
+      <c r="F264" s="26"/>
     </row>
     <row r="265">
-      <c r="F265" s="27"/>
+      <c r="F265" s="26"/>
     </row>
     <row r="266">
-      <c r="F266" s="27"/>
+      <c r="F266" s="26"/>
     </row>
     <row r="267">
-      <c r="F267" s="27"/>
+      <c r="F267" s="26"/>
     </row>
     <row r="268">
-      <c r="F268" s="27"/>
+      <c r="F268" s="26"/>
     </row>
     <row r="269">
-      <c r="F269" s="27"/>
+      <c r="F269" s="26"/>
     </row>
     <row r="270">
-      <c r="F270" s="27"/>
+      <c r="F270" s="26"/>
     </row>
     <row r="271">
-      <c r="F271" s="27"/>
+      <c r="F271" s="26"/>
     </row>
     <row r="272">
-      <c r="F272" s="27"/>
+      <c r="F272" s="26"/>
     </row>
     <row r="273">
-      <c r="F273" s="27"/>
+      <c r="F273" s="26"/>
     </row>
     <row r="274">
-      <c r="F274" s="27"/>
+      <c r="F274" s="26"/>
     </row>
     <row r="275">
-      <c r="F275" s="27"/>
+      <c r="F275" s="26"/>
     </row>
     <row r="276">
-      <c r="F276" s="27"/>
+      <c r="F276" s="26"/>
     </row>
     <row r="277">
-      <c r="F277" s="27"/>
+      <c r="F277" s="26"/>
     </row>
     <row r="278">
-      <c r="F278" s="27"/>
+      <c r="F278" s="26"/>
     </row>
     <row r="279">
-      <c r="F279" s="27"/>
+      <c r="F279" s="26"/>
     </row>
     <row r="280">
-      <c r="F280" s="27"/>
+      <c r="F280" s="26"/>
     </row>
     <row r="281">
-      <c r="F281" s="27"/>
+      <c r="F281" s="26"/>
     </row>
     <row r="282">
-      <c r="F282" s="27"/>
+      <c r="F282" s="26"/>
     </row>
     <row r="283">
-      <c r="F283" s="27"/>
+      <c r="F283" s="26"/>
     </row>
     <row r="284">
-      <c r="F284" s="27"/>
+      <c r="F284" s="26"/>
     </row>
     <row r="285">
-      <c r="F285" s="27"/>
+      <c r="F285" s="26"/>
     </row>
     <row r="286">
-      <c r="F286" s="27"/>
+      <c r="F286" s="26"/>
     </row>
     <row r="287">
-      <c r="F287" s="27"/>
+      <c r="F287" s="26"/>
     </row>
     <row r="288">
-      <c r="F288" s="27"/>
+      <c r="F288" s="26"/>
     </row>
     <row r="289">
-      <c r="F289" s="27"/>
+      <c r="F289" s="26"/>
     </row>
     <row r="290">
-      <c r="F290" s="27"/>
+      <c r="F290" s="26"/>
     </row>
     <row r="291">
-      <c r="F291" s="27"/>
+      <c r="F291" s="26"/>
     </row>
     <row r="292">
-      <c r="F292" s="27"/>
+      <c r="F292" s="26"/>
     </row>
     <row r="293">
-      <c r="F293" s="27"/>
+      <c r="F293" s="26"/>
     </row>
     <row r="294">
-      <c r="F294" s="27"/>
+      <c r="F294" s="26"/>
     </row>
     <row r="295">
-      <c r="F295" s="27"/>
+      <c r="F295" s="26"/>
     </row>
     <row r="296">
-      <c r="F296" s="27"/>
+      <c r="F296" s="26"/>
     </row>
     <row r="297">
-      <c r="F297" s="27"/>
+      <c r="F297" s="26"/>
     </row>
     <row r="298">
-      <c r="F298" s="27"/>
+      <c r="F298" s="26"/>
     </row>
     <row r="299">
-      <c r="F299" s="27"/>
+      <c r="F299" s="26"/>
     </row>
     <row r="300">
-      <c r="F300" s="27"/>
+      <c r="F300" s="26"/>
     </row>
     <row r="301">
-      <c r="F301" s="27"/>
+      <c r="F301" s="26"/>
     </row>
     <row r="302">
-      <c r="F302" s="27"/>
+      <c r="F302" s="26"/>
     </row>
     <row r="303">
-      <c r="F303" s="27"/>
+      <c r="F303" s="26"/>
     </row>
     <row r="304">
-      <c r="F304" s="27"/>
+      <c r="F304" s="26"/>
     </row>
     <row r="305">
-      <c r="F305" s="27"/>
+      <c r="F305" s="26"/>
     </row>
     <row r="306">
-      <c r="F306" s="27"/>
+      <c r="F306" s="26"/>
     </row>
     <row r="307">
-      <c r="F307" s="27"/>
+      <c r="F307" s="26"/>
     </row>
     <row r="308">
-      <c r="F308" s="27"/>
+      <c r="F308" s="26"/>
     </row>
     <row r="309">
-      <c r="F309" s="27"/>
+      <c r="F309" s="26"/>
     </row>
     <row r="310">
-      <c r="F310" s="27"/>
+      <c r="F310" s="26"/>
     </row>
     <row r="311">
-      <c r="F311" s="27"/>
+      <c r="F311" s="26"/>
     </row>
     <row r="312">
-      <c r="F312" s="27"/>
+      <c r="F312" s="26"/>
     </row>
     <row r="313">
-      <c r="F313" s="27"/>
+      <c r="F313" s="26"/>
     </row>
     <row r="314">
-      <c r="F314" s="27"/>
+      <c r="F314" s="26"/>
     </row>
     <row r="315">
-      <c r="F315" s="27"/>
+      <c r="F315" s="26"/>
     </row>
     <row r="316">
-      <c r="F316" s="27"/>
+      <c r="F316" s="26"/>
     </row>
     <row r="317">
-      <c r="F317" s="27"/>
+      <c r="F317" s="26"/>
     </row>
     <row r="318">
-      <c r="F318" s="27"/>
+      <c r="F318" s="26"/>
     </row>
     <row r="319">
-      <c r="F319" s="27"/>
+      <c r="F319" s="26"/>
     </row>
     <row r="320">
-      <c r="F320" s="27"/>
+      <c r="F320" s="26"/>
     </row>
     <row r="321">
-      <c r="F321" s="27"/>
+      <c r="F321" s="26"/>
     </row>
     <row r="322">
-      <c r="F322" s="27"/>
+      <c r="F322" s="26"/>
     </row>
     <row r="323">
-      <c r="F323" s="27"/>
+      <c r="F323" s="26"/>
     </row>
     <row r="324">
-      <c r="F324" s="27"/>
+      <c r="F324" s="26"/>
     </row>
     <row r="325">
-      <c r="F325" s="27"/>
+      <c r="F325" s="26"/>
     </row>
     <row r="326">
-      <c r="F326" s="27"/>
+      <c r="F326" s="26"/>
     </row>
     <row r="327">
-      <c r="F327" s="27"/>
+      <c r="F327" s="26"/>
     </row>
     <row r="328">
-      <c r="F328" s="27"/>
+      <c r="F328" s="26"/>
     </row>
     <row r="329">
-      <c r="F329" s="27"/>
+      <c r="F329" s="26"/>
     </row>
     <row r="330">
-      <c r="F330" s="27"/>
+      <c r="F330" s="26"/>
     </row>
     <row r="331">
-      <c r="F331" s="27"/>
+      <c r="F331" s="26"/>
     </row>
     <row r="332">
-      <c r="F332" s="27"/>
+      <c r="F332" s="26"/>
     </row>
     <row r="333">
-      <c r="F333" s="27"/>
+      <c r="F333" s="26"/>
     </row>
     <row r="334">
-      <c r="F334" s="27"/>
+      <c r="F334" s="26"/>
     </row>
     <row r="335">
-      <c r="F335" s="27"/>
+      <c r="F335" s="26"/>
     </row>
     <row r="336">
-      <c r="F336" s="27"/>
+      <c r="F336" s="26"/>
     </row>
     <row r="337">
-      <c r="F337" s="27"/>
+      <c r="F337" s="26"/>
     </row>
     <row r="338">
-      <c r="F338" s="27"/>
+      <c r="F338" s="26"/>
     </row>
     <row r="339">
-      <c r="F339" s="27"/>
+      <c r="F339" s="26"/>
     </row>
     <row r="340">
-      <c r="F340" s="27"/>
+      <c r="F340" s="26"/>
     </row>
     <row r="341">
-      <c r="F341" s="27"/>
+      <c r="F341" s="26"/>
     </row>
     <row r="342">
-      <c r="F342" s="27"/>
+      <c r="F342" s="26"/>
     </row>
     <row r="343">
-      <c r="F343" s="27"/>
+      <c r="F343" s="26"/>
     </row>
     <row r="344">
-      <c r="F344" s="27"/>
+      <c r="F344" s="26"/>
     </row>
     <row r="345">
-      <c r="F345" s="27"/>
+      <c r="F345" s="26"/>
     </row>
     <row r="346">
-      <c r="F346" s="27"/>
+      <c r="F346" s="26"/>
     </row>
     <row r="347">
-      <c r="F347" s="27"/>
+      <c r="F347" s="26"/>
     </row>
     <row r="348">
-      <c r="F348" s="27"/>
+      <c r="F348" s="26"/>
     </row>
     <row r="349">
-      <c r="F349" s="27"/>
+      <c r="F349" s="26"/>
     </row>
     <row r="350">
-      <c r="F350" s="27"/>
+      <c r="F350" s="26"/>
     </row>
     <row r="351">
-      <c r="F351" s="27"/>
+      <c r="F351" s="26"/>
     </row>
     <row r="352">
-      <c r="F352" s="27"/>
+      <c r="F352" s="26"/>
     </row>
     <row r="353">
-      <c r="F353" s="27"/>
+      <c r="F353" s="26"/>
     </row>
     <row r="354">
-      <c r="F354" s="27"/>
+      <c r="F354" s="26"/>
     </row>
     <row r="355">
-      <c r="F355" s="27"/>
+      <c r="F355" s="26"/>
     </row>
     <row r="356">
-      <c r="F356" s="27"/>
+      <c r="F356" s="26"/>
     </row>
     <row r="357">
-      <c r="F357" s="27"/>
+      <c r="F357" s="26"/>
     </row>
     <row r="358">
-      <c r="F358" s="27"/>
+      <c r="F358" s="26"/>
     </row>
     <row r="359">
-      <c r="F359" s="27"/>
+      <c r="F359" s="26"/>
     </row>
     <row r="360">
-      <c r="F360" s="27"/>
+      <c r="F360" s="26"/>
     </row>
     <row r="361">
-      <c r="F361" s="27"/>
+      <c r="F361" s="26"/>
     </row>
     <row r="362">
-      <c r="F362" s="27"/>
+      <c r="F362" s="26"/>
     </row>
     <row r="363">
-      <c r="F363" s="27"/>
+      <c r="F363" s="26"/>
     </row>
     <row r="364">
-      <c r="F364" s="27"/>
+      <c r="F364" s="26"/>
     </row>
     <row r="365">
-      <c r="F365" s="27"/>
+      <c r="F365" s="26"/>
     </row>
     <row r="366">
-      <c r="F366" s="27"/>
+      <c r="F366" s="26"/>
     </row>
     <row r="367">
-      <c r="F367" s="27"/>
+      <c r="F367" s="26"/>
     </row>
     <row r="368">
-      <c r="F368" s="27"/>
+      <c r="F368" s="26"/>
     </row>
     <row r="369">
-      <c r="F369" s="27"/>
+      <c r="F369" s="26"/>
     </row>
     <row r="370">
-      <c r="F370" s="27"/>
+      <c r="F370" s="26"/>
     </row>
     <row r="371">
-      <c r="F371" s="27"/>
+      <c r="F371" s="26"/>
     </row>
     <row r="372">
-      <c r="F372" s="27"/>
+      <c r="F372" s="26"/>
     </row>
     <row r="373">
-      <c r="F373" s="27"/>
+      <c r="F373" s="26"/>
     </row>
     <row r="374">
-      <c r="F374" s="27"/>
+      <c r="F374" s="26"/>
     </row>
     <row r="375">
-      <c r="F375" s="27"/>
+      <c r="F375" s="26"/>
     </row>
     <row r="376">
-      <c r="F376" s="27"/>
+      <c r="F376" s="26"/>
     </row>
     <row r="377">
-      <c r="F377" s="27"/>
+      <c r="F377" s="26"/>
     </row>
     <row r="378">
-      <c r="F378" s="27"/>
+      <c r="F378" s="26"/>
     </row>
     <row r="379">
-      <c r="F379" s="27"/>
+      <c r="F379" s="26"/>
     </row>
     <row r="380">
-      <c r="F380" s="27"/>
+      <c r="F380" s="26"/>
     </row>
     <row r="381">
-      <c r="F381" s="27"/>
+      <c r="F381" s="26"/>
     </row>
     <row r="382">
-      <c r="F382" s="27"/>
+      <c r="F382" s="26"/>
     </row>
     <row r="383">
-      <c r="F383" s="27"/>
+      <c r="F383" s="26"/>
     </row>
     <row r="384">
-      <c r="F384" s="27"/>
+      <c r="F384" s="26"/>
     </row>
     <row r="385">
-      <c r="F385" s="27"/>
+      <c r="F385" s="26"/>
     </row>
     <row r="386">
-      <c r="F386" s="27"/>
+      <c r="F386" s="26"/>
     </row>
     <row r="387">
-      <c r="F387" s="27"/>
+      <c r="F387" s="26"/>
     </row>
     <row r="388">
-      <c r="F388" s="27"/>
+      <c r="F388" s="26"/>
     </row>
     <row r="389">
-      <c r="F389" s="27"/>
+      <c r="F389" s="26"/>
     </row>
     <row r="390">
-      <c r="F390" s="27"/>
+      <c r="F390" s="26"/>
     </row>
     <row r="391">
-      <c r="F391" s="27"/>
+      <c r="F391" s="26"/>
     </row>
     <row r="392">
-      <c r="F392" s="27"/>
+      <c r="F392" s="26"/>
     </row>
     <row r="393">
-      <c r="F393" s="27"/>
+      <c r="F393" s="26"/>
     </row>
     <row r="394">
-      <c r="F394" s="27"/>
+      <c r="F394" s="26"/>
     </row>
     <row r="395">
-      <c r="F395" s="27"/>
+      <c r="F395" s="26"/>
     </row>
     <row r="396">
-      <c r="F396" s="27"/>
+      <c r="F396" s="26"/>
     </row>
     <row r="397">
-      <c r="F397" s="27"/>
+      <c r="F397" s="26"/>
     </row>
     <row r="398">
-      <c r="F398" s="27"/>
+      <c r="F398" s="26"/>
     </row>
     <row r="399">
-      <c r="F399" s="27"/>
+      <c r="F399" s="26"/>
     </row>
     <row r="400">
-      <c r="F400" s="27"/>
+      <c r="F400" s="26"/>
     </row>
     <row r="401">
-      <c r="F401" s="27"/>
+      <c r="F401" s="26"/>
     </row>
     <row r="402">
-      <c r="F402" s="27"/>
+      <c r="F402" s="26"/>
     </row>
     <row r="403">
-      <c r="F403" s="27"/>
+      <c r="F403" s="26"/>
     </row>
     <row r="404">
-      <c r="F404" s="27"/>
+      <c r="F404" s="26"/>
     </row>
     <row r="405">
-      <c r="F405" s="27"/>
+      <c r="F405" s="26"/>
     </row>
     <row r="406">
-      <c r="F406" s="27"/>
+      <c r="F406" s="26"/>
     </row>
     <row r="407">
-      <c r="F407" s="27"/>
+      <c r="F407" s="26"/>
     </row>
     <row r="408">
-      <c r="F408" s="27"/>
+      <c r="F408" s="26"/>
     </row>
     <row r="409">
-      <c r="F409" s="27"/>
+      <c r="F409" s="26"/>
     </row>
     <row r="410">
-      <c r="F410" s="27"/>
+      <c r="F410" s="26"/>
     </row>
     <row r="411">
-      <c r="F411" s="27"/>
+      <c r="F411" s="26"/>
     </row>
     <row r="412">
-      <c r="F412" s="27"/>
+      <c r="F412" s="26"/>
     </row>
     <row r="413">
-      <c r="F413" s="27"/>
+      <c r="F413" s="26"/>
     </row>
     <row r="414">
-      <c r="F414" s="27"/>
+      <c r="F414" s="26"/>
     </row>
     <row r="415">
-      <c r="F415" s="27"/>
+      <c r="F415" s="26"/>
     </row>
     <row r="416">
-      <c r="F416" s="27"/>
+      <c r="F416" s="26"/>
     </row>
     <row r="417">
-      <c r="F417" s="27"/>
+      <c r="F417" s="26"/>
     </row>
     <row r="418">
-      <c r="F418" s="27"/>
+      <c r="F418" s="26"/>
     </row>
     <row r="419">
-      <c r="F419" s="27"/>
+      <c r="F419" s="26"/>
     </row>
     <row r="420">
-      <c r="F420" s="27"/>
+      <c r="F420" s="26"/>
     </row>
     <row r="421">
-      <c r="F421" s="27"/>
+      <c r="F421" s="26"/>
     </row>
     <row r="422">
-      <c r="F422" s="27"/>
+      <c r="F422" s="26"/>
     </row>
     <row r="423">
-      <c r="F423" s="27"/>
+      <c r="F423" s="26"/>
     </row>
     <row r="424">
-      <c r="F424" s="27"/>
+      <c r="F424" s="26"/>
     </row>
     <row r="425">
-      <c r="F425" s="27"/>
+      <c r="F425" s="26"/>
     </row>
     <row r="426">
-      <c r="F426" s="27"/>
+      <c r="F426" s="26"/>
     </row>
     <row r="427">
-      <c r="F427" s="27"/>
+      <c r="F427" s="26"/>
     </row>
     <row r="428">
-      <c r="F428" s="27"/>
+      <c r="F428" s="26"/>
     </row>
     <row r="429">
-      <c r="F429" s="27"/>
+      <c r="F429" s="26"/>
     </row>
     <row r="430">
-      <c r="F430" s="27"/>
+      <c r="F430" s="26"/>
     </row>
     <row r="431">
-      <c r="F431" s="27"/>
+      <c r="F431" s="26"/>
     </row>
     <row r="432">
-      <c r="F432" s="27"/>
+      <c r="F432" s="26"/>
     </row>
     <row r="433">
-      <c r="F433" s="27"/>
+      <c r="F433" s="26"/>
     </row>
     <row r="434">
-      <c r="F434" s="27"/>
+      <c r="F434" s="26"/>
     </row>
     <row r="435">
-      <c r="F435" s="27"/>
+      <c r="F435" s="26"/>
     </row>
     <row r="436">
-      <c r="F436" s="27"/>
+      <c r="F436" s="26"/>
     </row>
     <row r="437">
-      <c r="F437" s="27"/>
+      <c r="F437" s="26"/>
     </row>
     <row r="438">
-      <c r="F438" s="27"/>
+      <c r="F438" s="26"/>
     </row>
     <row r="439">
-      <c r="F439" s="27"/>
+      <c r="F439" s="26"/>
     </row>
     <row r="440">
-      <c r="F440" s="27"/>
+      <c r="F440" s="26"/>
     </row>
     <row r="441">
-      <c r="F441" s="27"/>
+      <c r="F441" s="26"/>
     </row>
     <row r="442">
-      <c r="F442" s="27"/>
+      <c r="F442" s="26"/>
     </row>
     <row r="443">
-      <c r="F443" s="27"/>
+      <c r="F443" s="26"/>
     </row>
     <row r="444">
-      <c r="F444" s="27"/>
+      <c r="F444" s="26"/>
     </row>
     <row r="445">
-      <c r="F445" s="27"/>
+      <c r="F445" s="26"/>
     </row>
     <row r="446">
-      <c r="F446" s="27"/>
+      <c r="F446" s="26"/>
     </row>
     <row r="447">
-      <c r="F447" s="27"/>
+      <c r="F447" s="26"/>
     </row>
     <row r="448">
-      <c r="F448" s="27"/>
+      <c r="F448" s="26"/>
     </row>
     <row r="449">
-      <c r="F449" s="27"/>
+      <c r="F449" s="26"/>
     </row>
     <row r="450">
-      <c r="F450" s="27"/>
+      <c r="F450" s="26"/>
     </row>
     <row r="451">
-      <c r="F451" s="27"/>
+      <c r="F451" s="26"/>
     </row>
     <row r="452">
-      <c r="F452" s="27"/>
+      <c r="F452" s="26"/>
     </row>
     <row r="453">
-      <c r="F453" s="27"/>
+      <c r="F453" s="26"/>
     </row>
     <row r="454">
-      <c r="F454" s="27"/>
+      <c r="F454" s="26"/>
     </row>
     <row r="455">
-      <c r="F455" s="27"/>
+      <c r="F455" s="26"/>
     </row>
     <row r="456">
-      <c r="F456" s="27"/>
+      <c r="F456" s="26"/>
     </row>
     <row r="457">
-      <c r="F457" s="27"/>
+      <c r="F457" s="26"/>
     </row>
     <row r="458">
-      <c r="F458" s="27"/>
+      <c r="F458" s="26"/>
     </row>
     <row r="459">
-      <c r="F459" s="27"/>
+      <c r="F459" s="26"/>
     </row>
     <row r="460">
-      <c r="F460" s="27"/>
+      <c r="F460" s="26"/>
     </row>
     <row r="461">
-      <c r="F461" s="27"/>
+      <c r="F461" s="26"/>
     </row>
     <row r="462">
-      <c r="F462" s="27"/>
+      <c r="F462" s="26"/>
     </row>
     <row r="463">
-      <c r="F463" s="27"/>
+      <c r="F463" s="26"/>
     </row>
     <row r="464">
-      <c r="F464" s="27"/>
+      <c r="F464" s="26"/>
     </row>
     <row r="465">
-      <c r="F465" s="27"/>
+      <c r="F465" s="26"/>
     </row>
     <row r="466">
-      <c r="F466" s="27"/>
+      <c r="F466" s="26"/>
     </row>
     <row r="467">
-      <c r="F467" s="27"/>
+      <c r="F467" s="26"/>
     </row>
     <row r="468">
-      <c r="F468" s="27"/>
+      <c r="F468" s="26"/>
     </row>
     <row r="469">
-      <c r="F469" s="27"/>
+      <c r="F469" s="26"/>
     </row>
     <row r="470">
-      <c r="F470" s="27"/>
+      <c r="F470" s="26"/>
     </row>
     <row r="471">
-      <c r="F471" s="27"/>
+      <c r="F471" s="26"/>
     </row>
     <row r="472">
-      <c r="F472" s="27"/>
+      <c r="F472" s="26"/>
     </row>
     <row r="473">
-      <c r="F473" s="27"/>
+      <c r="F473" s="26"/>
     </row>
     <row r="474">
-      <c r="F474" s="27"/>
+      <c r="F474" s="26"/>
     </row>
     <row r="475">
-      <c r="F475" s="27"/>
+      <c r="F475" s="26"/>
     </row>
     <row r="476">
-      <c r="F476" s="27"/>
+      <c r="F476" s="26"/>
     </row>
     <row r="477">
-      <c r="F477" s="27"/>
+      <c r="F477" s="26"/>
     </row>
     <row r="478">
-      <c r="F478" s="27"/>
+      <c r="F478" s="26"/>
     </row>
     <row r="479">
-      <c r="F479" s="27"/>
+      <c r="F479" s="26"/>
     </row>
     <row r="480">
-      <c r="F480" s="27"/>
+      <c r="F480" s="26"/>
     </row>
     <row r="481">
-      <c r="F481" s="27"/>
+      <c r="F481" s="26"/>
     </row>
     <row r="482">
-      <c r="F482" s="27"/>
+      <c r="F482" s="26"/>
     </row>
     <row r="483">
-      <c r="F483" s="27"/>
+      <c r="F483" s="26"/>
     </row>
     <row r="484">
-      <c r="F484" s="27"/>
+      <c r="F484" s="26"/>
     </row>
     <row r="485">
-      <c r="F485" s="27"/>
+      <c r="F485" s="26"/>
     </row>
     <row r="486">
-      <c r="F486" s="27"/>
+      <c r="F486" s="26"/>
     </row>
     <row r="487">
-      <c r="F487" s="27"/>
+      <c r="F487" s="26"/>
     </row>
     <row r="488">
-      <c r="F488" s="27"/>
+      <c r="F488" s="26"/>
     </row>
     <row r="489">
-      <c r="F489" s="27"/>
+      <c r="F489" s="26"/>
     </row>
     <row r="490">
-      <c r="F490" s="27"/>
+      <c r="F490" s="26"/>
     </row>
     <row r="491">
-      <c r="F491" s="27"/>
+      <c r="F491" s="26"/>
     </row>
     <row r="492">
-      <c r="F492" s="27"/>
+      <c r="F492" s="26"/>
     </row>
     <row r="493">
-      <c r="F493" s="27"/>
+      <c r="F493" s="26"/>
     </row>
     <row r="494">
-      <c r="F494" s="27"/>
+      <c r="F494" s="26"/>
     </row>
     <row r="495">
-      <c r="F495" s="27"/>
+      <c r="F495" s="26"/>
     </row>
     <row r="496">
-      <c r="F496" s="27"/>
+      <c r="F496" s="26"/>
     </row>
     <row r="497">
-      <c r="F497" s="27"/>
+      <c r="F497" s="26"/>
     </row>
     <row r="498">
-      <c r="F498" s="27"/>
+      <c r="F498" s="26"/>
     </row>
     <row r="499">
-      <c r="F499" s="27"/>
+      <c r="F499" s="26"/>
     </row>
     <row r="500">
-      <c r="F500" s="27"/>
+      <c r="F500" s="26"/>
     </row>
     <row r="501">
-      <c r="F501" s="27"/>
+      <c r="F501" s="26"/>
     </row>
     <row r="502">
-      <c r="F502" s="27"/>
+      <c r="F502" s="26"/>
     </row>
     <row r="503">
-      <c r="F503" s="27"/>
+      <c r="F503" s="26"/>
     </row>
     <row r="504">
-      <c r="F504" s="27"/>
+      <c r="F504" s="26"/>
     </row>
     <row r="505">
-      <c r="F505" s="27"/>
+      <c r="F505" s="26"/>
     </row>
     <row r="506">
-      <c r="F506" s="27"/>
+      <c r="F506" s="26"/>
     </row>
     <row r="507">
-      <c r="F507" s="27"/>
+      <c r="F507" s="26"/>
     </row>
     <row r="508">
-      <c r="F508" s="27"/>
+      <c r="F508" s="26"/>
     </row>
     <row r="509">
-      <c r="F509" s="27"/>
+      <c r="F509" s="26"/>
     </row>
     <row r="510">
-      <c r="F510" s="27"/>
+      <c r="F510" s="26"/>
     </row>
     <row r="511">
-      <c r="F511" s="27"/>
+      <c r="F511" s="26"/>
     </row>
     <row r="512">
-      <c r="F512" s="27"/>
+      <c r="F512" s="26"/>
     </row>
     <row r="513">
-      <c r="F513" s="27"/>
+      <c r="F513" s="26"/>
     </row>
     <row r="514">
-      <c r="F514" s="27"/>
+      <c r="F514" s="26"/>
     </row>
     <row r="515">
-      <c r="F515" s="27"/>
+      <c r="F515" s="26"/>
     </row>
     <row r="516">
-      <c r="F516" s="27"/>
+      <c r="F516" s="26"/>
     </row>
     <row r="517">
-      <c r="F517" s="27"/>
+      <c r="F517" s="26"/>
     </row>
     <row r="518">
-      <c r="F518" s="27"/>
+      <c r="F518" s="26"/>
     </row>
     <row r="519">
-      <c r="F519" s="27"/>
+      <c r="F519" s="26"/>
     </row>
     <row r="520">
-      <c r="F520" s="27"/>
+      <c r="F520" s="26"/>
     </row>
     <row r="521">
-      <c r="F521" s="27"/>
+      <c r="F521" s="26"/>
     </row>
     <row r="522">
-      <c r="F522" s="27"/>
+      <c r="F522" s="26"/>
     </row>
     <row r="523">
-      <c r="F523" s="27"/>
+      <c r="F523" s="26"/>
     </row>
     <row r="524">
-      <c r="F524" s="27"/>
+      <c r="F524" s="26"/>
     </row>
     <row r="525">
-      <c r="F525" s="27"/>
+      <c r="F525" s="26"/>
     </row>
     <row r="526">
-      <c r="F526" s="27"/>
+      <c r="F526" s="26"/>
     </row>
     <row r="527">
-      <c r="F527" s="27"/>
+      <c r="F527" s="26"/>
     </row>
     <row r="528">
-      <c r="F528" s="27"/>
+      <c r="F528" s="26"/>
     </row>
     <row r="529">
-      <c r="F529" s="27"/>
+      <c r="F529" s="26"/>
     </row>
     <row r="530">
-      <c r="F530" s="27"/>
+      <c r="F530" s="26"/>
     </row>
     <row r="531">
-      <c r="F531" s="27"/>
+      <c r="F531" s="26"/>
     </row>
     <row r="532">
-      <c r="F532" s="27"/>
+      <c r="F532" s="26"/>
     </row>
     <row r="533">
-      <c r="F533" s="27"/>
+      <c r="F533" s="26"/>
     </row>
     <row r="534">
-      <c r="F534" s="27"/>
+      <c r="F534" s="26"/>
     </row>
     <row r="535">
-      <c r="F535" s="27"/>
+      <c r="F535" s="26"/>
     </row>
     <row r="536">
-      <c r="F536" s="27"/>
+      <c r="F536" s="26"/>
     </row>
     <row r="537">
-      <c r="F537" s="27"/>
+      <c r="F537" s="26"/>
     </row>
     <row r="538">
-      <c r="F538" s="27"/>
+      <c r="F538" s="26"/>
     </row>
     <row r="539">
-      <c r="F539" s="27"/>
+      <c r="F539" s="26"/>
     </row>
     <row r="540">
-      <c r="F540" s="27"/>
+      <c r="F540" s="26"/>
     </row>
     <row r="541">
-      <c r="F541" s="27"/>
+      <c r="F541" s="26"/>
     </row>
     <row r="542">
-      <c r="F542" s="27"/>
+      <c r="F542" s="26"/>
     </row>
     <row r="543">
-      <c r="F543" s="27"/>
+      <c r="F543" s="26"/>
     </row>
     <row r="544">
-      <c r="F544" s="27"/>
+      <c r="F544" s="26"/>
     </row>
     <row r="545">
-      <c r="F545" s="27"/>
+      <c r="F545" s="26"/>
     </row>
     <row r="546">
-      <c r="F546" s="27"/>
+      <c r="F546" s="26"/>
     </row>
     <row r="547">
-      <c r="F547" s="27"/>
+      <c r="F547" s="26"/>
     </row>
     <row r="548">
-      <c r="F548" s="27"/>
+      <c r="F548" s="26"/>
     </row>
     <row r="549">
-      <c r="F549" s="27"/>
+      <c r="F549" s="26"/>
     </row>
     <row r="550">
-      <c r="F550" s="27"/>
+      <c r="F550" s="26"/>
     </row>
     <row r="551">
-      <c r="F551" s="27"/>
+      <c r="F551" s="26"/>
     </row>
     <row r="552">
-      <c r="F552" s="27"/>
+      <c r="F552" s="26"/>
     </row>
     <row r="553">
-      <c r="F553" s="27"/>
+      <c r="F553" s="26"/>
     </row>
     <row r="554">
-      <c r="F554" s="27"/>
+      <c r="F554" s="26"/>
     </row>
     <row r="555">
-      <c r="F555" s="27"/>
+      <c r="F555" s="26"/>
     </row>
     <row r="556">
-      <c r="F556" s="27"/>
+      <c r="F556" s="26"/>
     </row>
     <row r="557">
-      <c r="F557" s="27"/>
+      <c r="F557" s="26"/>
     </row>
     <row r="558">
-      <c r="F558" s="27"/>
+      <c r="F558" s="26"/>
     </row>
     <row r="559">
-      <c r="F559" s="27"/>
+      <c r="F559" s="26"/>
     </row>
     <row r="560">
-      <c r="F560" s="27"/>
+      <c r="F560" s="26"/>
     </row>
     <row r="561">
-      <c r="F561" s="27"/>
+      <c r="F561" s="26"/>
     </row>
     <row r="562">
-      <c r="F562" s="27"/>
+      <c r="F562" s="26"/>
     </row>
     <row r="563">
-      <c r="F563" s="27"/>
+      <c r="F563" s="26"/>
     </row>
     <row r="564">
-      <c r="F564" s="27"/>
+      <c r="F564" s="26"/>
     </row>
     <row r="565">
-      <c r="F565" s="27"/>
+      <c r="F565" s="26"/>
     </row>
     <row r="566">
-      <c r="F566" s="27"/>
+      <c r="F566" s="26"/>
     </row>
     <row r="567">
-      <c r="F567" s="27"/>
+      <c r="F567" s="26"/>
     </row>
     <row r="568">
-      <c r="F568" s="27"/>
+      <c r="F568" s="26"/>
     </row>
     <row r="569">
-      <c r="F569" s="27"/>
+      <c r="F569" s="26"/>
     </row>
     <row r="570">
-      <c r="F570" s="27"/>
+      <c r="F570" s="26"/>
     </row>
     <row r="571">
-      <c r="F571" s="27"/>
+      <c r="F571" s="26"/>
     </row>
     <row r="572">
-      <c r="F572" s="27"/>
+      <c r="F572" s="26"/>
     </row>
     <row r="573">
-      <c r="F573" s="27"/>
+      <c r="F573" s="26"/>
     </row>
     <row r="574">
-      <c r="F574" s="27"/>
+      <c r="F574" s="26"/>
     </row>
     <row r="575">
-      <c r="F575" s="27"/>
+      <c r="F575" s="26"/>
     </row>
     <row r="576">
-      <c r="F576" s="27"/>
+      <c r="F576" s="26"/>
     </row>
     <row r="577">
-      <c r="F577" s="27"/>
+      <c r="F577" s="26"/>
     </row>
     <row r="578">
-      <c r="F578" s="27"/>
+      <c r="F578" s="26"/>
     </row>
     <row r="579">
-      <c r="F579" s="27"/>
+      <c r="F579" s="26"/>
     </row>
     <row r="580">
-      <c r="F580" s="27"/>
+      <c r="F580" s="26"/>
     </row>
     <row r="581">
-      <c r="F581" s="27"/>
+      <c r="F581" s="26"/>
     </row>
     <row r="582">
-      <c r="F582" s="27"/>
+      <c r="F582" s="26"/>
     </row>
     <row r="583">
-      <c r="F583" s="27"/>
+      <c r="F583" s="26"/>
     </row>
     <row r="584">
-      <c r="F584" s="27"/>
+      <c r="F584" s="26"/>
     </row>
     <row r="585">
-      <c r="F585" s="27"/>
+      <c r="F585" s="26"/>
     </row>
     <row r="586">
-      <c r="F586" s="27"/>
+      <c r="F586" s="26"/>
     </row>
     <row r="587">
-      <c r="F587" s="27"/>
+      <c r="F587" s="26"/>
     </row>
     <row r="588">
-      <c r="F588" s="27"/>
+      <c r="F588" s="26"/>
     </row>
     <row r="589">
-      <c r="F589" s="27"/>
+      <c r="F589" s="26"/>
     </row>
     <row r="590">
-      <c r="F590" s="27"/>
+      <c r="F590" s="26"/>
     </row>
     <row r="591">
-      <c r="F591" s="27"/>
+      <c r="F591" s="26"/>
     </row>
     <row r="592">
-      <c r="F592" s="27"/>
+      <c r="F592" s="26"/>
     </row>
     <row r="593">
-      <c r="F593" s="27"/>
+      <c r="F593" s="26"/>
     </row>
     <row r="594">
-      <c r="F594" s="27"/>
+      <c r="F594" s="26"/>
     </row>
     <row r="595">
-      <c r="F595" s="27"/>
+      <c r="F595" s="26"/>
     </row>
     <row r="596">
-      <c r="F596" s="27"/>
+      <c r="F596" s="26"/>
     </row>
     <row r="597">
-      <c r="F597" s="27"/>
+      <c r="F597" s="26"/>
     </row>
     <row r="598">
-      <c r="F598" s="27"/>
+      <c r="F598" s="26"/>
     </row>
     <row r="599">
-      <c r="F599" s="27"/>
+      <c r="F599" s="26"/>
     </row>
     <row r="600">
-      <c r="F600" s="27"/>
+      <c r="F600" s="26"/>
     </row>
     <row r="601">
-      <c r="F601" s="27"/>
+      <c r="F601" s="26"/>
     </row>
     <row r="602">
-      <c r="F602" s="27"/>
+      <c r="F602" s="26"/>
     </row>
     <row r="603">
-      <c r="F603" s="27"/>
+      <c r="F603" s="26"/>
     </row>
     <row r="604">
-      <c r="F604" s="27"/>
+      <c r="F604" s="26"/>
     </row>
     <row r="605">
-      <c r="F605" s="27"/>
+      <c r="F605" s="26"/>
     </row>
     <row r="606">
-      <c r="F606" s="27"/>
+      <c r="F606" s="26"/>
     </row>
     <row r="607">
-      <c r="F607" s="27"/>
+      <c r="F607" s="26"/>
     </row>
     <row r="608">
-      <c r="F608" s="27"/>
+      <c r="F608" s="26"/>
     </row>
     <row r="609">
-      <c r="F609" s="27"/>
+      <c r="F609" s="26"/>
     </row>
     <row r="610">
-      <c r="F610" s="27"/>
+      <c r="F610" s="26"/>
     </row>
     <row r="611">
-      <c r="F611" s="27"/>
+      <c r="F611" s="26"/>
     </row>
     <row r="612">
-      <c r="F612" s="27"/>
+      <c r="F612" s="26"/>
     </row>
     <row r="613">
-      <c r="F613" s="27"/>
+      <c r="F613" s="26"/>
     </row>
     <row r="614">
-      <c r="F614" s="27"/>
+      <c r="F614" s="26"/>
     </row>
     <row r="615">
-      <c r="F615" s="27"/>
+      <c r="F615" s="26"/>
     </row>
     <row r="616">
-      <c r="F616" s="27"/>
+      <c r="F616" s="26"/>
     </row>
     <row r="617">
-      <c r="F617" s="27"/>
+      <c r="F617" s="26"/>
     </row>
     <row r="618">
-      <c r="F618" s="27"/>
+      <c r="F618" s="26"/>
     </row>
     <row r="619">
-      <c r="F619" s="27"/>
+      <c r="F619" s="26"/>
     </row>
     <row r="620">
-      <c r="F620" s="27"/>
+      <c r="F620" s="26"/>
     </row>
     <row r="621">
-      <c r="F621" s="27"/>
+      <c r="F621" s="26"/>
     </row>
     <row r="622">
-      <c r="F622" s="27"/>
+      <c r="F622" s="26"/>
     </row>
     <row r="623">
-      <c r="F623" s="27"/>
+      <c r="F623" s="26"/>
     </row>
     <row r="624">
-      <c r="F624" s="27"/>
+      <c r="F624" s="26"/>
     </row>
     <row r="625">
-      <c r="F625" s="27"/>
+      <c r="F625" s="26"/>
     </row>
     <row r="626">
-      <c r="F626" s="27"/>
+      <c r="F626" s="26"/>
     </row>
     <row r="627">
-      <c r="F627" s="27"/>
+      <c r="F627" s="26"/>
     </row>
     <row r="628">
-      <c r="F628" s="27"/>
+      <c r="F628" s="26"/>
     </row>
     <row r="629">
-      <c r="F629" s="27"/>
+      <c r="F629" s="26"/>
     </row>
     <row r="630">
-      <c r="F630" s="27"/>
+      <c r="F630" s="26"/>
     </row>
     <row r="631">
-      <c r="F631" s="27"/>
+      <c r="F631" s="26"/>
     </row>
     <row r="632">
-      <c r="F632" s="27"/>
+      <c r="F632" s="26"/>
     </row>
     <row r="633">
-      <c r="F633" s="27"/>
+      <c r="F633" s="26"/>
     </row>
     <row r="634">
-      <c r="F634" s="27"/>
+      <c r="F634" s="26"/>
     </row>
     <row r="635">
-      <c r="F635" s="27"/>
+      <c r="F635" s="26"/>
     </row>
     <row r="636">
-      <c r="F636" s="27"/>
+      <c r="F636" s="26"/>
     </row>
     <row r="637">
-      <c r="F637" s="27"/>
+      <c r="F637" s="26"/>
     </row>
     <row r="638">
-      <c r="F638" s="27"/>
+      <c r="F638" s="26"/>
     </row>
     <row r="639">
-      <c r="F639" s="27"/>
+      <c r="F639" s="26"/>
     </row>
     <row r="640">
-      <c r="F640" s="27"/>
+      <c r="F640" s="26"/>
     </row>
     <row r="641">
-      <c r="F641" s="27"/>
+      <c r="F641" s="26"/>
     </row>
     <row r="642">
-      <c r="F642" s="27"/>
+      <c r="F642" s="26"/>
     </row>
     <row r="643">
-      <c r="F643" s="27"/>
+      <c r="F643" s="26"/>
     </row>
     <row r="644">
-      <c r="F644" s="27"/>
+      <c r="F644" s="26"/>
     </row>
     <row r="645">
-      <c r="F645" s="27"/>
+      <c r="F645" s="26"/>
     </row>
     <row r="646">
-      <c r="F646" s="27"/>
+      <c r="F646" s="26"/>
     </row>
     <row r="647">
-      <c r="F647" s="27"/>
+      <c r="F647" s="26"/>
     </row>
     <row r="648">
-      <c r="F648" s="27"/>
+      <c r="F648" s="26"/>
     </row>
     <row r="649">
-      <c r="F649" s="27"/>
+      <c r="F649" s="26"/>
     </row>
     <row r="650">
-      <c r="F650" s="27"/>
+      <c r="F650" s="26"/>
     </row>
     <row r="651">
-      <c r="F651" s="27"/>
+      <c r="F651" s="26"/>
     </row>
     <row r="652">
-      <c r="F652" s="27"/>
+      <c r="F652" s="26"/>
     </row>
     <row r="653">
-      <c r="F653" s="27"/>
+      <c r="F653" s="26"/>
     </row>
     <row r="654">
-      <c r="F654" s="27"/>
+      <c r="F654" s="26"/>
     </row>
     <row r="655">
-      <c r="F655" s="27"/>
+      <c r="F655" s="26"/>
     </row>
     <row r="656">
-      <c r="F656" s="27"/>
+      <c r="F656" s="26"/>
     </row>
     <row r="657">
-      <c r="F657" s="27"/>
+      <c r="F657" s="26"/>
     </row>
     <row r="658">
-      <c r="F658" s="27"/>
+      <c r="F658" s="26"/>
     </row>
     <row r="659">
-      <c r="F659" s="27"/>
+      <c r="F659" s="26"/>
     </row>
     <row r="660">
-      <c r="F660" s="27"/>
+      <c r="F660" s="26"/>
     </row>
     <row r="661">
-      <c r="F661" s="27"/>
+      <c r="F661" s="26"/>
     </row>
     <row r="662">
-      <c r="F662" s="27"/>
+      <c r="F662" s="26"/>
     </row>
     <row r="663">
-      <c r="F663" s="27"/>
+      <c r="F663" s="26"/>
     </row>
     <row r="664">
-      <c r="F664" s="27"/>
+      <c r="F664" s="26"/>
     </row>
     <row r="665">
-      <c r="F665" s="27"/>
+      <c r="F665" s="26"/>
     </row>
     <row r="666">
-      <c r="F666" s="27"/>
+      <c r="F666" s="26"/>
     </row>
     <row r="667">
-      <c r="F667" s="27"/>
+      <c r="F667" s="26"/>
     </row>
     <row r="668">
-      <c r="F668" s="27"/>
+      <c r="F668" s="26"/>
     </row>
     <row r="669">
-      <c r="F669" s="27"/>
+      <c r="F669" s="26"/>
     </row>
     <row r="670">
-      <c r="F670" s="27"/>
+      <c r="F670" s="26"/>
     </row>
     <row r="671">
-      <c r="F671" s="27"/>
+      <c r="F671" s="26"/>
     </row>
     <row r="672">
-      <c r="F672" s="27"/>
+      <c r="F672" s="26"/>
     </row>
     <row r="673">
-      <c r="F673" s="27"/>
+      <c r="F673" s="26"/>
     </row>
     <row r="674">
-      <c r="F674" s="27"/>
+      <c r="F674" s="26"/>
     </row>
     <row r="675">
-      <c r="F675" s="27"/>
+      <c r="F675" s="26"/>
     </row>
     <row r="676">
-      <c r="F676" s="27"/>
+      <c r="F676" s="26"/>
     </row>
     <row r="677">
-      <c r="F677" s="27"/>
+      <c r="F677" s="26"/>
     </row>
     <row r="678">
-      <c r="F678" s="27"/>
+      <c r="F678" s="26"/>
     </row>
     <row r="679">
-      <c r="F679" s="27"/>
+      <c r="F679" s="26"/>
     </row>
     <row r="680">
-      <c r="F680" s="27"/>
+      <c r="F680" s="26"/>
     </row>
     <row r="681">
-      <c r="F681" s="27"/>
+      <c r="F681" s="26"/>
     </row>
     <row r="682">
-      <c r="F682" s="27"/>
+      <c r="F682" s="26"/>
     </row>
     <row r="683">
-      <c r="F683" s="27"/>
+      <c r="F683" s="26"/>
     </row>
     <row r="684">
-      <c r="F684" s="27"/>
+      <c r="F684" s="26"/>
     </row>
     <row r="685">
-      <c r="F685" s="27"/>
+      <c r="F685" s="26"/>
     </row>
     <row r="686">
-      <c r="F686" s="27"/>
+      <c r="F686" s="26"/>
     </row>
     <row r="687">
-      <c r="F687" s="27"/>
+      <c r="F687" s="26"/>
     </row>
     <row r="688">
-      <c r="F688" s="27"/>
+      <c r="F688" s="26"/>
     </row>
     <row r="689">
-      <c r="F689" s="27"/>
+      <c r="F689" s="26"/>
     </row>
     <row r="690">
-      <c r="F690" s="27"/>
+      <c r="F690" s="26"/>
     </row>
     <row r="691">
-      <c r="F691" s="27"/>
+      <c r="F691" s="26"/>
     </row>
     <row r="692">
-      <c r="F692" s="27"/>
+      <c r="F692" s="26"/>
     </row>
     <row r="693">
-      <c r="F693" s="27"/>
+      <c r="F693" s="26"/>
     </row>
     <row r="694">
-      <c r="F694" s="27"/>
+      <c r="F694" s="26"/>
     </row>
     <row r="695">
-      <c r="F695" s="27"/>
+      <c r="F695" s="26"/>
     </row>
     <row r="696">
-      <c r="F696" s="27"/>
+      <c r="F696" s="26"/>
     </row>
     <row r="697">
-      <c r="F697" s="27"/>
+      <c r="F697" s="26"/>
     </row>
     <row r="698">
-      <c r="F698" s="27"/>
+      <c r="F698" s="26"/>
     </row>
     <row r="699">
-      <c r="F699" s="27"/>
+      <c r="F699" s="26"/>
     </row>
     <row r="700">
-      <c r="F700" s="27"/>
+      <c r="F700" s="26"/>
     </row>
     <row r="701">
-      <c r="F701" s="27"/>
+      <c r="F701" s="26"/>
     </row>
     <row r="702">
-      <c r="F702" s="27"/>
+      <c r="F702" s="26"/>
     </row>
     <row r="703">
-      <c r="F703" s="27"/>
+      <c r="F703" s="26"/>
     </row>
     <row r="704">
-      <c r="F704" s="27"/>
+      <c r="F704" s="26"/>
     </row>
     <row r="705">
-      <c r="F705" s="27"/>
+      <c r="F705" s="26"/>
     </row>
     <row r="706">
-      <c r="F706" s="27"/>
+      <c r="F706" s="26"/>
     </row>
     <row r="707">
-      <c r="F707" s="27"/>
+      <c r="F707" s="26"/>
     </row>
     <row r="708">
-      <c r="F708" s="27"/>
+      <c r="F708" s="26"/>
     </row>
     <row r="709">
-      <c r="F709" s="27"/>
+      <c r="F709" s="26"/>
     </row>
     <row r="710">
-      <c r="F710" s="27"/>
+      <c r="F710" s="26"/>
     </row>
     <row r="711">
-      <c r="F711" s="27"/>
+      <c r="F711" s="26"/>
     </row>
     <row r="712">
-      <c r="F712" s="27"/>
+      <c r="F712" s="26"/>
     </row>
     <row r="713">
-      <c r="F713" s="27"/>
+      <c r="F713" s="26"/>
     </row>
     <row r="714">
-      <c r="F714" s="27"/>
+      <c r="F714" s="26"/>
     </row>
     <row r="715">
-      <c r="F715" s="27"/>
+      <c r="F715" s="26"/>
     </row>
     <row r="716">
-      <c r="F716" s="27"/>
+      <c r="F716" s="26"/>
     </row>
     <row r="717">
-      <c r="F717" s="27"/>
+      <c r="F717" s="26"/>
     </row>
     <row r="718">
-      <c r="F718" s="27"/>
+      <c r="F718" s="26"/>
     </row>
     <row r="719">
-      <c r="F719" s="27"/>
+      <c r="F719" s="26"/>
     </row>
     <row r="720">
-      <c r="F720" s="27"/>
+      <c r="F720" s="26"/>
     </row>
     <row r="721">
-      <c r="F721" s="27"/>
+      <c r="F721" s="26"/>
     </row>
     <row r="722">
-      <c r="F722" s="27"/>
+      <c r="F722" s="26"/>
     </row>
     <row r="723">
-      <c r="F723" s="27"/>
+      <c r="F723" s="26"/>
     </row>
     <row r="724">
-      <c r="F724" s="27"/>
+      <c r="F724" s="26"/>
     </row>
     <row r="725">
-      <c r="F725" s="27"/>
+      <c r="F725" s="26"/>
     </row>
     <row r="726">
-      <c r="F726" s="27"/>
+      <c r="F726" s="26"/>
     </row>
     <row r="727">
-      <c r="F727" s="27"/>
+      <c r="F727" s="26"/>
     </row>
     <row r="728">
-      <c r="F728" s="27"/>
+      <c r="F728" s="26"/>
     </row>
     <row r="729">
-      <c r="F729" s="27"/>
+      <c r="F729" s="26"/>
     </row>
     <row r="730">
-      <c r="F730" s="27"/>
+      <c r="F730" s="26"/>
     </row>
     <row r="731">
-      <c r="F731" s="27"/>
+      <c r="F731" s="26"/>
     </row>
     <row r="732">
-      <c r="F732" s="27"/>
+      <c r="F732" s="26"/>
     </row>
     <row r="733">
-      <c r="F733" s="27"/>
+      <c r="F733" s="26"/>
     </row>
     <row r="734">
-      <c r="F734" s="27"/>
+      <c r="F734" s="26"/>
     </row>
     <row r="735">
-      <c r="F735" s="27"/>
+      <c r="F735" s="26"/>
     </row>
     <row r="736">
-      <c r="F736" s="27"/>
+      <c r="F736" s="26"/>
     </row>
     <row r="737">
-      <c r="F737" s="27"/>
+      <c r="F737" s="26"/>
     </row>
     <row r="738">
-      <c r="F738" s="27"/>
+      <c r="F738" s="26"/>
     </row>
     <row r="739">
-      <c r="F739" s="27"/>
+      <c r="F739" s="26"/>
     </row>
     <row r="740">
-      <c r="F740" s="27"/>
+      <c r="F740" s="26"/>
     </row>
     <row r="741">
-      <c r="F741" s="27"/>
+      <c r="F741" s="26"/>
     </row>
     <row r="742">
-      <c r="F742" s="27"/>
+      <c r="F742" s="26"/>
     </row>
     <row r="743">
-      <c r="F743" s="27"/>
+      <c r="F743" s="26"/>
     </row>
     <row r="744">
-      <c r="F744" s="27"/>
+      <c r="F744" s="26"/>
     </row>
     <row r="745">
-      <c r="F745" s="27"/>
+      <c r="F745" s="26"/>
     </row>
     <row r="746">
-      <c r="F746" s="27"/>
+      <c r="F746" s="26"/>
     </row>
     <row r="747">
-      <c r="F747" s="27"/>
+      <c r="F747" s="26"/>
     </row>
     <row r="748">
-      <c r="F748" s="27"/>
+      <c r="F748" s="26"/>
     </row>
     <row r="749">
-      <c r="F749" s="27"/>
+      <c r="F749" s="26"/>
     </row>
     <row r="750">
-      <c r="F750" s="27"/>
+      <c r="F750" s="26"/>
     </row>
     <row r="751">
-      <c r="F751" s="27"/>
+      <c r="F751" s="26"/>
     </row>
     <row r="752">
-      <c r="F752" s="27"/>
+      <c r="F752" s="26"/>
     </row>
     <row r="753">
-      <c r="F753" s="27"/>
+      <c r="F753" s="26"/>
     </row>
     <row r="754">
-      <c r="F754" s="27"/>
+      <c r="F754" s="26"/>
     </row>
     <row r="755">
-      <c r="F755" s="27"/>
+      <c r="F755" s="26"/>
     </row>
     <row r="756">
-      <c r="F756" s="27"/>
+      <c r="F756" s="26"/>
     </row>
     <row r="757">
-      <c r="F757" s="27"/>
+      <c r="F757" s="26"/>
     </row>
     <row r="758">
-      <c r="F758" s="27"/>
+      <c r="F758" s="26"/>
     </row>
     <row r="759">
-      <c r="F759" s="27"/>
+      <c r="F759" s="26"/>
     </row>
     <row r="760">
-      <c r="F760" s="27"/>
+      <c r="F760" s="26"/>
     </row>
     <row r="761">
-      <c r="F761" s="27"/>
+      <c r="F761" s="26"/>
     </row>
     <row r="762">
-      <c r="F762" s="27"/>
+      <c r="F762" s="26"/>
     </row>
     <row r="763">
-      <c r="F763" s="27"/>
+      <c r="F763" s="26"/>
     </row>
     <row r="764">
-      <c r="F764" s="27"/>
+      <c r="F764" s="26"/>
     </row>
     <row r="765">
-      <c r="F765" s="27"/>
+      <c r="F765" s="26"/>
     </row>
     <row r="766">
-      <c r="F766" s="27"/>
+      <c r="F766" s="26"/>
     </row>
     <row r="767">
-      <c r="F767" s="27"/>
+      <c r="F767" s="26"/>
     </row>
     <row r="768">
-      <c r="F768" s="27"/>
+      <c r="F768" s="26"/>
     </row>
     <row r="769">
-      <c r="F769" s="27"/>
+      <c r="F769" s="26"/>
     </row>
     <row r="770">
-      <c r="F770" s="27"/>
+      <c r="F770" s="26"/>
     </row>
     <row r="771">
-      <c r="F771" s="27"/>
+      <c r="F771" s="26"/>
     </row>
     <row r="772">
-      <c r="F772" s="27"/>
+      <c r="F772" s="26"/>
     </row>
     <row r="773">
-      <c r="F773" s="27"/>
+      <c r="F773" s="26"/>
     </row>
     <row r="774">
-      <c r="F774" s="27"/>
+      <c r="F774" s="26"/>
     </row>
     <row r="775">
-      <c r="F775" s="27"/>
+      <c r="F775" s="26"/>
     </row>
     <row r="776">
-      <c r="F776" s="27"/>
+      <c r="F776" s="26"/>
     </row>
     <row r="777">
-      <c r="F777" s="27"/>
+      <c r="F777" s="26"/>
     </row>
     <row r="778">
-      <c r="F778" s="27"/>
+      <c r="F778" s="26"/>
     </row>
     <row r="779">
-      <c r="F779" s="27"/>
+      <c r="F779" s="26"/>
     </row>
     <row r="780">
-      <c r="F780" s="27"/>
+      <c r="F780" s="26"/>
     </row>
     <row r="781">
-      <c r="F781" s="27"/>
+      <c r="F781" s="26"/>
     </row>
     <row r="782">
-      <c r="F782" s="27"/>
+      <c r="F782" s="26"/>
     </row>
     <row r="783">
-      <c r="F783" s="27"/>
+      <c r="F783" s="26"/>
     </row>
     <row r="784">
-      <c r="F784" s="27"/>
+      <c r="F784" s="26"/>
     </row>
     <row r="785">
-      <c r="F785" s="27"/>
+      <c r="F785" s="26"/>
     </row>
     <row r="786">
-      <c r="F786" s="27"/>
+      <c r="F786" s="26"/>
     </row>
     <row r="787">
-      <c r="F787" s="27"/>
+      <c r="F787" s="26"/>
     </row>
     <row r="788">
-      <c r="F788" s="27"/>
+      <c r="F788" s="26"/>
     </row>
     <row r="789">
-      <c r="F789" s="27"/>
+      <c r="F789" s="26"/>
     </row>
     <row r="790">
-      <c r="F790" s="27"/>
+      <c r="F790" s="26"/>
     </row>
     <row r="791">
-      <c r="F791" s="27"/>
+      <c r="F791" s="26"/>
     </row>
     <row r="792">
-      <c r="F792" s="27"/>
+      <c r="F792" s="26"/>
     </row>
     <row r="793">
-      <c r="F793" s="27"/>
+      <c r="F793" s="26"/>
     </row>
     <row r="794">
-      <c r="F794" s="27"/>
+      <c r="F794" s="26"/>
     </row>
     <row r="795">
-      <c r="F795" s="27"/>
+      <c r="F795" s="26"/>
     </row>
     <row r="796">
-      <c r="F796" s="27"/>
+      <c r="F796" s="26"/>
     </row>
     <row r="797">
-      <c r="F797" s="27"/>
+      <c r="F797" s="26"/>
     </row>
     <row r="798">
-      <c r="F798" s="27"/>
+      <c r="F798" s="26"/>
     </row>
     <row r="799">
-      <c r="F799" s="27"/>
+      <c r="F799" s="26"/>
     </row>
     <row r="800">
-      <c r="F800" s="27"/>
+      <c r="F800" s="26"/>
     </row>
     <row r="801">
-      <c r="F801" s="27"/>
+      <c r="F801" s="26"/>
     </row>
     <row r="802">
-      <c r="F802" s="27"/>
+      <c r="F802" s="26"/>
     </row>
     <row r="803">
-      <c r="F803" s="27"/>
+      <c r="F803" s="26"/>
     </row>
     <row r="804">
-      <c r="F804" s="27"/>
+      <c r="F804" s="26"/>
     </row>
     <row r="805">
-      <c r="F805" s="27"/>
+      <c r="F805" s="26"/>
     </row>
     <row r="806">
-      <c r="F806" s="27"/>
+      <c r="F806" s="26"/>
     </row>
     <row r="807">
-      <c r="F807" s="27"/>
+      <c r="F807" s="26"/>
     </row>
     <row r="808">
-      <c r="F808" s="27"/>
+      <c r="F808" s="26"/>
     </row>
     <row r="809">
-      <c r="F809" s="27"/>
+      <c r="F809" s="26"/>
     </row>
     <row r="810">
-      <c r="F810" s="27"/>
+      <c r="F810" s="26"/>
     </row>
     <row r="811">
-      <c r="F811" s="27"/>
+      <c r="F811" s="26"/>
     </row>
     <row r="812">
-      <c r="F812" s="27"/>
+      <c r="F812" s="26"/>
     </row>
     <row r="813">
-      <c r="F813" s="27"/>
+      <c r="F813" s="26"/>
     </row>
     <row r="814">
-      <c r="F814" s="27"/>
+      <c r="F814" s="26"/>
     </row>
     <row r="815">
-      <c r="F815" s="27"/>
+      <c r="F815" s="26"/>
     </row>
     <row r="816">
-      <c r="F816" s="27"/>
+      <c r="F816" s="26"/>
     </row>
     <row r="817">
-      <c r="F817" s="27"/>
+      <c r="F817" s="26"/>
     </row>
     <row r="818">
-      <c r="F818" s="27"/>
+      <c r="F818" s="26"/>
     </row>
     <row r="819">
-      <c r="F819" s="27"/>
+      <c r="F819" s="26"/>
     </row>
     <row r="820">
-      <c r="F820" s="27"/>
+      <c r="F820" s="26"/>
     </row>
     <row r="821">
-      <c r="F821" s="27"/>
+      <c r="F821" s="26"/>
     </row>
     <row r="822">
-      <c r="F822" s="27"/>
+      <c r="F822" s="26"/>
     </row>
     <row r="823">
-      <c r="F823" s="27"/>
+      <c r="F823" s="26"/>
     </row>
     <row r="824">
-      <c r="F824" s="27"/>
+      <c r="F824" s="26"/>
     </row>
     <row r="825">
-      <c r="F825" s="27"/>
+      <c r="F825" s="26"/>
     </row>
     <row r="826">
-      <c r="F826" s="27"/>
+      <c r="F826" s="26"/>
     </row>
     <row r="827">
-      <c r="F827" s="27"/>
+      <c r="F827" s="26"/>
     </row>
     <row r="828">
-      <c r="F828" s="27"/>
+      <c r="F828" s="26"/>
     </row>
     <row r="829">
-      <c r="F829" s="27"/>
+      <c r="F829" s="26"/>
     </row>
     <row r="830">
-      <c r="F830" s="27"/>
+      <c r="F830" s="26"/>
     </row>
     <row r="831">
-      <c r="F831" s="27"/>
+      <c r="F831" s="26"/>
     </row>
     <row r="832">
-      <c r="F832" s="27"/>
+      <c r="F832" s="26"/>
     </row>
     <row r="833">
-      <c r="F833" s="27"/>
+      <c r="F833" s="26"/>
     </row>
     <row r="834">
-      <c r="F834" s="27"/>
+      <c r="F834" s="26"/>
     </row>
     <row r="835">
-      <c r="F835" s="27"/>
+      <c r="F835" s="26"/>
     </row>
     <row r="836">
-      <c r="F836" s="27"/>
+      <c r="F836" s="26"/>
     </row>
     <row r="837">
-      <c r="F837" s="27"/>
+      <c r="F837" s="26"/>
     </row>
     <row r="838">
-      <c r="F838" s="27"/>
+      <c r="F838" s="26"/>
     </row>
     <row r="839">
-      <c r="F839" s="27"/>
+      <c r="F839" s="26"/>
     </row>
     <row r="840">
-      <c r="F840" s="27"/>
+      <c r="F840" s="26"/>
     </row>
     <row r="841">
-      <c r="F841" s="27"/>
+      <c r="F841" s="26"/>
     </row>
     <row r="842">
-      <c r="F842" s="27"/>
+      <c r="F842" s="26"/>
     </row>
     <row r="843">
-      <c r="F843" s="27"/>
+      <c r="F843" s="26"/>
     </row>
     <row r="844">
-      <c r="F844" s="27"/>
+      <c r="F844" s="26"/>
     </row>
     <row r="845">
-      <c r="F845" s="27"/>
+      <c r="F845" s="26"/>
     </row>
     <row r="846">
-      <c r="F846" s="27"/>
+      <c r="F846" s="26"/>
     </row>
     <row r="847">
-      <c r="F847" s="27"/>
+      <c r="F847" s="26"/>
     </row>
     <row r="848">
-      <c r="F848" s="27"/>
+      <c r="F848" s="26"/>
     </row>
     <row r="849">
-      <c r="F849" s="27"/>
+      <c r="F849" s="26"/>
     </row>
     <row r="850">
-      <c r="F850" s="27"/>
+      <c r="F850" s="26"/>
     </row>
     <row r="851">
-      <c r="F851" s="27"/>
+      <c r="F851" s="26"/>
     </row>
     <row r="852">
-      <c r="F852" s="27"/>
+      <c r="F852" s="26"/>
     </row>
     <row r="853">
-      <c r="F853" s="27"/>
+      <c r="F853" s="26"/>
     </row>
     <row r="854">
-      <c r="F854" s="27"/>
+      <c r="F854" s="26"/>
     </row>
     <row r="855">
-      <c r="F855" s="27"/>
+      <c r="F855" s="26"/>
     </row>
     <row r="856">
-      <c r="F856" s="27"/>
+      <c r="F856" s="26"/>
     </row>
     <row r="857">
-      <c r="F857" s="27"/>
+      <c r="F857" s="26"/>
     </row>
     <row r="858">
-      <c r="F858" s="27"/>
+      <c r="F858" s="26"/>
     </row>
     <row r="859">
-      <c r="F859" s="27"/>
+      <c r="F859" s="26"/>
     </row>
     <row r="860">
-      <c r="F860" s="27"/>
+      <c r="F860" s="26"/>
     </row>
     <row r="861">
-      <c r="F861" s="27"/>
+      <c r="F861" s="26"/>
     </row>
     <row r="862">
-      <c r="F862" s="27"/>
+      <c r="F862" s="26"/>
     </row>
     <row r="863">
-      <c r="F863" s="27"/>
+      <c r="F863" s="26"/>
     </row>
     <row r="864">
-      <c r="F864" s="27"/>
+      <c r="F864" s="26"/>
     </row>
     <row r="865">
-      <c r="F865" s="27"/>
+      <c r="F865" s="26"/>
     </row>
     <row r="866">
-      <c r="F866" s="27"/>
+      <c r="F866" s="26"/>
     </row>
     <row r="867">
-      <c r="F867" s="27"/>
+      <c r="F867" s="26"/>
     </row>
     <row r="868">
-      <c r="F868" s="27"/>
+      <c r="F868" s="26"/>
     </row>
     <row r="869">
-      <c r="F869" s="27"/>
+      <c r="F869" s="26"/>
     </row>
     <row r="870">
-      <c r="F870" s="27"/>
+      <c r="F870" s="26"/>
     </row>
     <row r="871">
-      <c r="F871" s="27"/>
+      <c r="F871" s="26"/>
     </row>
     <row r="872">
-      <c r="F872" s="27"/>
+      <c r="F872" s="26"/>
     </row>
     <row r="873">
-      <c r="F873" s="27"/>
+      <c r="F873" s="26"/>
     </row>
     <row r="874">
-      <c r="F874" s="27"/>
+      <c r="F874" s="26"/>
     </row>
     <row r="875">
-      <c r="F875" s="27"/>
+      <c r="F875" s="26"/>
     </row>
     <row r="876">
-      <c r="F876" s="27"/>
+      <c r="F876" s="26"/>
     </row>
     <row r="877">
-      <c r="F877" s="27"/>
+      <c r="F877" s="26"/>
     </row>
     <row r="878">
-      <c r="F878" s="27"/>
+      <c r="F878" s="26"/>
     </row>
     <row r="879">
-      <c r="F879" s="27"/>
+      <c r="F879" s="26"/>
     </row>
     <row r="880">
-      <c r="F880" s="27"/>
+      <c r="F880" s="26"/>
     </row>
     <row r="881">
-      <c r="F881" s="27"/>
+      <c r="F881" s="26"/>
     </row>
     <row r="882">
-      <c r="F882" s="27"/>
+      <c r="F882" s="26"/>
     </row>
     <row r="883">
-      <c r="F883" s="27"/>
+      <c r="F883" s="26"/>
     </row>
     <row r="884">
-      <c r="F884" s="27"/>
+      <c r="F884" s="26"/>
     </row>
     <row r="885">
-      <c r="F885" s="27"/>
+      <c r="F885" s="26"/>
     </row>
     <row r="886">
-      <c r="F886" s="27"/>
+      <c r="F886" s="26"/>
     </row>
     <row r="887">
-      <c r="F887" s="27"/>
+      <c r="F887" s="26"/>
     </row>
     <row r="888">
-      <c r="F888" s="27"/>
+      <c r="F888" s="26"/>
     </row>
     <row r="889">
-      <c r="F889" s="27"/>
+      <c r="F889" s="26"/>
     </row>
     <row r="890">
-      <c r="F890" s="27"/>
+      <c r="F890" s="26"/>
     </row>
     <row r="891">
-      <c r="F891" s="27"/>
+      <c r="F891" s="26"/>
     </row>
     <row r="892">
-      <c r="F892" s="27"/>
+      <c r="F892" s="26"/>
     </row>
     <row r="893">
-      <c r="F893" s="27"/>
+      <c r="F893" s="26"/>
     </row>
     <row r="894">
-      <c r="F894" s="27"/>
+      <c r="F894" s="26"/>
     </row>
     <row r="895">
-      <c r="F895" s="27"/>
+      <c r="F895" s="26"/>
     </row>
     <row r="896">
-      <c r="F896" s="27"/>
+      <c r="F896" s="26"/>
     </row>
     <row r="897">
-      <c r="F897" s="27"/>
+      <c r="F897" s="26"/>
     </row>
     <row r="898">
-      <c r="F898" s="27"/>
+      <c r="F898" s="26"/>
     </row>
     <row r="899">
-      <c r="F899" s="27"/>
+      <c r="F899" s="26"/>
     </row>
     <row r="900">
-      <c r="F900" s="27"/>
+      <c r="F900" s="26"/>
     </row>
     <row r="901">
-      <c r="F901" s="27"/>
+      <c r="F901" s="26"/>
     </row>
     <row r="902">
-      <c r="F902" s="27"/>
+      <c r="F902" s="26"/>
     </row>
     <row r="903">
-      <c r="F903" s="27"/>
+      <c r="F903" s="26"/>
     </row>
     <row r="904">
-      <c r="F904" s="27"/>
+      <c r="F904" s="26"/>
     </row>
     <row r="905">
-      <c r="F905" s="27"/>
+      <c r="F905" s="26"/>
     </row>
     <row r="906">
-      <c r="F906" s="27"/>
+      <c r="F906" s="26"/>
     </row>
     <row r="907">
-      <c r="F907" s="27"/>
+      <c r="F907" s="26"/>
     </row>
     <row r="908">
-      <c r="F908" s="27"/>
+      <c r="F908" s="26"/>
     </row>
     <row r="909">
-      <c r="F909" s="27"/>
+      <c r="F909" s="26"/>
     </row>
     <row r="910">
-      <c r="F910" s="27"/>
+      <c r="F910" s="26"/>
     </row>
     <row r="911">
-      <c r="F911" s="27"/>
+      <c r="F911" s="26"/>
     </row>
     <row r="912">
-      <c r="F912" s="27"/>
+      <c r="F912" s="26"/>
     </row>
     <row r="913">
-      <c r="F913" s="27"/>
+      <c r="F913" s="26"/>
     </row>
     <row r="914">
-      <c r="F914" s="27"/>
+      <c r="F914" s="26"/>
     </row>
     <row r="915">
-      <c r="F915" s="27"/>
+      <c r="F915" s="26"/>
     </row>
     <row r="916">
-      <c r="F916" s="27"/>
+      <c r="F916" s="26"/>
     </row>
     <row r="917">
-      <c r="F917" s="27"/>
+      <c r="F917" s="26"/>
     </row>
     <row r="918">
-      <c r="F918" s="27"/>
+      <c r="F918" s="26"/>
     </row>
     <row r="919">
-      <c r="F919" s="27"/>
+      <c r="F919" s="26"/>
     </row>
     <row r="920">
-      <c r="F920" s="27"/>
+      <c r="F920" s="26"/>
     </row>
     <row r="921">
-      <c r="F921" s="27"/>
+      <c r="F921" s="26"/>
     </row>
     <row r="922">
-      <c r="F922" s="27"/>
+      <c r="F922" s="26"/>
     </row>
     <row r="923">
-      <c r="F923" s="27"/>
+      <c r="F923" s="26"/>
     </row>
     <row r="924">
-      <c r="F924" s="27"/>
+      <c r="F924" s="26"/>
     </row>
     <row r="925">
-      <c r="F925" s="27"/>
+      <c r="F925" s="26"/>
     </row>
     <row r="926">
-      <c r="F926" s="27"/>
+      <c r="F926" s="26"/>
     </row>
     <row r="927">
-      <c r="F927" s="27"/>
+      <c r="F927" s="26"/>
     </row>
     <row r="928">
-      <c r="F928" s="27"/>
+      <c r="F928" s="26"/>
     </row>
     <row r="929">
-      <c r="F929" s="27"/>
+      <c r="F929" s="26"/>
     </row>
     <row r="930">
-      <c r="F930" s="27"/>
+      <c r="F930" s="26"/>
     </row>
     <row r="931">
-      <c r="F931" s="27"/>
+      <c r="F931" s="26"/>
     </row>
     <row r="932">
-      <c r="F932" s="27"/>
+      <c r="F932" s="26"/>
     </row>
     <row r="933">
-      <c r="F933" s="27"/>
+      <c r="F933" s="26"/>
     </row>
     <row r="934">
-      <c r="F934" s="27"/>
+      <c r="F934" s="26"/>
     </row>
     <row r="935">
-      <c r="F935" s="27"/>
+      <c r="F935" s="26"/>
     </row>
     <row r="936">
-      <c r="F936" s="27"/>
+      <c r="F936" s="26"/>
     </row>
     <row r="937">
-      <c r="F937" s="27"/>
+      <c r="F937" s="26"/>
     </row>
     <row r="938">
-      <c r="F938" s="27"/>
+      <c r="F938" s="26"/>
     </row>
     <row r="939">
-      <c r="F939" s="27"/>
+      <c r="F939" s="26"/>
     </row>
     <row r="940">
-      <c r="F940" s="27"/>
+      <c r="F940" s="26"/>
     </row>
     <row r="941">
-      <c r="F941" s="27"/>
+      <c r="F941" s="26"/>
     </row>
     <row r="942">
-      <c r="F942" s="27"/>
+      <c r="F942" s="26"/>
     </row>
     <row r="943">
-      <c r="F943" s="27"/>
+      <c r="F943" s="26"/>
     </row>
     <row r="944">
-      <c r="F944" s="27"/>
+      <c r="F944" s="26"/>
     </row>
     <row r="945">
-      <c r="F945" s="27"/>
+      <c r="F945" s="26"/>
     </row>
     <row r="946">
-      <c r="F946" s="27"/>
+      <c r="F946" s="26"/>
     </row>
     <row r="947">
-      <c r="F947" s="27"/>
+      <c r="F947" s="26"/>
     </row>
     <row r="948">
-      <c r="F948" s="27"/>
+      <c r="F948" s="26"/>
     </row>
     <row r="949">
-      <c r="F949" s="27"/>
+      <c r="F949" s="26"/>
     </row>
     <row r="950">
-      <c r="F950" s="27"/>
+      <c r="F950" s="26"/>
     </row>
     <row r="951">
-      <c r="F951" s="27"/>
+      <c r="F951" s="26"/>
     </row>
     <row r="952">
-      <c r="F952" s="27"/>
+      <c r="F952" s="26"/>
     </row>
     <row r="953">
-      <c r="F953" s="27"/>
+      <c r="F953" s="26"/>
     </row>
     <row r="954">
-      <c r="F954" s="27"/>
+      <c r="F954" s="26"/>
     </row>
     <row r="955">
-      <c r="F955" s="27"/>
+      <c r="F955" s="26"/>
     </row>
     <row r="956">
-      <c r="F956" s="27"/>
+      <c r="F956" s="26"/>
     </row>
     <row r="957">
-      <c r="F957" s="27"/>
+      <c r="F957" s="26"/>
     </row>
     <row r="958">
-      <c r="F958" s="27"/>
+      <c r="F958" s="26"/>
     </row>
     <row r="959">
-      <c r="F959" s="27"/>
+      <c r="F959" s="26"/>
     </row>
     <row r="960">
-      <c r="F960" s="27"/>
+      <c r="F960" s="26"/>
     </row>
     <row r="961">
-      <c r="F961" s="27"/>
+      <c r="F961" s="26"/>
     </row>
     <row r="962">
-      <c r="F962" s="27"/>
+      <c r="F962" s="26"/>
     </row>
     <row r="963">
-      <c r="F963" s="27"/>
+      <c r="F963" s="26"/>
     </row>
     <row r="964">
-      <c r="F964" s="27"/>
+      <c r="F964" s="26"/>
     </row>
     <row r="965">
-      <c r="F965" s="27"/>
+      <c r="F965" s="26"/>
     </row>
     <row r="966">
-      <c r="F966" s="27"/>
+      <c r="F966" s="26"/>
     </row>
     <row r="967">
-      <c r="F967" s="27"/>
+      <c r="F967" s="26"/>
     </row>
     <row r="968">
-      <c r="F968" s="27"/>
+      <c r="F968" s="26"/>
     </row>
     <row r="969">
-      <c r="F969" s="27"/>
+      <c r="F969" s="26"/>
     </row>
     <row r="970">
-      <c r="F970" s="27"/>
+      <c r="F970" s="26"/>
     </row>
     <row r="971">
-      <c r="F971" s="27"/>
+      <c r="F971" s="26"/>
     </row>
     <row r="972">
-      <c r="F972" s="27"/>
+      <c r="F972" s="26"/>
     </row>
     <row r="973">
-      <c r="F973" s="27"/>
+      <c r="F973" s="26"/>
     </row>
     <row r="974">
-      <c r="F974" s="27"/>
+      <c r="F974" s="26"/>
     </row>
     <row r="975">
-      <c r="F975" s="27"/>
+      <c r="F975" s="26"/>
     </row>
     <row r="976">
-      <c r="F976" s="27"/>
+      <c r="F976" s="26"/>
     </row>
     <row r="977">
-      <c r="F977" s="27"/>
+      <c r="F977" s="26"/>
     </row>
     <row r="978">
-      <c r="F978" s="27"/>
+      <c r="F978" s="26"/>
     </row>
     <row r="979">
-      <c r="F979" s="27"/>
+      <c r="F979" s="26"/>
     </row>
     <row r="980">
-      <c r="F980" s="27"/>
+      <c r="F980" s="26"/>
     </row>
     <row r="981">
-      <c r="F981" s="27"/>
+      <c r="F981" s="26"/>
     </row>
     <row r="982">
-      <c r="F982" s="27"/>
+      <c r="F982" s="26"/>
     </row>
     <row r="983">
-      <c r="F983" s="27"/>
+      <c r="F983" s="26"/>
     </row>
     <row r="984">
-      <c r="F984" s="27"/>
+      <c r="F984" s="26"/>
     </row>
     <row r="985">
-      <c r="F985" s="27"/>
+      <c r="F985" s="26"/>
     </row>
     <row r="986">
-      <c r="F986" s="27"/>
+      <c r="F986" s="26"/>
     </row>
     <row r="987">
-      <c r="F987" s="27"/>
+      <c r="F987" s="26"/>
     </row>
     <row r="988">
-      <c r="F988" s="27"/>
+      <c r="F988" s="26"/>
     </row>
     <row r="989">
-      <c r="F989" s="27"/>
+      <c r="F989" s="26"/>
     </row>
     <row r="990">
-      <c r="F990" s="27"/>
+      <c r="F990" s="26"/>
     </row>
     <row r="991">
-      <c r="F991" s="27"/>
+      <c r="F991" s="26"/>
     </row>
     <row r="992">
-      <c r="F992" s="27"/>
+      <c r="F992" s="26"/>
     </row>
     <row r="993">
-      <c r="F993" s="27"/>
+      <c r="F993" s="26"/>
     </row>
     <row r="994">
-      <c r="F994" s="27"/>
+      <c r="F994" s="26"/>
     </row>
     <row r="995">
-      <c r="F995" s="27"/>
+      <c r="F995" s="26"/>
     </row>
     <row r="996">
-      <c r="F996" s="27"/>
+      <c r="F996" s="26"/>
     </row>
     <row r="997">
-      <c r="F997" s="27"/>
+      <c r="F997" s="26"/>
     </row>
     <row r="998">
-      <c r="F998" s="27"/>
+      <c r="F998" s="26"/>
     </row>
     <row r="999">
-      <c r="F999" s="27"/>
+      <c r="F999" s="26"/>
     </row>
     <row r="1000">
-      <c r="F1000" s="27"/>
+      <c r="F1000" s="26"/>
     </row>
     <row r="1001">
-      <c r="F1001" s="27"/>
+      <c r="F1001" s="26"/>
     </row>
     <row r="1002">
-      <c r="F1002" s="27"/>
+      <c r="F1002" s="26"/>
     </row>
     <row r="1003">
-      <c r="F1003" s="27"/>
+      <c r="F1003" s="26"/>
     </row>
     <row r="1004">
-      <c r="F1004" s="27"/>
+      <c r="F1004" s="26"/>
     </row>
     <row r="1005">
-      <c r="F1005" s="27"/>
+      <c r="F1005" s="26"/>
     </row>
     <row r="1006">
-      <c r="F1006" s="27"/>
+      <c r="F1006" s="26"/>
     </row>
     <row r="1007">
-      <c r="F1007" s="27"/>
+      <c r="F1007" s="26"/>
     </row>
     <row r="1008">
-      <c r="F1008" s="27"/>
+      <c r="F1008" s="26"/>
     </row>
     <row r="1009">
-      <c r="F1009" s="27"/>
+      <c r="F1009" s="26"/>
     </row>
     <row r="1010">
-      <c r="F1010" s="27"/>
+      <c r="F1010" s="26"/>
     </row>
     <row r="1011">
-      <c r="F1011" s="27"/>
+      <c r="F1011" s="26"/>
     </row>
     <row r="1012">
-      <c r="F1012" s="27"/>
+      <c r="F1012" s="26"/>
     </row>
     <row r="1013">
-      <c r="F1013" s="27"/>
+      <c r="F1013" s="26"/>
     </row>
     <row r="1014">
-      <c r="F1014" s="27"/>
+      <c r="F1014" s="26"/>
     </row>
     <row r="1015">
-      <c r="F1015" s="27"/>
+      <c r="F1015" s="26"/>
     </row>
     <row r="1016">
-      <c r="F1016" s="27"/>
+      <c r="F1016" s="26"/>
     </row>
     <row r="1017">
-      <c r="F1017" s="27"/>
+      <c r="F1017" s="26"/>
     </row>
     <row r="1018">
-      <c r="F1018" s="27"/>
+      <c r="F1018" s="26"/>
     </row>
     <row r="1019">
-      <c r="F1019" s="27"/>
+      <c r="F1019" s="26"/>
     </row>
     <row r="1020">
-      <c r="F1020" s="27"/>
+      <c r="F1020" s="26"/>
     </row>
     <row r="1021">
-      <c r="F1021" s="27"/>
+      <c r="F1021" s="26"/>
     </row>
     <row r="1022">
-      <c r="F1022" s="27"/>
+      <c r="F1022" s="26"/>
     </row>
     <row r="1023">
-      <c r="F1023" s="27"/>
+      <c r="F1023" s="26"/>
     </row>
     <row r="1024">
-      <c r="F1024" s="27"/>
+      <c r="F1024" s="26"/>
     </row>
     <row r="1025">
-      <c r="F1025" s="27"/>
+      <c r="F1025" s="26"/>
     </row>
     <row r="1026">
-      <c r="F1026" s="27"/>
+      <c r="F1026" s="26"/>
     </row>
     <row r="1027">
-      <c r="F1027" s="27"/>
+      <c r="F1027" s="26"/>
     </row>
     <row r="1028">
-      <c r="F1028" s="27"/>
+      <c r="F1028" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
